--- a/wolf/Excel/CoinsGenerate_金币生成表.xlsx
+++ b/wolf/Excel/CoinsGenerate_金币生成表.xlsx
@@ -43,28 +43,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -136,10 +136,10 @@
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,6 +455,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
@@ -463,17 +466,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="48"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
@@ -499,7 +514,7 @@
         <v>Int</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -525,7 +540,7 @@
         <v>Quantity</v>
       </c>
     </row>
-    <row customHeight="true" ht="31" r="3">
+    <row customHeight="true" ht="33" r="3">
       <c r="A3" s="1" t="str">
         <v>序号</v>
       </c>
@@ -554,7 +569,7 @@
         <v>生成数量</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str"/>
       <c r="B4" s="1" t="str"/>
       <c r="C4" s="1" t="str"/>
@@ -564,7 +579,7 @@
       <c r="G4" s="1" t="str"/>
       <c r="H4" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
@@ -578,7 +593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1">
         <v>10001</v>
       </c>
@@ -588,7 +603,7 @@
       <c r="C6" t="str">
         <v>2.5|25|0.5</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="4" t="str">
         <v>125|1250|0</v>
       </c>
       <c r="E6" t="str">
@@ -604,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1">
         <v>10002</v>
       </c>
@@ -630,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="1">
         <v>10003</v>
       </c>
@@ -656,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1">
         <v>10004</v>
       </c>
@@ -682,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1">
         <v>10005</v>
       </c>
@@ -708,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11" s="1">
         <v>10006</v>
       </c>
@@ -734,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1">
         <v>10007</v>
       </c>
@@ -760,7 +775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" s="1">
         <v>10008</v>
       </c>
@@ -786,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1">
         <v>10009</v>
       </c>
@@ -812,7 +827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15" s="1">
         <v>10010</v>
       </c>
@@ -838,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16" s="1">
         <v>10011</v>
       </c>
@@ -864,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row customHeight="true" ht="23" r="17">
       <c r="A17" s="1">
         <v>10012</v>
       </c>
@@ -890,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18" s="1">
         <v>10013</v>
       </c>
@@ -916,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19" s="1">
         <v>10014</v>
       </c>
@@ -942,7 +957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20" s="1">
         <v>10015</v>
       </c>
@@ -968,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21" s="1">
         <v>10016</v>
       </c>
@@ -994,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22" s="1">
         <v>10017</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23" s="1">
         <v>20000</v>
       </c>
@@ -1034,7 +1049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24" s="1">
         <v>20001</v>
       </c>
@@ -1060,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25" s="1">
         <v>20002</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26" s="1">
         <v>20003</v>
       </c>
@@ -1112,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27" s="1">
         <v>20004</v>
       </c>
@@ -1138,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row customHeight="true" ht="23" r="28">
       <c r="A28" s="1">
         <v>20005</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row customHeight="true" ht="23" r="29">
       <c r="A29" s="1">
         <v>20006</v>
       </c>
@@ -1190,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row customHeight="true" ht="23" r="30">
       <c r="A30" s="1">
         <v>20007</v>
       </c>
@@ -1216,7 +1231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31" s="1">
         <v>20008</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row customHeight="true" ht="23" r="32">
       <c r="A32" s="1">
         <v>20009</v>
       </c>
@@ -1268,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row customHeight="true" ht="23" r="33">
       <c r="A33" s="1">
         <v>20010</v>
       </c>
@@ -1294,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="34">
+    <row customHeight="true" ht="23" r="34">
       <c r="A34" s="1">
         <v>20011</v>
       </c>
@@ -1320,7 +1335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="35">
+    <row customHeight="true" ht="23" r="35">
       <c r="A35" s="1">
         <v>20012</v>
       </c>
@@ -1346,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="36">
+    <row customHeight="true" ht="23" r="36">
       <c r="A36" s="1">
         <v>20013</v>
       </c>
@@ -1372,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="37">
+    <row customHeight="true" ht="23" r="37">
       <c r="A37" s="1">
         <v>20014</v>
       </c>
@@ -1388,7 +1403,7 @@
       <c r="E37" s="1" t="str">
         <v>-14390|14055|55</v>
       </c>
-      <c r="F37" s="4" t="str">
+      <c r="F37" s="3" t="str">
         <v>-14490|14055|55</v>
       </c>
       <c r="G37" s="1" t="str">
@@ -1398,7 +1413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="38">
+    <row customHeight="true" ht="23" r="38">
       <c r="A38" s="1">
         <v>20015</v>
       </c>
@@ -1424,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="39">
+    <row customHeight="true" ht="23" r="39">
       <c r="A39" s="1">
         <v>20016</v>
       </c>
@@ -1450,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="40">
+    <row customHeight="true" ht="23" r="40">
       <c r="A40" s="1">
         <v>20017</v>
       </c>
@@ -1476,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="41">
+    <row customHeight="true" ht="23" r="41">
       <c r="A41" s="1">
         <v>20018</v>
       </c>
@@ -1502,7 +1517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="42">
+    <row customHeight="true" ht="23" r="42">
       <c r="A42" s="1">
         <v>20019</v>
       </c>
@@ -1528,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="43">
+    <row customHeight="true" ht="23" r="43">
       <c r="A43" s="1">
         <v>20020</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="44">
+    <row customHeight="true" ht="23" r="44">
       <c r="A44" s="1">
         <v>30000</v>
       </c>
@@ -1565,10 +1580,10 @@
       <c r="F44" s="1" t="str"/>
       <c r="G44" s="1" t="str"/>
       <c r="H44" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="45">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="45">
       <c r="A45" s="1">
         <v>30001</v>
       </c>
@@ -1582,19 +1597,19 @@
         <v>200|465|50</v>
       </c>
       <c r="E45" s="1" t="str">
-        <v>819|14878|85</v>
+        <v>29793.830078125|32441.810546875|45</v>
       </c>
       <c r="F45" s="1" t="str">
-        <v>419|14878|85</v>
+        <v>30156.73046875|32065.119140625|45</v>
       </c>
       <c r="G45" s="1" t="str">
-        <v>419|13948|85</v>
+        <v>29512.619140625|32051.9609375|45</v>
       </c>
       <c r="H45" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row customHeight="true" ht="23" r="46">
       <c r="A46" s="1">
         <v>30002</v>
       </c>
@@ -1608,19 +1623,19 @@
         <v>350|250|50</v>
       </c>
       <c r="E46" s="1" t="str">
-        <v>1700|15100|85</v>
+        <v>29220.400390625|31393.939453125|50.159999847412109</v>
       </c>
       <c r="F46" s="1" t="str">
-        <v>1000|15100|85</v>
+        <v>28741.0703125|31067.849609375|45</v>
       </c>
       <c r="G46" s="1" t="str">
-        <v>1000|14600|85</v>
+        <v>28792.349609375|31501.23046875|50.170000076293945</v>
       </c>
       <c r="H46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="17" r="47">
+    <row customHeight="true" ht="19" r="47">
       <c r="A47" s="1">
         <v>30003</v>
       </c>
@@ -1634,19 +1649,19 @@
         <v>200|300|50</v>
       </c>
       <c r="E47" s="1" t="str">
-        <v>1400|13895|85</v>
+        <v>28240.69921875|32148.0390625|50.309999942779541</v>
       </c>
       <c r="F47" s="1" t="str">
-        <v>1000|13895|85</v>
+        <v>27722.859375|31922.80078125|45</v>
       </c>
       <c r="G47" s="1" t="str">
-        <v>1000|13295|85</v>
+        <v>27418.140625|32340.48046875|50.309999942779541</v>
       </c>
       <c r="H47" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row customHeight="true" ht="23" r="48">
       <c r="A48" s="1">
         <v>30004</v>
       </c>
@@ -1660,19 +1675,19 @@
         <v>450|135|50</v>
       </c>
       <c r="E48" s="1" t="str">
-        <v>2000|12705|85</v>
+        <v>27626.849609375|33510.98828125|50.9700000286102295</v>
       </c>
       <c r="F48" s="1" t="str">
-        <v>1100|12705|85</v>
+        <v>27914.119140625|33025.69921875|45</v>
       </c>
       <c r="G48" s="1" t="str">
-        <v>1100|12435|85</v>
+        <v>27536.8203125|32997.80859375|50.9700000286102295</v>
       </c>
       <c r="H48" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row customHeight="true" ht="23" r="49">
       <c r="A49" s="1">
         <v>30005</v>
       </c>
@@ -1686,19 +1701,19 @@
         <v>450|935|50</v>
       </c>
       <c r="E49" s="1" t="str">
-        <v>4165|14490|85</v>
+        <v>28526.490234375|32842.19921875|70</v>
       </c>
       <c r="F49" s="1" t="str">
-        <v>3265|14490|85</v>
+        <v>28759.669921875|33374.51953125|70</v>
       </c>
       <c r="G49" s="1" t="str">
-        <v>3265|12620|85</v>
+        <v>28168.580078125|33314.26171875|70</v>
       </c>
       <c r="H49" s="1">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row customHeight="true" ht="23" r="50">
       <c r="A50" s="1">
         <v>30006</v>
       </c>
@@ -1712,19 +1727,19 @@
         <v>87.5|462.5|50</v>
       </c>
       <c r="E50" s="1" t="str">
-        <v>4047.5|12287.5|85</v>
+        <v>27780.779296875|31324.8203125|50.170000076293945</v>
       </c>
       <c r="F50" s="1" t="str">
-        <v>3872.5|12287.5|85</v>
+        <v>26317.41015625|31707.0390625|45</v>
       </c>
       <c r="G50" s="1" t="str">
-        <v>3872.5|11362.5|85</v>
+        <v>26385.970703125|31225.310546875|50.170000076293945</v>
       </c>
       <c r="H50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row customHeight="true" ht="23" r="51">
       <c r="A51" s="1">
         <v>30007</v>
       </c>
@@ -1738,19 +1753,19 @@
         <v>87.5|462.5|50</v>
       </c>
       <c r="E51" s="1" t="str">
-        <v>4832.5|12287.5|85</v>
+        <v>26509.400390625|30600.2109375|170</v>
       </c>
       <c r="F51" s="1" t="str">
-        <v>4657.5|12287.5|85</v>
+        <v>26719.16015625|30741.189453125|170</v>
       </c>
       <c r="G51" s="1" t="str">
-        <v>4657.5|11362.5|85</v>
+        <v>26544.330078125|30869.41015625|170</v>
       </c>
       <c r="H51" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="52">
+    <row customHeight="true" ht="23" r="52">
       <c r="A52" s="1">
         <v>30008</v>
       </c>
@@ -1764,19 +1779,19 @@
         <v>700|175|50</v>
       </c>
       <c r="E52" s="1" t="str">
-        <v>5825|14805|85</v>
+        <v>26541.029296875|29693.009765625|420</v>
       </c>
       <c r="F52" s="1" t="str">
-        <v>4425|14805|85</v>
+        <v>26203.970703125|30223.5703125|420</v>
       </c>
       <c r="G52" s="1" t="str">
-        <v>4425|14455|85</v>
+        <v>26951.630859375|30311.51953125|470</v>
       </c>
       <c r="H52" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="53">
+    <row customHeight="true" ht="23" r="53">
       <c r="A53" s="1">
         <v>30009</v>
       </c>
@@ -1790,19 +1805,19 @@
         <v>700|175|50</v>
       </c>
       <c r="E53" s="1" t="str">
-        <v>4915|15285|85</v>
+        <v>28880.9296875|30633.919921875|300</v>
       </c>
       <c r="F53" s="1" t="str">
-        <v>3515|15285|85</v>
+        <v>28883.080078125|30887.080078125|300</v>
       </c>
       <c r="G53" s="1" t="str">
-        <v>3515|14935|85</v>
+        <v>28650.359375|30740.359375|300</v>
       </c>
       <c r="H53" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="54">
+    <row customHeight="true" ht="23" r="54">
       <c r="A54" s="1">
         <v>30010</v>
       </c>
@@ -1816,19 +1831,19 @@
         <v>437.5|175|50</v>
       </c>
       <c r="E54" s="1" t="str">
-        <v>5627.5|16205|85</v>
+        <v>29008.9296875|29664.099609375|410</v>
       </c>
       <c r="F54" s="1" t="str">
-        <v>4752.5|16205|85</v>
+        <v>30438.859375|30358.599609375|400</v>
       </c>
       <c r="G54" s="1" t="str">
-        <v>4752.5|15855|85</v>
+        <v>29491.490234375|30259.080078125|410</v>
       </c>
       <c r="H54" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="55">
+    <row customHeight="true" ht="23" r="55">
       <c r="A55" s="1">
         <v>30011</v>
       </c>
@@ -1842,19 +1857,19 @@
         <v>237.5|237.5|50</v>
       </c>
       <c r="E55" s="1" t="str">
-        <v>2237.5|11962.5|85</v>
+        <v>29669.900390625|31032.5390625|50.159999847412109</v>
       </c>
       <c r="F55" s="1" t="str">
-        <v>1762.5|11962.5|85</v>
+        <v>30409.880859375|30533.91015625|50</v>
       </c>
       <c r="G55" s="1" t="str">
-        <v>1762.5|11487.5|85</v>
+        <v>29424.009765625|30400.599609375|50.170000076293945</v>
       </c>
       <c r="H55" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="56">
+    <row customHeight="true" ht="23" r="56">
       <c r="A56" s="1">
         <v>30012</v>
       </c>
@@ -1868,19 +1883,19 @@
         <v>125|150|50</v>
       </c>
       <c r="E56" s="1" t="str">
-        <v>975|12155|85</v>
+        <v>28734.640625|29781.94921875|50.309999942779541</v>
       </c>
       <c r="F56" s="1" t="str">
-        <v>725|12155|85</v>
+        <v>28734.640625|29781.94921875|50</v>
       </c>
       <c r="G56" s="1" t="str">
-        <v>725|11855|85</v>
+        <v>28115.73046875|29873.220703125|50.309999942779541</v>
       </c>
       <c r="H56" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="57">
+    <row customHeight="true" ht="23" r="57">
       <c r="A57" s="1">
         <v>30013</v>
       </c>
@@ -1894,19 +1909,19 @@
         <v>487.5|312.5|50</v>
       </c>
       <c r="E57" s="1" t="str">
-        <v>2837.5|13687.5|85</v>
-      </c>
-      <c r="F57" s="4" t="str">
-        <v>1862.5|13687.5|85</v>
+        <v>26315.599609375|30405.060546875|50.170000076293945</v>
+      </c>
+      <c r="F57" s="3" t="str">
+        <v>27177.310546875|29926.7109375|50</v>
       </c>
       <c r="G57" s="1" t="str">
-        <v>1862.5|13062.5|85</v>
+        <v>26449.009765625|29641.5|50.159999847412109</v>
       </c>
       <c r="H57" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="58">
+    <row customHeight="true" ht="23" r="58">
       <c r="A58" s="1">
         <v>30014</v>
       </c>
@@ -1920,19 +1935,19 @@
         <v>400|312.5|50</v>
       </c>
       <c r="E58" s="1" t="str">
-        <v>2855|14697.5|85</v>
+        <v>26437.9296875|27740.1796875|-50</v>
       </c>
       <c r="F58" s="1" t="str">
-        <v>2055|14697.5|85</v>
+        <v>26980.5|27812.5|-94.95999908447266</v>
       </c>
       <c r="G58" s="1" t="str">
-        <v>2055|14072.5|85</v>
+        <v>26881.16015625|28413.48046875|-25</v>
       </c>
       <c r="H58" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="59">
+    <row customHeight="true" ht="23" r="59">
       <c r="A59" s="1">
         <v>30015</v>
       </c>
@@ -1946,19 +1961,19 @@
         <v>700|112.5|50</v>
       </c>
       <c r="E59" s="1" t="str">
-        <v>6590|12842.5|85</v>
+        <v>27808.16015625|28423.7109375|50.199999809265137</v>
       </c>
       <c r="F59" s="1" t="str">
-        <v>5190|12842.5|85</v>
+        <v>27832.23046875|28939.140625|50</v>
       </c>
       <c r="G59" s="1" t="str">
-        <v>5190|12617.5|85</v>
+        <v>27071.55078125|28696.08984375|50.199999809265137</v>
       </c>
       <c r="H59" s="1">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="60">
+    <row customHeight="true" ht="23" r="60">
       <c r="A60" s="1">
         <v>30016</v>
       </c>
@@ -1972,19 +1987,19 @@
         <v>162.5|575|50</v>
       </c>
       <c r="E60" s="1" t="str">
-        <v>7882.5|14185|85</v>
+        <v>27182.16015625|29255.669921875|300</v>
       </c>
       <c r="F60" s="1" t="str">
-        <v>7557.5|14185|85</v>
+        <v>26953.009765625|29364.2890625|300</v>
       </c>
       <c r="G60" s="1" t="str">
-        <v>7557.5|13035|85</v>
+        <v>26956.08984375|29110.609375|300</v>
       </c>
       <c r="H60" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="61">
+    <row customHeight="true" ht="23" r="61">
       <c r="A61" s="1">
         <v>30017</v>
       </c>
@@ -1998,19 +2013,19 @@
         <v>112.5|337.5|50</v>
       </c>
       <c r="E61" s="1" t="str">
-        <v>8567.5|16012.5|85</v>
+        <v>28293.109375|27021.119140625|-50</v>
       </c>
       <c r="F61" s="1" t="str">
-        <v>8342.5|16012.5|85</v>
+        <v>27830.4609375|27302.359375|-50</v>
       </c>
       <c r="G61" s="1" t="str">
-        <v>8342.5|15337.5|85</v>
+        <v>27644.900390625|27002.419921875|-50</v>
       </c>
       <c r="H61" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="62">
+    <row customHeight="true" ht="23" r="62">
       <c r="A62" s="1">
         <v>30018</v>
       </c>
@@ -2024,49 +2039,79 @@
         <v>675|112.5|50</v>
       </c>
       <c r="E62" s="1" t="str">
-        <v>7565|16837.5|85</v>
+        <v>30292.94921875|27008.279296875|50.690000057220459</v>
       </c>
       <c r="F62" s="1" t="str">
-        <v>6215|16837.5|85</v>
+        <v>29491.810546875|27048.669921875|50</v>
       </c>
       <c r="G62" s="1" t="str">
-        <v>6215|16612.5|85</v>
+        <v>29846.75|28037.0390625|50.71999979019165</v>
       </c>
       <c r="H62" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="63">
-      <c r="A63" s="1"/>
+    <row customHeight="true" ht="23" r="63">
+      <c r="A63" s="1">
+        <v>30019</v>
+      </c>
       <c r="B63" s="1" t="str"/>
       <c r="C63" s="1" t="str"/>
       <c r="D63" s="2" t="str"/>
-      <c r="E63" s="1" t="str"/>
-      <c r="F63" s="1" t="str"/>
-      <c r="G63" s="1" t="str"/>
-      <c r="H63" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="64">
-      <c r="A64" s="1"/>
+      <c r="E63" s="1" t="str">
+        <v>29130.69921875|28462.69921875|150</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <v>29337.259765625|28639.1796875|50</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <v>29287.419921875|28397.310546875|50.860000133514404</v>
+      </c>
+      <c r="H63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="64">
+      <c r="A64" s="1">
+        <v>30020</v>
+      </c>
       <c r="B64" s="1" t="str"/>
       <c r="C64" s="1" t="str"/>
       <c r="D64" s="2" t="str"/>
-      <c r="E64" s="1" t="str"/>
-      <c r="F64" s="1" t="str"/>
-      <c r="G64" s="1" t="str"/>
-      <c r="H64" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="65">
-      <c r="A65" s="1"/>
+      <c r="E64" s="1" t="str">
+        <v>30263.9609375|29526.23046875|50.3299999237060547</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <v>30097.810546875|28913.5390625|50</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <v>30465.849609375|28986.26953125|50.309999942779541</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="65">
+      <c r="A65" s="1">
+        <v>30021</v>
+      </c>
       <c r="B65" s="1" t="str"/>
       <c r="C65" s="1" t="str"/>
       <c r="D65" s="2" t="str"/>
-      <c r="E65" s="1" t="str"/>
-      <c r="F65" s="1" t="str"/>
-      <c r="G65" s="1" t="str"/>
-      <c r="H65" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="66">
+      <c r="E65" s="1" t="str">
+        <v>27872.55078125|29744.9609375|410</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <v>27264.650390625|29775.150390625|420</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <v>27541.349609375|29601.7890625|410</v>
+      </c>
+      <c r="H65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="str"/>
       <c r="C66" s="1" t="str"/>
@@ -2076,7 +2121,7 @@
       <c r="G66" s="1" t="str"/>
       <c r="H66" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="67">
+    <row customHeight="true" ht="23" r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="str"/>
       <c r="C67" s="1" t="str"/>
@@ -2086,7 +2131,7 @@
       <c r="G67" s="1" t="str"/>
       <c r="H67" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="68">
+    <row customHeight="true" ht="23" r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="str"/>
       <c r="C68" s="1" t="str"/>
@@ -2096,7 +2141,7 @@
       <c r="G68" s="1" t="str"/>
       <c r="H68" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="69">
+    <row customHeight="true" ht="23" r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="str"/>
       <c r="C69" s="1" t="str"/>
@@ -2106,7 +2151,7 @@
       <c r="G69" s="1" t="str"/>
       <c r="H69" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="70">
+    <row customHeight="true" ht="23" r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="str"/>
       <c r="C70" s="1" t="str"/>
@@ -2116,7 +2161,7 @@
       <c r="G70" s="1" t="str"/>
       <c r="H70" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="71">
+    <row customHeight="true" ht="23" r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="str"/>
       <c r="C71" s="1" t="str"/>
@@ -2126,7 +2171,7 @@
       <c r="G71" s="1" t="str"/>
       <c r="H71" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="72">
+    <row customHeight="true" ht="23" r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="str"/>
       <c r="C72" s="1" t="str"/>
@@ -2136,7 +2181,7 @@
       <c r="G72" s="1" t="str"/>
       <c r="H72" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="73">
+    <row customHeight="true" ht="23" r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="str"/>
       <c r="C73" s="1" t="str"/>
@@ -2146,7 +2191,7 @@
       <c r="G73" s="1" t="str"/>
       <c r="H73" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="74">
+    <row customHeight="true" ht="23" r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="str"/>
       <c r="C74" s="1" t="str"/>
@@ -2156,7 +2201,7 @@
       <c r="G74" s="1" t="str"/>
       <c r="H74" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="75">
+    <row customHeight="true" ht="23" r="75">
       <c r="A75" s="1" t="str"/>
       <c r="B75" s="1" t="str"/>
       <c r="C75" s="1" t="str"/>
@@ -2166,7 +2211,7 @@
       <c r="G75" s="1" t="str"/>
       <c r="H75" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="76">
+    <row customHeight="true" ht="23" r="76">
       <c r="A76" s="1" t="str"/>
       <c r="B76" s="1" t="str"/>
       <c r="C76" s="1" t="str"/>
@@ -2176,7 +2221,7 @@
       <c r="G76" s="1" t="str"/>
       <c r="H76" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="77">
+    <row customHeight="true" ht="23" r="77">
       <c r="A77" s="1" t="str"/>
       <c r="B77" s="1" t="str"/>
       <c r="C77" s="1" t="str"/>
@@ -2186,7 +2231,7 @@
       <c r="G77" s="1" t="str"/>
       <c r="H77" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="78">
+    <row customHeight="true" ht="23" r="78">
       <c r="A78" s="1" t="str"/>
       <c r="B78" s="1" t="str"/>
       <c r="C78" s="1" t="str"/>
@@ -2196,7 +2241,7 @@
       <c r="G78" s="1" t="str"/>
       <c r="H78" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="79">
+    <row customHeight="true" ht="23" r="79">
       <c r="A79" s="1" t="str"/>
       <c r="B79" s="1" t="str"/>
       <c r="C79" s="1" t="str"/>
@@ -2206,7 +2251,7 @@
       <c r="G79" s="1" t="str"/>
       <c r="H79" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="80">
+    <row customHeight="true" ht="23" r="80">
       <c r="A80" s="1" t="str"/>
       <c r="B80" s="1" t="str"/>
       <c r="C80" s="1" t="str"/>
@@ -2216,7 +2261,7 @@
       <c r="G80" s="1" t="str"/>
       <c r="H80" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="81">
+    <row customHeight="true" ht="23" r="81">
       <c r="A81" s="1" t="str"/>
       <c r="B81" s="1" t="str"/>
       <c r="C81" s="1" t="str"/>
@@ -2226,7 +2271,7 @@
       <c r="G81" s="1" t="str"/>
       <c r="H81" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="82">
+    <row customHeight="true" ht="23" r="82">
       <c r="A82" s="1" t="str"/>
       <c r="B82" s="1" t="str"/>
       <c r="C82" s="1" t="str"/>
@@ -2236,7 +2281,7 @@
       <c r="G82" s="1" t="str"/>
       <c r="H82" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="83">
+    <row customHeight="true" ht="23" r="83">
       <c r="A83" s="1" t="str"/>
       <c r="B83" s="1" t="str"/>
       <c r="C83" s="1" t="str"/>
@@ -2246,7 +2291,7 @@
       <c r="G83" s="1" t="str"/>
       <c r="H83" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="84">
+    <row customHeight="true" ht="23" r="84">
       <c r="A84" s="1" t="str"/>
       <c r="B84" s="1" t="str"/>
       <c r="C84" s="1" t="str"/>
@@ -2256,7 +2301,7 @@
       <c r="G84" s="1" t="str"/>
       <c r="H84" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="85">
+    <row customHeight="true" ht="23" r="85">
       <c r="A85" s="1" t="str"/>
       <c r="B85" s="1" t="str"/>
       <c r="C85" s="1" t="str"/>
@@ -2266,7 +2311,7 @@
       <c r="G85" s="1" t="str"/>
       <c r="H85" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="86">
+    <row customHeight="true" ht="23" r="86">
       <c r="A86" s="1" t="str"/>
       <c r="B86" s="1" t="str"/>
       <c r="C86" s="1" t="str"/>
@@ -2276,7 +2321,7 @@
       <c r="G86" s="1" t="str"/>
       <c r="H86" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="87">
+    <row customHeight="true" ht="23" r="87">
       <c r="A87" s="1" t="str"/>
       <c r="B87" s="1" t="str"/>
       <c r="C87" s="1" t="str"/>
@@ -2286,7 +2331,7 @@
       <c r="G87" s="1" t="str"/>
       <c r="H87" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="88">
+    <row customHeight="true" ht="23" r="88">
       <c r="A88" s="1" t="str"/>
       <c r="B88" s="1" t="str"/>
       <c r="C88" s="1" t="str"/>
@@ -2296,7 +2341,7 @@
       <c r="G88" s="1" t="str"/>
       <c r="H88" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="89">
+    <row customHeight="true" ht="23" r="89">
       <c r="A89" s="1" t="str"/>
       <c r="B89" s="1" t="str"/>
       <c r="C89" s="1" t="str"/>
@@ -2306,7 +2351,7 @@
       <c r="G89" s="1" t="str"/>
       <c r="H89" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="90">
+    <row customHeight="true" ht="23" r="90">
       <c r="A90" s="1" t="str"/>
       <c r="B90" s="1" t="str"/>
       <c r="C90" s="1" t="str"/>
@@ -2316,7 +2361,7 @@
       <c r="G90" s="1" t="str"/>
       <c r="H90" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="91">
+    <row customHeight="true" ht="23" r="91">
       <c r="A91" s="1" t="str"/>
       <c r="B91" s="1" t="str"/>
       <c r="C91" s="1" t="str"/>
@@ -2326,7 +2371,7 @@
       <c r="G91" s="1" t="str"/>
       <c r="H91" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="92">
+    <row customHeight="true" ht="23" r="92">
       <c r="A92" s="1" t="str"/>
       <c r="B92" s="1" t="str"/>
       <c r="C92" s="1" t="str"/>
@@ -2336,7 +2381,7 @@
       <c r="G92" s="1" t="str"/>
       <c r="H92" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="93">
+    <row customHeight="true" ht="23" r="93">
       <c r="A93" s="1" t="str"/>
       <c r="B93" s="1" t="str"/>
       <c r="C93" s="1" t="str"/>
@@ -2346,7 +2391,7 @@
       <c r="G93" s="1" t="str"/>
       <c r="H93" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="94">
+    <row customHeight="true" ht="23" r="94">
       <c r="A94" s="1" t="str"/>
       <c r="B94" s="1" t="str"/>
       <c r="C94" s="1" t="str"/>
@@ -2356,7 +2401,7 @@
       <c r="G94" s="1" t="str"/>
       <c r="H94" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="95">
+    <row customHeight="true" ht="23" r="95">
       <c r="A95" s="1" t="str"/>
       <c r="B95" s="1" t="str"/>
       <c r="C95" s="1" t="str"/>
@@ -2366,7 +2411,7 @@
       <c r="G95" s="1" t="str"/>
       <c r="H95" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="96">
+    <row customHeight="true" ht="23" r="96">
       <c r="A96" s="1" t="str"/>
       <c r="B96" s="1" t="str"/>
       <c r="C96" s="1" t="str"/>
@@ -2376,7 +2421,7 @@
       <c r="G96" s="1" t="str"/>
       <c r="H96" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="97">
+    <row customHeight="true" ht="23" r="97">
       <c r="A97" s="1" t="str"/>
       <c r="B97" s="1" t="str"/>
       <c r="C97" s="1" t="str"/>
@@ -2386,7 +2431,7 @@
       <c r="G97" s="1" t="str"/>
       <c r="H97" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="98">
+    <row customHeight="true" ht="23" r="98">
       <c r="A98" s="1" t="str"/>
       <c r="B98" s="1" t="str"/>
       <c r="C98" s="1" t="str"/>
@@ -2396,7 +2441,7 @@
       <c r="G98" s="1" t="str"/>
       <c r="H98" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="99">
+    <row customHeight="true" ht="23" r="99">
       <c r="A99" s="1" t="str"/>
       <c r="B99" s="1" t="str"/>
       <c r="C99" s="1" t="str"/>
@@ -2406,7 +2451,7 @@
       <c r="G99" s="1" t="str"/>
       <c r="H99" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="100">
+    <row customHeight="true" ht="23" r="100">
       <c r="A100" s="1" t="str"/>
       <c r="B100" s="1" t="str"/>
       <c r="C100" s="1" t="str"/>
@@ -2416,7 +2461,7 @@
       <c r="G100" s="1" t="str"/>
       <c r="H100" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="101">
+    <row customHeight="true" ht="23" r="101">
       <c r="A101" s="1" t="str"/>
       <c r="B101" s="1" t="str"/>
       <c r="C101" s="1" t="str"/>
@@ -2426,7 +2471,7 @@
       <c r="G101" s="1" t="str"/>
       <c r="H101" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="102">
+    <row customHeight="true" ht="23" r="102">
       <c r="A102" s="1" t="str"/>
       <c r="B102" s="1" t="str"/>
       <c r="C102" s="1" t="str"/>
@@ -2436,7 +2481,7 @@
       <c r="G102" s="1" t="str"/>
       <c r="H102" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="103">
+    <row customHeight="true" ht="23" r="103">
       <c r="A103" s="1" t="str"/>
       <c r="B103" s="1" t="str"/>
       <c r="C103" s="1" t="str"/>
@@ -2446,7 +2491,7 @@
       <c r="G103" s="1" t="str"/>
       <c r="H103" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="104">
+    <row customHeight="true" ht="23" r="104">
       <c r="A104" s="1" t="str"/>
       <c r="B104" s="1" t="str"/>
       <c r="C104" s="1" t="str"/>
@@ -2456,7 +2501,7 @@
       <c r="G104" s="1" t="str"/>
       <c r="H104" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="105">
+    <row customHeight="true" ht="23" r="105">
       <c r="A105" s="1" t="str"/>
       <c r="B105" s="1" t="str"/>
       <c r="C105" s="1" t="str"/>
@@ -2466,7 +2511,7 @@
       <c r="G105" s="1" t="str"/>
       <c r="H105" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="106">
+    <row customHeight="true" ht="23" r="106">
       <c r="A106" s="1" t="str"/>
       <c r="B106" s="1" t="str"/>
       <c r="C106" s="1" t="str"/>
@@ -2476,7 +2521,7 @@
       <c r="G106" s="1" t="str"/>
       <c r="H106" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="107">
+    <row customHeight="true" ht="23" r="107">
       <c r="A107" s="1" t="str"/>
       <c r="B107" s="1" t="str"/>
       <c r="C107" s="1" t="str"/>
@@ -2486,7 +2531,7 @@
       <c r="G107" s="1" t="str"/>
       <c r="H107" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="108">
+    <row customHeight="true" ht="23" r="108">
       <c r="A108" s="1" t="str"/>
       <c r="B108" s="1" t="str"/>
       <c r="C108" s="1" t="str"/>
@@ -2496,7 +2541,7 @@
       <c r="G108" s="1" t="str"/>
       <c r="H108" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="109">
+    <row customHeight="true" ht="23" r="109">
       <c r="A109" s="1" t="str"/>
       <c r="B109" s="1" t="str"/>
       <c r="C109" s="1" t="str"/>
@@ -2506,7 +2551,7 @@
       <c r="G109" s="1" t="str"/>
       <c r="H109" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="110">
+    <row customHeight="true" ht="23" r="110">
       <c r="A110" s="1" t="str"/>
       <c r="B110" s="1" t="str"/>
       <c r="C110" s="1" t="str"/>
@@ -2516,7 +2561,7 @@
       <c r="G110" s="1" t="str"/>
       <c r="H110" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="111">
+    <row customHeight="true" ht="23" r="111">
       <c r="A111" s="1" t="str"/>
       <c r="B111" s="1" t="str"/>
       <c r="C111" s="1" t="str"/>
@@ -2526,7 +2571,7 @@
       <c r="G111" s="1" t="str"/>
       <c r="H111" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="112">
+    <row customHeight="true" ht="23" r="112">
       <c r="A112" s="1" t="str"/>
       <c r="B112" s="1" t="str"/>
       <c r="C112" s="1" t="str"/>
@@ -2536,7 +2581,7 @@
       <c r="G112" s="1" t="str"/>
       <c r="H112" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="113">
+    <row customHeight="true" ht="23" r="113">
       <c r="A113" s="1" t="str"/>
       <c r="B113" s="1" t="str"/>
       <c r="C113" s="1" t="str"/>
@@ -2546,7 +2591,7 @@
       <c r="G113" s="1" t="str"/>
       <c r="H113" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="114">
+    <row customHeight="true" ht="23" r="114">
       <c r="A114" s="1" t="str"/>
       <c r="B114" s="1" t="str"/>
       <c r="C114" s="1" t="str"/>
@@ -2556,7 +2601,7 @@
       <c r="G114" s="1" t="str"/>
       <c r="H114" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="115">
+    <row customHeight="true" ht="23" r="115">
       <c r="A115" s="1" t="str"/>
       <c r="B115" s="1" t="str"/>
       <c r="C115" s="1" t="str"/>
@@ -2566,7 +2611,7 @@
       <c r="G115" s="1" t="str"/>
       <c r="H115" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="116">
+    <row customHeight="true" ht="23" r="116">
       <c r="A116" s="1" t="str"/>
       <c r="B116" s="1" t="str"/>
       <c r="C116" s="1" t="str"/>
@@ -2576,7 +2621,7 @@
       <c r="G116" s="1" t="str"/>
       <c r="H116" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="117">
+    <row customHeight="true" ht="23" r="117">
       <c r="A117" s="1" t="str"/>
       <c r="B117" s="1" t="str"/>
       <c r="C117" s="1" t="str"/>
@@ -2586,7 +2631,7 @@
       <c r="G117" s="1" t="str"/>
       <c r="H117" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="118">
+    <row customHeight="true" ht="23" r="118">
       <c r="A118" s="1" t="str"/>
       <c r="B118" s="1" t="str"/>
       <c r="C118" s="1" t="str"/>
@@ -2596,7 +2641,7 @@
       <c r="G118" s="1" t="str"/>
       <c r="H118" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="119">
+    <row customHeight="true" ht="23" r="119">
       <c r="A119" s="1" t="str"/>
       <c r="B119" s="1" t="str"/>
       <c r="C119" s="1" t="str"/>
@@ -2606,7 +2651,7 @@
       <c r="G119" s="1" t="str"/>
       <c r="H119" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="120">
+    <row customHeight="true" ht="23" r="120">
       <c r="A120" s="1" t="str"/>
       <c r="B120" s="1" t="str"/>
       <c r="C120" s="1" t="str"/>
@@ -2616,7 +2661,7 @@
       <c r="G120" s="1" t="str"/>
       <c r="H120" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="121">
+    <row customHeight="true" ht="23" r="121">
       <c r="A121" s="1" t="str"/>
       <c r="B121" s="1" t="str"/>
       <c r="C121" s="1" t="str"/>
@@ -2626,7 +2671,7 @@
       <c r="G121" s="1" t="str"/>
       <c r="H121" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="122">
+    <row customHeight="true" ht="23" r="122">
       <c r="A122" s="1" t="str"/>
       <c r="B122" s="1" t="str"/>
       <c r="C122" s="1" t="str"/>
@@ -2636,7 +2681,7 @@
       <c r="G122" s="1" t="str"/>
       <c r="H122" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="123">
+    <row customHeight="true" ht="23" r="123">
       <c r="A123" s="1" t="str"/>
       <c r="B123" s="1" t="str"/>
       <c r="C123" s="1" t="str"/>
@@ -2646,7 +2691,7 @@
       <c r="G123" s="1" t="str"/>
       <c r="H123" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="124">
+    <row customHeight="true" ht="23" r="124">
       <c r="A124" s="1" t="str"/>
       <c r="B124" s="1" t="str"/>
       <c r="C124" s="1" t="str"/>
@@ -2656,7 +2701,7 @@
       <c r="G124" s="1" t="str"/>
       <c r="H124" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="125">
+    <row customHeight="true" ht="23" r="125">
       <c r="A125" s="1" t="str"/>
       <c r="B125" s="1" t="str"/>
       <c r="C125" s="1" t="str"/>
@@ -2666,7 +2711,7 @@
       <c r="G125" s="1" t="str"/>
       <c r="H125" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="126">
+    <row customHeight="true" ht="23" r="126">
       <c r="A126" s="1" t="str"/>
       <c r="B126" s="1" t="str"/>
       <c r="C126" s="1" t="str"/>
@@ -2676,7 +2721,7 @@
       <c r="G126" s="1" t="str"/>
       <c r="H126" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="127">
+    <row customHeight="true" ht="23" r="127">
       <c r="A127" s="1" t="str"/>
       <c r="B127" s="1" t="str"/>
       <c r="C127" s="1" t="str"/>
@@ -2686,7 +2731,7 @@
       <c r="G127" s="1" t="str"/>
       <c r="H127" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="128">
+    <row customHeight="true" ht="23" r="128">
       <c r="A128" s="1" t="str"/>
       <c r="B128" s="1" t="str"/>
       <c r="C128" s="1" t="str"/>
@@ -2696,7 +2741,7 @@
       <c r="G128" s="1" t="str"/>
       <c r="H128" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="129">
+    <row customHeight="true" ht="23" r="129">
       <c r="A129" s="1" t="str"/>
       <c r="B129" s="1" t="str"/>
       <c r="C129" s="1" t="str"/>
@@ -2706,7 +2751,7 @@
       <c r="G129" s="1" t="str"/>
       <c r="H129" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="130">
+    <row customHeight="true" ht="23" r="130">
       <c r="A130" s="1" t="str"/>
       <c r="B130" s="1" t="str"/>
       <c r="C130" s="1" t="str"/>
@@ -2716,7 +2761,7 @@
       <c r="G130" s="1" t="str"/>
       <c r="H130" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="131">
+    <row customHeight="true" ht="23" r="131">
       <c r="A131" s="1" t="str"/>
       <c r="B131" s="1" t="str"/>
       <c r="C131" s="1" t="str"/>
@@ -2726,7 +2771,7 @@
       <c r="G131" s="1" t="str"/>
       <c r="H131" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="132">
+    <row customHeight="true" ht="23" r="132">
       <c r="A132" s="1" t="str"/>
       <c r="B132" s="1" t="str"/>
       <c r="C132" s="1" t="str"/>
@@ -2736,7 +2781,7 @@
       <c r="G132" s="1" t="str"/>
       <c r="H132" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="133">
+    <row customHeight="true" ht="23" r="133">
       <c r="A133" s="1" t="str"/>
       <c r="B133" s="1" t="str"/>
       <c r="C133" s="1" t="str"/>
@@ -2746,7 +2791,7 @@
       <c r="G133" s="1" t="str"/>
       <c r="H133" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="134">
+    <row customHeight="true" ht="23" r="134">
       <c r="A134" s="1" t="str"/>
       <c r="B134" s="1" t="str"/>
       <c r="C134" s="1" t="str"/>
@@ -2756,7 +2801,7 @@
       <c r="G134" s="1" t="str"/>
       <c r="H134" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="135">
+    <row customHeight="true" ht="23" r="135">
       <c r="A135" s="1" t="str"/>
       <c r="B135" s="1" t="str"/>
       <c r="C135" s="1" t="str"/>
@@ -2766,7 +2811,7 @@
       <c r="G135" s="1" t="str"/>
       <c r="H135" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="136">
+    <row customHeight="true" ht="23" r="136">
       <c r="A136" s="1" t="str"/>
       <c r="B136" s="1" t="str"/>
       <c r="C136" s="1" t="str"/>
@@ -2776,7 +2821,7 @@
       <c r="G136" s="1" t="str"/>
       <c r="H136" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="137">
+    <row customHeight="true" ht="23" r="137">
       <c r="A137" s="1" t="str"/>
       <c r="B137" s="1" t="str"/>
       <c r="C137" s="1" t="str"/>
@@ -2786,7 +2831,7 @@
       <c r="G137" s="1" t="str"/>
       <c r="H137" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="138">
+    <row customHeight="true" ht="23" r="138">
       <c r="A138" s="1" t="str"/>
       <c r="B138" s="1" t="str"/>
       <c r="C138" s="1" t="str"/>
@@ -2796,7 +2841,7 @@
       <c r="G138" s="1" t="str"/>
       <c r="H138" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="139">
+    <row customHeight="true" ht="23" r="139">
       <c r="A139" s="1" t="str"/>
       <c r="B139" s="1" t="str"/>
       <c r="C139" s="1" t="str"/>
@@ -2806,7 +2851,7 @@
       <c r="G139" s="1" t="str"/>
       <c r="H139" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="140">
+    <row customHeight="true" ht="23" r="140">
       <c r="A140" s="1" t="str"/>
       <c r="B140" s="1" t="str"/>
       <c r="C140" s="1" t="str"/>
@@ -2816,7 +2861,7 @@
       <c r="G140" s="1" t="str"/>
       <c r="H140" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="141">
+    <row customHeight="true" ht="23" r="141">
       <c r="A141" s="1" t="str"/>
       <c r="B141" s="1" t="str"/>
       <c r="C141" s="1" t="str"/>
@@ -2826,7 +2871,7 @@
       <c r="G141" s="1" t="str"/>
       <c r="H141" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="142">
+    <row customHeight="true" ht="23" r="142">
       <c r="A142" s="1" t="str"/>
       <c r="B142" s="1" t="str"/>
       <c r="C142" s="1" t="str"/>
@@ -2836,7 +2881,7 @@
       <c r="G142" s="1" t="str"/>
       <c r="H142" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="143">
+    <row customHeight="true" ht="23" r="143">
       <c r="A143" s="1" t="str"/>
       <c r="B143" s="1" t="str"/>
       <c r="C143" s="1" t="str"/>
@@ -2846,7 +2891,7 @@
       <c r="G143" s="1" t="str"/>
       <c r="H143" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="144">
+    <row customHeight="true" ht="23" r="144">
       <c r="A144" s="1" t="str"/>
       <c r="B144" s="1" t="str"/>
       <c r="C144" s="1" t="str"/>
@@ -2856,7 +2901,7 @@
       <c r="G144" s="1" t="str"/>
       <c r="H144" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="145">
+    <row customHeight="true" ht="23" r="145">
       <c r="A145" s="1" t="str"/>
       <c r="B145" s="1" t="str"/>
       <c r="C145" s="1" t="str"/>
@@ -2866,7 +2911,7 @@
       <c r="G145" s="1" t="str"/>
       <c r="H145" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="146">
+    <row customHeight="true" ht="23" r="146">
       <c r="A146" s="1" t="str"/>
       <c r="B146" s="1" t="str"/>
       <c r="C146" s="1" t="str"/>
@@ -2876,7 +2921,7 @@
       <c r="G146" s="1" t="str"/>
       <c r="H146" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="147">
+    <row customHeight="true" ht="23" r="147">
       <c r="A147" s="1" t="str"/>
       <c r="B147" s="1" t="str"/>
       <c r="C147" s="1" t="str"/>
@@ -2886,7 +2931,7 @@
       <c r="G147" s="1" t="str"/>
       <c r="H147" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="148">
+    <row customHeight="true" ht="23" r="148">
       <c r="A148" s="1" t="str"/>
       <c r="B148" s="1" t="str"/>
       <c r="C148" s="1" t="str"/>
@@ -2896,7 +2941,7 @@
       <c r="G148" s="1" t="str"/>
       <c r="H148" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="149">
+    <row customHeight="true" ht="23" r="149">
       <c r="A149" s="1" t="str"/>
       <c r="B149" s="1" t="str"/>
       <c r="C149" s="1" t="str"/>
@@ -2906,7 +2951,7 @@
       <c r="G149" s="1" t="str"/>
       <c r="H149" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="150">
+    <row customHeight="true" ht="23" r="150">
       <c r="A150" s="1" t="str"/>
       <c r="B150" s="1" t="str"/>
       <c r="C150" s="1" t="str"/>
@@ -2916,7 +2961,7 @@
       <c r="G150" s="1" t="str"/>
       <c r="H150" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="151">
+    <row customHeight="true" ht="23" r="151">
       <c r="A151" s="1" t="str"/>
       <c r="B151" s="1" t="str"/>
       <c r="C151" s="1" t="str"/>
@@ -2926,7 +2971,7 @@
       <c r="G151" s="1" t="str"/>
       <c r="H151" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="152">
+    <row customHeight="true" ht="23" r="152">
       <c r="A152" s="1" t="str"/>
       <c r="B152" s="1" t="str"/>
       <c r="C152" s="1" t="str"/>
@@ -2936,7 +2981,7 @@
       <c r="G152" s="1" t="str"/>
       <c r="H152" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="153">
+    <row customHeight="true" ht="23" r="153">
       <c r="A153" s="1" t="str"/>
       <c r="B153" s="1" t="str"/>
       <c r="C153" s="1" t="str"/>
@@ -2946,7 +2991,7 @@
       <c r="G153" s="1" t="str"/>
       <c r="H153" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="154">
+    <row customHeight="true" ht="23" r="154">
       <c r="A154" s="1" t="str"/>
       <c r="B154" s="1" t="str"/>
       <c r="C154" s="1" t="str"/>
@@ -2956,7 +3001,7 @@
       <c r="G154" s="1" t="str"/>
       <c r="H154" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="155">
+    <row customHeight="true" ht="23" r="155">
       <c r="A155" s="1" t="str"/>
       <c r="B155" s="1" t="str"/>
       <c r="C155" s="1" t="str"/>
@@ -2966,7 +3011,7 @@
       <c r="G155" s="1" t="str"/>
       <c r="H155" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="156">
+    <row customHeight="true" ht="23" r="156">
       <c r="A156" s="1" t="str"/>
       <c r="B156" s="1" t="str"/>
       <c r="C156" s="1" t="str"/>
@@ -2976,7 +3021,7 @@
       <c r="G156" s="1" t="str"/>
       <c r="H156" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="157">
+    <row customHeight="true" ht="23" r="157">
       <c r="A157" s="1" t="str"/>
       <c r="B157" s="1" t="str"/>
       <c r="C157" s="1" t="str"/>
@@ -2986,7 +3031,7 @@
       <c r="G157" s="1" t="str"/>
       <c r="H157" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="158">
+    <row customHeight="true" ht="23" r="158">
       <c r="A158" s="1" t="str"/>
       <c r="B158" s="1" t="str"/>
       <c r="C158" s="1" t="str"/>
@@ -2996,7 +3041,7 @@
       <c r="G158" s="1" t="str"/>
       <c r="H158" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="159">
+    <row customHeight="true" ht="23" r="159">
       <c r="A159" s="1" t="str"/>
       <c r="B159" s="1" t="str"/>
       <c r="C159" s="1" t="str"/>
@@ -3006,7 +3051,7 @@
       <c r="G159" s="1" t="str"/>
       <c r="H159" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="160">
+    <row customHeight="true" ht="23" r="160">
       <c r="A160" s="1" t="str"/>
       <c r="B160" s="1" t="str"/>
       <c r="C160" s="1" t="str"/>
@@ -3016,7 +3061,7 @@
       <c r="G160" s="1" t="str"/>
       <c r="H160" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="161">
+    <row customHeight="true" ht="23" r="161">
       <c r="A161" s="1" t="str"/>
       <c r="B161" s="1" t="str"/>
       <c r="C161" s="1" t="str"/>
@@ -3026,7 +3071,7 @@
       <c r="G161" s="1" t="str"/>
       <c r="H161" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="162">
+    <row customHeight="true" ht="23" r="162">
       <c r="A162" s="1" t="str"/>
       <c r="B162" s="1" t="str"/>
       <c r="C162" s="1" t="str"/>
@@ -3036,7 +3081,7 @@
       <c r="G162" s="1" t="str"/>
       <c r="H162" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="163">
+    <row customHeight="true" ht="23" r="163">
       <c r="A163" s="1" t="str"/>
       <c r="B163" s="1" t="str"/>
       <c r="C163" s="1" t="str"/>
@@ -3046,7 +3091,7 @@
       <c r="G163" s="1" t="str"/>
       <c r="H163" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="164">
+    <row customHeight="true" ht="23" r="164">
       <c r="A164" s="1" t="str"/>
       <c r="B164" s="1" t="str"/>
       <c r="C164" s="1" t="str"/>
@@ -3056,7 +3101,7 @@
       <c r="G164" s="1" t="str"/>
       <c r="H164" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="165">
+    <row customHeight="true" ht="23" r="165">
       <c r="A165" s="1" t="str"/>
       <c r="B165" s="1" t="str"/>
       <c r="C165" s="1" t="str"/>
@@ -3066,7 +3111,7 @@
       <c r="G165" s="1" t="str"/>
       <c r="H165" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="166">
+    <row customHeight="true" ht="23" r="166">
       <c r="A166" s="1" t="str"/>
       <c r="B166" s="1" t="str"/>
       <c r="C166" s="1" t="str"/>
@@ -3076,7 +3121,7 @@
       <c r="G166" s="1" t="str"/>
       <c r="H166" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="167">
+    <row customHeight="true" ht="23" r="167">
       <c r="A167" s="1" t="str"/>
       <c r="B167" s="1" t="str"/>
       <c r="C167" s="1" t="str"/>
@@ -3086,7 +3131,7 @@
       <c r="G167" s="1" t="str"/>
       <c r="H167" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="168">
+    <row customHeight="true" ht="23" r="168">
       <c r="A168" s="1" t="str"/>
       <c r="B168" s="1" t="str"/>
       <c r="C168" s="1" t="str"/>
@@ -3096,7 +3141,7 @@
       <c r="G168" s="1" t="str"/>
       <c r="H168" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="169">
+    <row customHeight="true" ht="23" r="169">
       <c r="A169" s="1" t="str"/>
       <c r="B169" s="1" t="str"/>
       <c r="C169" s="1" t="str"/>
@@ -3106,7 +3151,7 @@
       <c r="G169" s="1" t="str"/>
       <c r="H169" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="170">
+    <row customHeight="true" ht="23" r="170">
       <c r="A170" s="1" t="str"/>
       <c r="B170" s="1" t="str"/>
       <c r="C170" s="1" t="str"/>
@@ -3116,7 +3161,7 @@
       <c r="G170" s="1" t="str"/>
       <c r="H170" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="171">
+    <row customHeight="true" ht="23" r="171">
       <c r="A171" s="1" t="str"/>
       <c r="B171" s="1" t="str"/>
       <c r="C171" s="1" t="str"/>
@@ -3126,7 +3171,7 @@
       <c r="G171" s="1" t="str"/>
       <c r="H171" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="172">
+    <row customHeight="true" ht="23" r="172">
       <c r="A172" s="1" t="str"/>
       <c r="B172" s="1" t="str"/>
       <c r="C172" s="1" t="str"/>
@@ -3136,7 +3181,7 @@
       <c r="G172" s="1" t="str"/>
       <c r="H172" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="173">
+    <row customHeight="true" ht="23" r="173">
       <c r="A173" s="1" t="str"/>
       <c r="B173" s="1" t="str"/>
       <c r="C173" s="1" t="str"/>
@@ -3146,7 +3191,7 @@
       <c r="G173" s="1" t="str"/>
       <c r="H173" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="174">
+    <row customHeight="true" ht="23" r="174">
       <c r="A174" s="1" t="str"/>
       <c r="B174" s="1" t="str"/>
       <c r="C174" s="1" t="str"/>
@@ -3156,7 +3201,7 @@
       <c r="G174" s="1" t="str"/>
       <c r="H174" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="175">
+    <row customHeight="true" ht="23" r="175">
       <c r="A175" s="1" t="str"/>
       <c r="B175" s="1" t="str"/>
       <c r="C175" s="1" t="str"/>
@@ -3166,7 +3211,7 @@
       <c r="G175" s="1" t="str"/>
       <c r="H175" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="176">
+    <row customHeight="true" ht="23" r="176">
       <c r="A176" s="1" t="str"/>
       <c r="B176" s="1" t="str"/>
       <c r="C176" s="1" t="str"/>
@@ -3176,7 +3221,7 @@
       <c r="G176" s="1" t="str"/>
       <c r="H176" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="177">
+    <row customHeight="true" ht="23" r="177">
       <c r="A177" s="1" t="str"/>
       <c r="B177" s="1" t="str"/>
       <c r="C177" s="1" t="str"/>
@@ -3186,7 +3231,7 @@
       <c r="G177" s="1" t="str"/>
       <c r="H177" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="178">
+    <row customHeight="true" ht="23" r="178">
       <c r="A178" s="1" t="str"/>
       <c r="B178" s="1" t="str"/>
       <c r="C178" s="1" t="str"/>
@@ -3196,7 +3241,7 @@
       <c r="G178" s="1" t="str"/>
       <c r="H178" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="179">
+    <row customHeight="true" ht="23" r="179">
       <c r="A179" s="1" t="str"/>
       <c r="B179" s="1" t="str"/>
       <c r="C179" s="1" t="str"/>
@@ -3206,7 +3251,7 @@
       <c r="G179" s="1" t="str"/>
       <c r="H179" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="180">
+    <row customHeight="true" ht="23" r="180">
       <c r="A180" s="1" t="str"/>
       <c r="B180" s="1" t="str"/>
       <c r="C180" s="1" t="str"/>
@@ -3216,7 +3261,7 @@
       <c r="G180" s="1" t="str"/>
       <c r="H180" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="181">
+    <row customHeight="true" ht="23" r="181">
       <c r="A181" s="1" t="str"/>
       <c r="B181" s="1" t="str"/>
       <c r="C181" s="1" t="str"/>
@@ -3226,7 +3271,7 @@
       <c r="G181" s="1" t="str"/>
       <c r="H181" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="182">
+    <row customHeight="true" ht="23" r="182">
       <c r="A182" s="1" t="str"/>
       <c r="B182" s="1" t="str"/>
       <c r="C182" s="1" t="str"/>
@@ -3236,7 +3281,7 @@
       <c r="G182" s="1" t="str"/>
       <c r="H182" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="183">
+    <row customHeight="true" ht="23" r="183">
       <c r="A183" s="1" t="str"/>
       <c r="B183" s="1" t="str"/>
       <c r="C183" s="1" t="str"/>
@@ -3246,7 +3291,7 @@
       <c r="G183" s="1" t="str"/>
       <c r="H183" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="184">
+    <row customHeight="true" ht="23" r="184">
       <c r="A184" s="1" t="str"/>
       <c r="B184" s="1" t="str"/>
       <c r="C184" s="1" t="str"/>
@@ -3256,7 +3301,7 @@
       <c r="G184" s="1" t="str"/>
       <c r="H184" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="185">
+    <row customHeight="true" ht="23" r="185">
       <c r="A185" s="1" t="str"/>
       <c r="B185" s="1" t="str"/>
       <c r="C185" s="1" t="str"/>
@@ -3266,7 +3311,7 @@
       <c r="G185" s="1" t="str"/>
       <c r="H185" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="186">
+    <row customHeight="true" ht="23" r="186">
       <c r="A186" s="1" t="str"/>
       <c r="B186" s="1" t="str"/>
       <c r="C186" s="1" t="str"/>
@@ -3276,7 +3321,7 @@
       <c r="G186" s="1" t="str"/>
       <c r="H186" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="187">
+    <row customHeight="true" ht="23" r="187">
       <c r="A187" s="1" t="str"/>
       <c r="B187" s="1" t="str"/>
       <c r="C187" s="1" t="str"/>
@@ -3286,7 +3331,7 @@
       <c r="G187" s="1" t="str"/>
       <c r="H187" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="188">
+    <row customHeight="true" ht="23" r="188">
       <c r="A188" s="1" t="str"/>
       <c r="B188" s="1" t="str"/>
       <c r="C188" s="1" t="str"/>
@@ -3296,7 +3341,7 @@
       <c r="G188" s="1" t="str"/>
       <c r="H188" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="189">
+    <row customHeight="true" ht="23" r="189">
       <c r="A189" s="1" t="str"/>
       <c r="B189" s="1" t="str"/>
       <c r="C189" s="1" t="str"/>
@@ -3306,7 +3351,7 @@
       <c r="G189" s="1" t="str"/>
       <c r="H189" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="190">
+    <row customHeight="true" ht="23" r="190">
       <c r="A190" s="1" t="str"/>
       <c r="B190" s="1" t="str"/>
       <c r="C190" s="1" t="str"/>
@@ -3316,7 +3361,7 @@
       <c r="G190" s="1" t="str"/>
       <c r="H190" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="191">
+    <row customHeight="true" ht="23" r="191">
       <c r="A191" s="1" t="str"/>
       <c r="B191" s="1" t="str"/>
       <c r="C191" s="1" t="str"/>
@@ -3326,7 +3371,7 @@
       <c r="G191" s="1" t="str"/>
       <c r="H191" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="192">
+    <row customHeight="true" ht="23" r="192">
       <c r="A192" s="1" t="str"/>
       <c r="B192" s="1" t="str"/>
       <c r="C192" s="1" t="str"/>
@@ -3336,7 +3381,7 @@
       <c r="G192" s="1" t="str"/>
       <c r="H192" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="193">
+    <row customHeight="true" ht="23" r="193">
       <c r="A193" s="1" t="str"/>
       <c r="B193" s="1" t="str"/>
       <c r="C193" s="1" t="str"/>
@@ -3346,7 +3391,7 @@
       <c r="G193" s="1" t="str"/>
       <c r="H193" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="194">
+    <row customHeight="true" ht="23" r="194">
       <c r="A194" s="1" t="str"/>
       <c r="B194" s="1" t="str"/>
       <c r="C194" s="1" t="str"/>
@@ -3356,7 +3401,7 @@
       <c r="G194" s="1" t="str"/>
       <c r="H194" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="195">
+    <row customHeight="true" ht="23" r="195">
       <c r="A195" s="1" t="str"/>
       <c r="B195" s="1" t="str"/>
       <c r="C195" s="1" t="str"/>
@@ -3366,7 +3411,7 @@
       <c r="G195" s="1" t="str"/>
       <c r="H195" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="196">
+    <row customHeight="true" ht="23" r="196">
       <c r="A196" s="1" t="str"/>
       <c r="B196" s="1" t="str"/>
       <c r="C196" s="1" t="str"/>
@@ -3376,7 +3421,7 @@
       <c r="G196" s="1" t="str"/>
       <c r="H196" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="197">
+    <row customHeight="true" ht="23" r="197">
       <c r="A197" s="1" t="str"/>
       <c r="B197" s="1" t="str"/>
       <c r="C197" s="1" t="str"/>
@@ -3386,7 +3431,7 @@
       <c r="G197" s="1" t="str"/>
       <c r="H197" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="198">
+    <row customHeight="true" ht="23" r="198">
       <c r="A198" s="1" t="str"/>
       <c r="B198" s="1" t="str"/>
       <c r="C198" s="1" t="str"/>
@@ -3396,7 +3441,7 @@
       <c r="G198" s="1" t="str"/>
       <c r="H198" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="199">
+    <row customHeight="true" ht="23" r="199">
       <c r="A199" s="1" t="str"/>
       <c r="B199" s="1" t="str"/>
       <c r="C199" s="1" t="str"/>

--- a/wolf/Excel/CoinsGenerate_金币生成表.xlsx
+++ b/wolf/Excel/CoinsGenerate_金币生成表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -43,28 +43,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,21 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,12 +105,6 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,6 +421,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
@@ -463,17 +432,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
@@ -483,8 +463,8 @@
       <c r="C1" s="1" t="str">
         <v>Float[]</v>
       </c>
-      <c r="D1" s="2" t="str">
-        <v>String</v>
+      <c r="D1" s="1" t="str">
+        <v>Vector3</v>
       </c>
       <c r="E1" s="1" t="str">
         <v>Vector3</v>
@@ -493,13 +473,10 @@
         <v>Vector3</v>
       </c>
       <c r="G1" s="1" t="str">
-        <v>Vector3</v>
-      </c>
-      <c r="H1" s="1" t="str">
         <v>Int</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -509,23 +486,20 @@
       <c r="C2" s="1" t="str">
         <v>Scale</v>
       </c>
-      <c r="D2" s="2" t="str">
-        <v>Comment</v>
+      <c r="D2" s="1" t="str">
+        <v>Point1</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>Point1</v>
+        <v>Point2</v>
       </c>
       <c r="F2" s="1" t="str">
-        <v>Point2</v>
+        <v>Point3</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v>Point3</v>
-      </c>
-      <c r="H2" s="1" t="str">
         <v>Quantity</v>
       </c>
     </row>
-    <row customHeight="true" ht="31" r="3">
+    <row customHeight="true" ht="33" r="3">
       <c r="A3" s="1" t="str">
         <v>序号</v>
       </c>
@@ -535,50 +509,45 @@
       <c r="C3" s="1" t="str">
         <v>尺寸</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <v>尺寸*50</v>
-      </c>
-      <c r="E3" s="1" t="str">
+      <c r="D3" s="1" t="str">
         <v>点1
 +|+|0</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="E3" s="1" t="str">
         <v>点2
 -|+|0</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="F3" s="1" t="str">
         <v>点3
 -|-|0</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="G3" s="1" t="str">
         <v>生成数量</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1" t="str"/>
       <c r="B4" s="1" t="str"/>
       <c r="C4" s="1" t="str"/>
-      <c r="D4" s="2" t="str"/>
+      <c r="D4" s="1" t="str"/>
       <c r="E4" s="1" t="str"/>
       <c r="F4" s="1" t="str"/>
       <c r="G4" s="1" t="str"/>
-      <c r="H4" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="5">
+    </row>
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="1" t="str"/>
       <c r="C5" s="1" t="str"/>
-      <c r="D5" s="2" t="str"/>
+      <c r="D5" s="1" t="str"/>
       <c r="E5" s="1" t="str"/>
       <c r="F5" s="1" t="str"/>
-      <c r="G5" s="1" t="str"/>
-      <c r="H5" s="1">
+      <c r="G5" s="1">
         <v>17</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1">
         <v>10001</v>
       </c>
@@ -588,23 +557,20 @@
       <c r="C6" t="str">
         <v>2.5|25|0.5</v>
       </c>
-      <c r="D6" s="3" t="str">
-        <v>125|1250|0</v>
+      <c r="D6" t="str">
+        <v>-535|4300|800</v>
       </c>
       <c r="E6" t="str">
-        <v>-535|4300|800</v>
+        <v>-885|4300|800</v>
       </c>
       <c r="F6" t="str">
-        <v>-885|4300|800</v>
-      </c>
-      <c r="G6" t="str">
         <v>-885|1800|800</v>
       </c>
-      <c r="H6" s="1">
+      <c r="G6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1">
         <v>10002</v>
       </c>
@@ -614,23 +580,20 @@
       <c r="C7" s="1" t="str">
         <v>2|26|0.5</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <v>100|1300|0</v>
+      <c r="D7" t="str">
+        <v>-380|4480|735</v>
       </c>
       <c r="E7" t="str">
-        <v>-380|4480|735</v>
+        <v>-580|4480|735</v>
       </c>
       <c r="F7" t="str">
-        <v>-580|4480|735</v>
-      </c>
-      <c r="G7" t="str">
         <v>-580|1880|735</v>
       </c>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="1">
         <v>10003</v>
       </c>
@@ -640,23 +603,20 @@
       <c r="C8" s="1" t="str">
         <v>16|4|0.5</v>
       </c>
-      <c r="D8" s="2" t="str">
-        <v>800|200|0</v>
+      <c r="D8" t="str">
+        <v>780|4920|735</v>
       </c>
       <c r="E8" t="str">
-        <v>780|4920|735</v>
+        <v>-820|4920|735</v>
       </c>
       <c r="F8" t="str">
-        <v>-820|4920|735</v>
-      </c>
-      <c r="G8" t="str">
         <v>-820|4520|735</v>
       </c>
-      <c r="H8" s="1">
+      <c r="G8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1">
         <v>10004</v>
       </c>
@@ -666,23 +626,20 @@
       <c r="C9" s="1" t="str">
         <v>3.5|3.5|0.5</v>
       </c>
-      <c r="D9" s="2" t="str">
-        <v>175|175|0</v>
+      <c r="D9" t="str">
+        <v>130|3710|735</v>
       </c>
       <c r="E9" t="str">
-        <v>130|3710|735</v>
+        <v>-220|3710|735</v>
       </c>
       <c r="F9" t="str">
-        <v>-220|3710|735</v>
-      </c>
-      <c r="G9" t="str">
         <v>-220|3360|735</v>
       </c>
-      <c r="H9" s="1">
+      <c r="G9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1">
         <v>10005</v>
       </c>
@@ -692,23 +649,20 @@
       <c r="C10" s="1" t="str">
         <v>8|6|0.5</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <v>400|300|0</v>
+      <c r="D10" t="str">
+        <v>75|1710|735</v>
       </c>
       <c r="E10" t="str">
-        <v>75|1710|735</v>
+        <v>-725|1710|735</v>
       </c>
       <c r="F10" t="str">
-        <v>-725|1710|735</v>
-      </c>
-      <c r="G10" t="str">
         <v>-725|1110|735</v>
       </c>
-      <c r="H10" s="1">
+      <c r="G10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11" s="1">
         <v>10006</v>
       </c>
@@ -718,23 +672,20 @@
       <c r="C11" s="1" t="str">
         <v>3|10|0.5</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <v>150|500|0</v>
+      <c r="D11" t="str">
+        <v>840|2415|735</v>
       </c>
       <c r="E11" t="str">
-        <v>840|2415|735</v>
+        <v>540|2415|735</v>
       </c>
       <c r="F11" t="str">
-        <v>540|2415|735</v>
-      </c>
-      <c r="G11" t="str">
         <v>540|1415|735</v>
       </c>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1">
         <v>10007</v>
       </c>
@@ -744,23 +695,20 @@
       <c r="C12" s="1" t="str">
         <v>6|6|0.5</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <v>300|300|0</v>
+      <c r="D12" t="str">
+        <v>835|3095|735</v>
       </c>
       <c r="E12" t="str">
-        <v>835|3095|735</v>
+        <v>235|3095|735</v>
       </c>
       <c r="F12" t="str">
-        <v>235|3095|735</v>
-      </c>
-      <c r="G12" t="str">
         <v>235|2495|735</v>
       </c>
-      <c r="H12" s="1">
+      <c r="G12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" s="1">
         <v>10008</v>
       </c>
@@ -770,23 +718,20 @@
       <c r="C13" s="1" t="str">
         <v>5.5|5|0.5</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <v>275|250|0</v>
+      <c r="D13" t="str">
+        <v>740|600|735</v>
       </c>
       <c r="E13" t="str">
-        <v>740|600|735</v>
+        <v>190|600|735</v>
       </c>
       <c r="F13" t="str">
-        <v>190|600|735</v>
-      </c>
-      <c r="G13" t="str">
         <v>190|100|735</v>
       </c>
-      <c r="H13" s="1">
+      <c r="G13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1">
         <v>10009</v>
       </c>
@@ -796,23 +741,20 @@
       <c r="C14" s="1" t="str">
         <v>17.5|2.4|0.5</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <v>875|120|0</v>
+      <c r="D14" t="str">
+        <v>875|1020|735</v>
       </c>
       <c r="E14" t="str">
-        <v>875|1020|735</v>
+        <v>-875|1020|735</v>
       </c>
       <c r="F14" t="str">
-        <v>-875|1020|735</v>
-      </c>
-      <c r="G14" t="str">
         <v>-875|780|735</v>
       </c>
-      <c r="H14" s="1">
+      <c r="G14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15" s="1">
         <v>10010</v>
       </c>
@@ -822,23 +764,20 @@
       <c r="C15" s="1" t="str">
         <v>2.6|1|0.5</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <v>130|50|0</v>
+      <c r="D15" t="str">
+        <v>2080|4565|735</v>
       </c>
       <c r="E15" t="str">
-        <v>2080|4565|735</v>
+        <v>1920|4565|735</v>
       </c>
       <c r="F15" t="str">
-        <v>1920|4565|735</v>
-      </c>
-      <c r="G15" t="str">
         <v>1920|4465|735</v>
       </c>
-      <c r="H15" s="1">
+      <c r="G15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16" s="1">
         <v>10011</v>
       </c>
@@ -848,23 +787,20 @@
       <c r="C16" s="1" t="str">
         <v>6|6|0.5</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <v>300|300|0</v>
+      <c r="D16" t="str">
+        <v>20|665|850</v>
       </c>
       <c r="E16" t="str">
-        <v>20|665|850</v>
+        <v>-580|665|850</v>
       </c>
       <c r="F16" t="str">
-        <v>-580|665|850</v>
-      </c>
-      <c r="G16" t="str">
         <v>-580|65|850</v>
       </c>
-      <c r="H16" s="1">
+      <c r="G16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row customHeight="true" ht="23" r="17">
       <c r="A17" s="1">
         <v>10012</v>
       </c>
@@ -874,23 +810,20 @@
       <c r="C17" s="1" t="str">
         <v>2.5|5|0.5</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <v>125|250|0</v>
+      <c r="D17" t="str">
+        <v>-560|600|735</v>
       </c>
       <c r="E17" t="str">
-        <v>-560|600|735</v>
+        <v>-810|600|735</v>
       </c>
       <c r="F17" t="str">
-        <v>-810|600|735</v>
-      </c>
-      <c r="G17" t="str">
         <v>-810|100|735</v>
       </c>
-      <c r="H17" s="1">
+      <c r="G17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18" s="1">
         <v>10013</v>
       </c>
@@ -900,23 +833,20 @@
       <c r="C18" s="1" t="str">
         <v>5.5|3|0.5</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <v>275|150|0</v>
+      <c r="D18" t="str">
+        <v>1475|2325|735</v>
       </c>
       <c r="E18" t="str">
-        <v>1475|2325|735</v>
+        <v>925|2325|735</v>
       </c>
       <c r="F18" t="str">
-        <v>925|2325|735</v>
-      </c>
-      <c r="G18" t="str">
         <v>925|2025|735</v>
       </c>
-      <c r="H18" s="1">
+      <c r="G18" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19" s="1">
         <v>10014</v>
       </c>
@@ -926,23 +856,20 @@
       <c r="C19" s="1" t="str">
         <v>3|5|0.5</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <v>150|250|0</v>
+      <c r="D19" t="str">
+        <v>1445|1650|745</v>
       </c>
       <c r="E19" t="str">
-        <v>1445|1650|745</v>
+        <v>1145|1650|745</v>
       </c>
       <c r="F19" t="str">
-        <v>1145|1650|745</v>
-      </c>
-      <c r="G19" t="str">
         <v>1145|1150|745</v>
       </c>
-      <c r="H19" s="1">
+      <c r="G19" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20" s="1">
         <v>10015</v>
       </c>
@@ -952,23 +879,20 @@
       <c r="C20" s="1" t="str">
         <v>2|2.5|0.5</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <v>100|125|0</v>
+      <c r="D20" t="str">
+        <v>2030|5035|735</v>
       </c>
       <c r="E20" t="str">
-        <v>2030|5035|735</v>
+        <v>1830|5035|735</v>
       </c>
       <c r="F20" t="str">
-        <v>1830|5035|735</v>
-      </c>
-      <c r="G20" t="str">
         <v>1830|4785|735</v>
       </c>
-      <c r="H20" s="1">
+      <c r="G20" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21" s="1">
         <v>10016</v>
       </c>
@@ -978,23 +902,20 @@
       <c r="C21" s="1" t="str">
         <v>2.5|3.5|0.5</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <v>125|175|0</v>
+      <c r="D21" t="str">
+        <v>2075|5435|735</v>
       </c>
       <c r="E21" t="str">
-        <v>2075|5435|735</v>
+        <v>1825|5435|735</v>
       </c>
       <c r="F21" t="str">
-        <v>1825|5435|735</v>
-      </c>
-      <c r="G21" t="str">
         <v>1825|5085|735</v>
       </c>
-      <c r="H21" s="1">
+      <c r="G21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22" s="1">
         <v>10017</v>
       </c>
@@ -1004,571 +925,506 @@
       <c r="C22" s="1" t="str">
         <v>7|6.5|0.5</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <v>350|325|0</v>
+      <c r="D22" t="str">
+        <v>1730|5315|735</v>
       </c>
       <c r="E22" t="str">
-        <v>1730|5315|735</v>
+        <v>1030|5315|735</v>
       </c>
       <c r="F22" t="str">
-        <v>1030|5315|735</v>
-      </c>
-      <c r="G22" t="str">
         <v>1030|4665|735</v>
       </c>
-      <c r="H22" s="1">
+      <c r="G22" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23" s="1">
         <v>20000</v>
       </c>
       <c r="B23" s="1" t="str"/>
       <c r="C23" s="1" t="str"/>
-      <c r="D23" s="2" t="str"/>
+      <c r="D23" s="1" t="str"/>
       <c r="E23" s="1" t="str"/>
       <c r="F23" s="1" t="str"/>
-      <c r="G23" s="1" t="str"/>
-      <c r="H23" s="1">
+      <c r="G23" s="1">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24" s="1">
         <v>20001</v>
       </c>
       <c r="B24" s="1" t="str">
-        <v>-11300|10900|40</v>
+        <v>-18510|19524|800</v>
       </c>
       <c r="C24" s="1" t="str">
-        <v>7|6|0.5</v>
-      </c>
-      <c r="D24" s="2" t="str">
-        <v>350|300|0</v>
+        <v>2.5|2|0.5</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v>-18395|19424|800</v>
       </c>
       <c r="E24" s="1" t="str">
-        <v>-10950|11200|40</v>
+        <v>-18387|19635|800</v>
       </c>
       <c r="F24" s="1" t="str">
-        <v>-11650|11200|40</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <v>-11650|10600|40</v>
-      </c>
-      <c r="H24" s="1">
+        <v>-18632|19628|800</v>
+      </c>
+      <c r="G24" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25" s="1">
         <v>20002</v>
       </c>
       <c r="B25" s="1" t="str">
-        <v>-10600|10850|40</v>
+        <v>-18840|19956|800</v>
       </c>
       <c r="C25" s="1" t="str">
-        <v>6|5|0.5</v>
-      </c>
-      <c r="D25" s="2" t="str">
-        <v>300|250|0</v>
+        <v>1.5|4|0.5</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <v>-18902|19755|800</v>
       </c>
       <c r="E25" s="1" t="str">
-        <v>-10300|11100|40</v>
+        <v>-18766|19754|800</v>
       </c>
       <c r="F25" s="1" t="str">
-        <v>-10900|11100|40</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <v>-10900|10600|40</v>
-      </c>
-      <c r="H25" s="1">
+        <v>-18762|20152|801</v>
+      </c>
+      <c r="G25" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26" s="1">
         <v>20003</v>
       </c>
       <c r="B26" s="1" t="str">
-        <v>-10685|11635|-35</v>
+        <v>-18783|19874|493</v>
       </c>
       <c r="C26" s="1" t="str">
-        <v>4|5|0.5</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <v>200|250|0</v>
+        <v>3.5|4.5|0.5</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <v>-18963|19651|493</v>
       </c>
       <c r="E26" s="1" t="str">
-        <v>-10485|11885|-35</v>
+        <v>-18957|20094|493</v>
       </c>
       <c r="F26" s="1" t="str">
-        <v>-10885|11885|-35</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <v>-10885|11385|-35</v>
-      </c>
-      <c r="H26" s="1">
+        <v>-18647|19662|493</v>
+      </c>
+      <c r="G26" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27" s="1">
         <v>20004</v>
       </c>
       <c r="B27" s="1" t="str">
-        <v>-10400|12600|-35</v>
+        <v>-18549|19475|493</v>
       </c>
       <c r="C27" s="1" t="str">
-        <v>6|14|0.5</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <v>300|700|0</v>
+        <v>2.5|2.5|0.5</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <v>-18427|19356|493</v>
       </c>
       <c r="E27" s="1" t="str">
-        <v>-10100|13300|-35</v>
+        <v>-18422|19590|493</v>
       </c>
       <c r="F27" s="1" t="str">
-        <v>-10700|13300|-35</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <v>-10700|11900|-35</v>
-      </c>
-      <c r="H27" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="28">
+        <v>-18670|19363|493</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="28">
       <c r="A28" s="1">
         <v>20005</v>
       </c>
       <c r="B28" s="1" t="str">
-        <v>-11300|12250|40</v>
+        <v>-18632|20173|153</v>
       </c>
       <c r="C28" s="1" t="str">
-        <v>5.5|6.5|0.5</v>
-      </c>
-      <c r="D28" s="2" t="str">
-        <v>275|325|0</v>
+        <v>2|2|0.5</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <v>-18727|20254|153</v>
       </c>
       <c r="E28" s="1" t="str">
-        <v>-11025|12575|40</v>
+        <v>-18743|20067|153</v>
       </c>
       <c r="F28" s="1" t="str">
-        <v>-11575|12575|40</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <v>-11575|11925|40</v>
-      </c>
-      <c r="H28" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="29">
+        <v>-18527|20043|153</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="29">
       <c r="A29" s="1">
         <v>20006</v>
       </c>
       <c r="B29" s="1" t="str">
-        <v>-11350|11550|40</v>
+        <v>-19038|20787|158</v>
       </c>
       <c r="C29" s="1" t="str">
-        <v>5|6.5|0.5</v>
-      </c>
-      <c r="D29" s="2" t="str">
-        <v>250|325|0</v>
+        <v>8|2.5|0.5</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <v>-19424|20669|152</v>
       </c>
       <c r="E29" s="1" t="str">
-        <v>-11100|11875|40</v>
+        <v>-19421|20926|153</v>
       </c>
       <c r="F29" s="1" t="str">
-        <v>-11600|11875|40</v>
-      </c>
-      <c r="G29" s="1" t="str">
-        <v>-11600|11225|40</v>
-      </c>
-      <c r="H29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="30">
+        <v>-18611|20928|147</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="30">
       <c r="A30" s="1">
         <v>20007</v>
       </c>
       <c r="B30" s="1" t="str">
-        <v>-11400|13680|40</v>
+        <v>-18970|18890|147</v>
       </c>
       <c r="C30" s="1" t="str">
-        <v>4|13|0.5</v>
-      </c>
-      <c r="D30" s="2" t="str">
-        <v>200|650|0</v>
+        <v>4|5.5|0.5</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <v>-19162|18614|154</v>
       </c>
       <c r="E30" s="1" t="str">
-        <v>-11200|14330|40</v>
+        <v>-18766|19152|147</v>
       </c>
       <c r="F30" s="1" t="str">
-        <v>-11600|14330|40</v>
-      </c>
-      <c r="G30" s="1" t="str">
-        <v>-11600|13030|40</v>
-      </c>
-      <c r="H30" s="1">
+        <v>-19152|19149|173</v>
+      </c>
+      <c r="G30" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31" s="1">
         <v>20008</v>
       </c>
       <c r="B31" s="1" t="str">
-        <v>-10750|14200|40</v>
+        <v>-19265|20296|155</v>
       </c>
       <c r="C31" s="1" t="str">
-        <v>9|4|0.5</v>
-      </c>
-      <c r="D31" s="2" t="str">
-        <v>450|200|0</v>
+        <v>3.5|5.5|0.5</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <v>-19437|20023|153</v>
       </c>
       <c r="E31" s="1" t="str">
-        <v>-10300|14400|40</v>
+        <v>-19093|20004|154</v>
       </c>
       <c r="F31" s="1" t="str">
-        <v>-11200|14400|40</v>
-      </c>
-      <c r="G31" s="1" t="str">
-        <v>-11200|14000|40</v>
-      </c>
-      <c r="H31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="32">
+        <v>-19070|20568|153</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="32">
       <c r="A32" s="1">
         <v>20009</v>
       </c>
       <c r="B32" s="1" t="str">
-        <v>-12250|13550|40</v>
+        <v>-19392|19441|152</v>
       </c>
       <c r="C32" s="1" t="str">
-        <v>5.5|8.5|0.5</v>
-      </c>
-      <c r="D32" s="2" t="str">
-        <v>275|425|0</v>
+        <v>3|3|0.5</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <v>-19540|19287|152</v>
       </c>
       <c r="E32" s="1" t="str">
-        <v>-11975|13975|40</v>
+        <v>-19243|19575|152</v>
       </c>
       <c r="F32" s="1" t="str">
-        <v>-12525|13975|40</v>
-      </c>
-      <c r="G32" s="1" t="str">
-        <v>-12525|13125|40</v>
-      </c>
-      <c r="H32" s="1">
+        <v>-19536|19578|152</v>
+      </c>
+      <c r="G32" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row customHeight="true" ht="23" r="33">
       <c r="A33" s="1">
         <v>20010</v>
       </c>
       <c r="B33" s="1" t="str">
-        <v>-12250|14580|40</v>
+        <v>-19970|18695|805</v>
       </c>
       <c r="C33" s="1" t="str">
-        <v>6|6|0.5</v>
-      </c>
-      <c r="D33" s="2" t="str">
-        <v>300|300|0</v>
+        <v>8|5|0.5</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <v>-20315|18910|805</v>
       </c>
       <c r="E33" s="1" t="str">
-        <v>-11950|14880|40</v>
+        <v>-20298|18546|805</v>
       </c>
       <c r="F33" s="1" t="str">
-        <v>-12550|14880|40</v>
-      </c>
-      <c r="G33" s="1" t="str">
-        <v>-12550|14280|40</v>
-      </c>
-      <c r="H33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="34">
+        <v>-19621|18881|805</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="34">
       <c r="A34" s="1">
         <v>20011</v>
       </c>
       <c r="B34" s="1" t="str">
-        <v>-13170|14590|40</v>
+        <v>-19876|18633|155</v>
       </c>
       <c r="C34" s="1" t="str">
-        <v>7|3.5|0.5</v>
-      </c>
-      <c r="D34" s="2" t="str">
-        <v>350|175|0</v>
+        <v>2|2|0.5</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <v>-19776|18730|155</v>
       </c>
       <c r="E34" s="1" t="str">
-        <v>-12820|14765|40</v>
+        <v>-19764|18538|155</v>
       </c>
       <c r="F34" s="1" t="str">
-        <v>-13520|14415|40</v>
-      </c>
-      <c r="G34" s="1" t="str">
-        <v>-13520|14415|40</v>
-      </c>
-      <c r="H34" s="1">
+        <v>-19959|18539|155</v>
+      </c>
+      <c r="G34" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="35">
+    <row customHeight="true" ht="23" r="35">
       <c r="A35" s="1">
         <v>20012</v>
       </c>
       <c r="B35" s="1" t="str">
-        <v>-13465|14165|55</v>
+        <v>-20303|19418|155</v>
       </c>
       <c r="C35" s="1" t="str">
-        <v>7|4|0.5</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <v>350|200|0</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <v>-13115|14365|55</v>
-      </c>
-      <c r="F35" t="str">
-        <v>-13815|14365|55</v>
-      </c>
-      <c r="G35" s="1" t="str">
-        <v>-13815|13965|55</v>
-      </c>
-      <c r="H35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="36">
+        <v>9|3|0.5</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <v>-20745|19557|152</v>
+      </c>
+      <c r="E35" t="str">
+        <v>-19863|19273|155</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <v>-19879|19567|155</v>
+      </c>
+      <c r="G35" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="36">
       <c r="A36" s="1">
         <v>20013</v>
       </c>
       <c r="B36" s="1" t="str">
-        <v>-14025|13455|40</v>
+        <v>-20524|18889|149</v>
       </c>
       <c r="C36" s="1" t="str">
-        <v>2.5|11|0.5</v>
-      </c>
-      <c r="D36" s="2" t="str">
-        <v>125|550|0</v>
+        <v>2|6.5|0.5</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <v>-20426|19195|159</v>
       </c>
       <c r="E36" s="1" t="str">
-        <v>-13900|14005|40</v>
+        <v>-20617|19195|152</v>
       </c>
       <c r="F36" s="1" t="str">
-        <v>-14150|14005|40</v>
-      </c>
-      <c r="G36" s="1" t="str">
-        <v>-14150|12905|40</v>
-      </c>
-      <c r="H36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="37">
+        <v>-20421|18561|155</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="37">
       <c r="A37" s="1">
         <v>20014</v>
       </c>
       <c r="B37" s="1" t="str">
-        <v>-14440|12705|55</v>
+        <v>-21062|19942|155</v>
       </c>
       <c r="C37" s="1" t="str">
-        <v>1|27|0.5</v>
-      </c>
-      <c r="D37" s="2" t="str">
-        <v>50|1350|0</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <v>-14390|14055|55</v>
-      </c>
-      <c r="F37" s="4" t="str">
-        <v>-14490|14055|55</v>
-      </c>
-      <c r="G37" s="1" t="str">
-        <v>-14490|11355|55</v>
-      </c>
-      <c r="H37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="38">
+        <v>15|4|0.5</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <v>-20319|19782|167</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <v>-20331|20128|155</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <v>-21775|20051|155</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="38">
       <c r="A38" s="1">
         <v>20015</v>
       </c>
       <c r="B38" s="1" t="str">
-        <v>-13545|11305|55</v>
+        <v>-19895|19961|155</v>
       </c>
       <c r="C38" s="1" t="str">
-        <v>4|6.5|0.5</v>
-      </c>
-      <c r="D38" s="2" t="str">
-        <v>200|325|0</v>
+        <v>7|7|0.5</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <v>-20196|20262|155</v>
       </c>
       <c r="E38" s="1" t="str">
-        <v>-13345|11630|55</v>
+        <v>-19595|20254|155</v>
       </c>
       <c r="F38" s="1" t="str">
-        <v>-13745|11630|55</v>
-      </c>
-      <c r="G38" s="1" t="str">
-        <v>-13745|10980|55</v>
-      </c>
-      <c r="H38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="39">
+        <v>-20196|19661|166</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="39">
       <c r="A39" s="1">
         <v>20016</v>
       </c>
       <c r="B39" s="1" t="str">
-        <v>-14125|10800|40</v>
+        <v>-19877|21233|801</v>
       </c>
       <c r="C39" s="1" t="str">
-        <v>7.5|6.5|0.5</v>
-      </c>
-      <c r="D39" s="2" t="str">
-        <v>375|325|0</v>
+        <v>7|4|0.5</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <v>-20202|21035|801</v>
       </c>
       <c r="E39" s="1" t="str">
-        <v>-13750|11125|40</v>
+        <v>-20198|21428|801</v>
       </c>
       <c r="F39" s="1" t="str">
-        <v>-14500|11125|40</v>
-      </c>
-      <c r="G39" s="1" t="str">
-        <v>-14500|10475|40</v>
-      </c>
-      <c r="H39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="40">
+        <v>-19540|21423|801</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="40">
       <c r="A40" s="1">
         <v>20017</v>
       </c>
       <c r="B40" s="1" t="str">
-        <v>-13025|10725|40</v>
+        <v>-19898|21101|492</v>
       </c>
       <c r="C40" s="1" t="str">
-        <v>7|3|0.5</v>
-      </c>
-      <c r="D40" s="2" t="str">
-        <v>350|150|0</v>
+        <v>2.5|3.5|0.5</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <v>-19729|21213|493</v>
       </c>
       <c r="E40" s="1" t="str">
-        <v>-12675|10875|40</v>
+        <v>-19723|20983|493</v>
       </c>
       <c r="F40" s="1" t="str">
-        <v>-13375|10875|40</v>
-      </c>
-      <c r="G40" s="1" t="str">
-        <v>-13375|10575|40</v>
-      </c>
-      <c r="H40" s="1">
+        <v>-20081|21000|492</v>
+      </c>
+      <c r="G40" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="41">
+    <row customHeight="true" ht="23" r="41">
       <c r="A41" s="1">
         <v>20018</v>
       </c>
       <c r="B41" s="1" t="str">
-        <v>-12120|11455|55</v>
+        <v>-19624|21060|153</v>
       </c>
       <c r="C41" s="1" t="str">
-        <v>7|2.5|0.5</v>
-      </c>
-      <c r="D41" s="2" t="str">
-        <v>350|125|0</v>
+        <v>2|6|0.5</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <v>-19693|21334|153</v>
       </c>
       <c r="E41" s="1" t="str">
-        <v>-11770|11580|55</v>
+        <v>-19693|20771|154</v>
       </c>
       <c r="F41" s="1" t="str">
-        <v>-12470|11580|55</v>
-      </c>
-      <c r="G41" s="1" t="str">
-        <v>-12470|11330|55</v>
-      </c>
-      <c r="H41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="42">
+        <v>-19528|20757|152</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="42">
       <c r="A42" s="1">
         <v>20019</v>
       </c>
       <c r="B42" s="1" t="str">
-        <v>-12940|12510|65</v>
+        <v>-20134|20539|154</v>
       </c>
       <c r="C42" s="1" t="str">
-        <v>2|14|0.5</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <v>100|700|0</v>
+        <v>12|3|0.5</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <v>-20705|20660|152</v>
       </c>
       <c r="E42" s="1" t="str">
-        <v>-12840|13210|65</v>
+        <v>-19529|20677|152</v>
       </c>
       <c r="F42" s="1" t="str">
-        <v>-13040|13210|65</v>
-      </c>
-      <c r="G42" s="1" t="str">
-        <v>-13040|11810|65</v>
-      </c>
-      <c r="H42" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="43">
+        <v>-20738|20402|152</v>
+      </c>
+      <c r="G42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="43">
       <c r="A43" s="1">
         <v>20020</v>
       </c>
       <c r="B43" s="1" t="str">
-        <v>-13365|13115|65</v>
+        <v>-20605|21150|152</v>
       </c>
       <c r="C43" s="1" t="str">
-        <v>6|2.5|0.5</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <v>300|125|0</v>
+        <v>5|6|0.5</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <v>-20362|20868|153</v>
       </c>
       <c r="E43" s="1" t="str">
-        <v>-13065|13240|65</v>
+        <v>-20828|21400|152</v>
       </c>
       <c r="F43" s="1" t="str">
-        <v>-13665|13240|65</v>
-      </c>
-      <c r="G43" s="1" t="str">
-        <v>-13665|12990|65</v>
-      </c>
-      <c r="H43" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="44">
+        <v>-20346|21415|158</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="44">
       <c r="A44" s="1">
         <v>30000</v>
       </c>
       <c r="B44" s="1" t="str"/>
       <c r="C44" s="1" t="str"/>
-      <c r="D44" s="2" t="str"/>
+      <c r="D44" s="1" t="str"/>
       <c r="E44" s="1" t="str"/>
       <c r="F44" s="1" t="str"/>
-      <c r="G44" s="1" t="str"/>
-      <c r="H44" s="1">
+      <c r="G44" s="1">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="45">
+    <row customHeight="true" ht="23" r="45">
       <c r="A45" s="1">
         <v>30001</v>
       </c>
@@ -1578,23 +1434,20 @@
       <c r="C45" s="1" t="str">
         <v>4|9.3|1</v>
       </c>
-      <c r="D45" s="2" t="str">
-        <v>200|465|50</v>
+      <c r="D45" s="1" t="str">
+        <v>819|14878|85</v>
       </c>
       <c r="E45" s="1" t="str">
-        <v>819|14878|85</v>
+        <v>419|14878|85</v>
       </c>
       <c r="F45" s="1" t="str">
-        <v>419|14878|85</v>
-      </c>
-      <c r="G45" s="1" t="str">
         <v>419|13948|85</v>
       </c>
-      <c r="H45" s="1">
+      <c r="G45" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row customHeight="true" ht="23" r="46">
       <c r="A46" s="1">
         <v>30002</v>
       </c>
@@ -1604,23 +1457,20 @@
       <c r="C46" s="1" t="str">
         <v>7|5|1</v>
       </c>
-      <c r="D46" s="2" t="str">
-        <v>350|250|50</v>
+      <c r="D46" s="1" t="str">
+        <v>1700|15100|85</v>
       </c>
       <c r="E46" s="1" t="str">
-        <v>1700|15100|85</v>
+        <v>1000|15100|85</v>
       </c>
       <c r="F46" s="1" t="str">
-        <v>1000|15100|85</v>
-      </c>
-      <c r="G46" s="1" t="str">
         <v>1000|14600|85</v>
       </c>
-      <c r="H46" s="1">
+      <c r="G46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="17" r="47">
+    <row customHeight="true" ht="19" r="47">
       <c r="A47" s="1">
         <v>30003</v>
       </c>
@@ -1630,23 +1480,20 @@
       <c r="C47" s="1" t="str">
         <v>4|6|1</v>
       </c>
-      <c r="D47" s="2" t="str">
-        <v>200|300|50</v>
+      <c r="D47" s="1" t="str">
+        <v>1400|13895|85</v>
       </c>
       <c r="E47" s="1" t="str">
-        <v>1400|13895|85</v>
+        <v>1000|13895|85</v>
       </c>
       <c r="F47" s="1" t="str">
-        <v>1000|13895|85</v>
-      </c>
-      <c r="G47" s="1" t="str">
         <v>1000|13295|85</v>
       </c>
-      <c r="H47" s="1">
+      <c r="G47" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row customHeight="true" ht="23" r="48">
       <c r="A48" s="1">
         <v>30004</v>
       </c>
@@ -1656,23 +1503,20 @@
       <c r="C48" s="1" t="str">
         <v>9|2.7|1</v>
       </c>
-      <c r="D48" s="2" t="str">
-        <v>450|135|50</v>
+      <c r="D48" s="1" t="str">
+        <v>2000|12705|85</v>
       </c>
       <c r="E48" s="1" t="str">
-        <v>2000|12705|85</v>
+        <v>1100|12705|85</v>
       </c>
       <c r="F48" s="1" t="str">
-        <v>1100|12705|85</v>
-      </c>
-      <c r="G48" s="1" t="str">
         <v>1100|12435|85</v>
       </c>
-      <c r="H48" s="1">
+      <c r="G48" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row customHeight="true" ht="23" r="49">
       <c r="A49" s="1">
         <v>30005</v>
       </c>
@@ -1682,23 +1526,20 @@
       <c r="C49" s="1" t="str">
         <v>9|18.7|1</v>
       </c>
-      <c r="D49" s="2" t="str">
-        <v>450|935|50</v>
+      <c r="D49" s="1" t="str">
+        <v>4165|14490|85</v>
       </c>
       <c r="E49" s="1" t="str">
-        <v>4165|14490|85</v>
+        <v>3265|14490|85</v>
       </c>
       <c r="F49" s="1" t="str">
-        <v>3265|14490|85</v>
-      </c>
-      <c r="G49" s="1" t="str">
         <v>3265|12620|85</v>
       </c>
-      <c r="H49" s="1">
+      <c r="G49" s="1">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row customHeight="true" ht="23" r="50">
       <c r="A50" s="1">
         <v>30006</v>
       </c>
@@ -1708,23 +1549,20 @@
       <c r="C50" s="1" t="str">
         <v>1.75|9.25|1</v>
       </c>
-      <c r="D50" s="2" t="str">
-        <v>87.5|462.5|50</v>
+      <c r="D50" s="1" t="str">
+        <v>4047.5|12287.5|85</v>
       </c>
       <c r="E50" s="1" t="str">
-        <v>4047.5|12287.5|85</v>
+        <v>3872.5|12287.5|85</v>
       </c>
       <c r="F50" s="1" t="str">
-        <v>3872.5|12287.5|85</v>
-      </c>
-      <c r="G50" s="1" t="str">
         <v>3872.5|11362.5|85</v>
       </c>
-      <c r="H50" s="1">
+      <c r="G50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row customHeight="true" ht="23" r="51">
       <c r="A51" s="1">
         <v>30007</v>
       </c>
@@ -1734,23 +1572,20 @@
       <c r="C51" s="1" t="str">
         <v>1.75|9.25|1</v>
       </c>
-      <c r="D51" s="2" t="str">
-        <v>87.5|462.5|50</v>
+      <c r="D51" s="1" t="str">
+        <v>4832.5|12287.5|85</v>
       </c>
       <c r="E51" s="1" t="str">
-        <v>4832.5|12287.5|85</v>
+        <v>4657.5|12287.5|85</v>
       </c>
       <c r="F51" s="1" t="str">
-        <v>4657.5|12287.5|85</v>
-      </c>
-      <c r="G51" s="1" t="str">
         <v>4657.5|11362.5|85</v>
       </c>
-      <c r="H51" s="1">
+      <c r="G51" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="52">
+    <row customHeight="true" ht="23" r="52">
       <c r="A52" s="1">
         <v>30008</v>
       </c>
@@ -1760,23 +1595,20 @@
       <c r="C52" s="1" t="str">
         <v>14|3.5|1</v>
       </c>
-      <c r="D52" s="2" t="str">
-        <v>700|175|50</v>
+      <c r="D52" s="1" t="str">
+        <v>5825|14805|85</v>
       </c>
       <c r="E52" s="1" t="str">
-        <v>5825|14805|85</v>
+        <v>4425|14805|85</v>
       </c>
       <c r="F52" s="1" t="str">
-        <v>4425|14805|85</v>
-      </c>
-      <c r="G52" s="1" t="str">
         <v>4425|14455|85</v>
       </c>
-      <c r="H52" s="1">
+      <c r="G52" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="53">
+    <row customHeight="true" ht="23" r="53">
       <c r="A53" s="1">
         <v>30009</v>
       </c>
@@ -1786,23 +1618,20 @@
       <c r="C53" s="1" t="str">
         <v>14|3.5|1</v>
       </c>
-      <c r="D53" s="2" t="str">
-        <v>700|175|50</v>
+      <c r="D53" s="1" t="str">
+        <v>4915|15285|85</v>
       </c>
       <c r="E53" s="1" t="str">
-        <v>4915|15285|85</v>
+        <v>3515|15285|85</v>
       </c>
       <c r="F53" s="1" t="str">
-        <v>3515|15285|85</v>
-      </c>
-      <c r="G53" s="1" t="str">
         <v>3515|14935|85</v>
       </c>
-      <c r="H53" s="1">
+      <c r="G53" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="54">
+    <row customHeight="true" ht="23" r="54">
       <c r="A54" s="1">
         <v>30010</v>
       </c>
@@ -1812,23 +1641,20 @@
       <c r="C54" s="1" t="str">
         <v>8.75|3.5|1</v>
       </c>
-      <c r="D54" s="2" t="str">
-        <v>437.5|175|50</v>
+      <c r="D54" s="1" t="str">
+        <v>5627.5|16205|85</v>
       </c>
       <c r="E54" s="1" t="str">
-        <v>5627.5|16205|85</v>
+        <v>4752.5|16205|85</v>
       </c>
       <c r="F54" s="1" t="str">
-        <v>4752.5|16205|85</v>
-      </c>
-      <c r="G54" s="1" t="str">
         <v>4752.5|15855|85</v>
       </c>
-      <c r="H54" s="1">
+      <c r="G54" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="55">
+    <row customHeight="true" ht="23" r="55">
       <c r="A55" s="1">
         <v>30011</v>
       </c>
@@ -1838,23 +1664,20 @@
       <c r="C55" s="1" t="str">
         <v>4.75|4.75|1</v>
       </c>
-      <c r="D55" s="2" t="str">
-        <v>237.5|237.5|50</v>
+      <c r="D55" s="1" t="str">
+        <v>2237.5|11962.5|85</v>
       </c>
       <c r="E55" s="1" t="str">
-        <v>2237.5|11962.5|85</v>
+        <v>1762.5|11962.5|85</v>
       </c>
       <c r="F55" s="1" t="str">
-        <v>1762.5|11962.5|85</v>
-      </c>
-      <c r="G55" s="1" t="str">
         <v>1762.5|11487.5|85</v>
       </c>
-      <c r="H55" s="1">
+      <c r="G55" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="56">
+    <row customHeight="true" ht="23" r="56">
       <c r="A56" s="1">
         <v>30012</v>
       </c>
@@ -1864,23 +1687,20 @@
       <c r="C56" s="1" t="str">
         <v>2.5|3|1</v>
       </c>
-      <c r="D56" s="2" t="str">
-        <v>125|150|50</v>
+      <c r="D56" s="1" t="str">
+        <v>975|12155|85</v>
       </c>
       <c r="E56" s="1" t="str">
-        <v>975|12155|85</v>
+        <v>725|12155|85</v>
       </c>
       <c r="F56" s="1" t="str">
-        <v>725|12155|85</v>
-      </c>
-      <c r="G56" s="1" t="str">
         <v>725|11855|85</v>
       </c>
-      <c r="H56" s="1">
+      <c r="G56" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="57">
+    <row customHeight="true" ht="23" r="57">
       <c r="A57" s="1">
         <v>30013</v>
       </c>
@@ -1890,23 +1710,20 @@
       <c r="C57" s="1" t="str">
         <v>9.75|6.25|1</v>
       </c>
-      <c r="D57" s="2" t="str">
-        <v>487.5|312.5|50</v>
-      </c>
-      <c r="E57" s="1" t="str">
+      <c r="D57" s="1" t="str">
         <v>2837.5|13687.5|85</v>
       </c>
-      <c r="F57" s="4" t="str">
+      <c r="E57" s="2" t="str">
         <v>1862.5|13687.5|85</v>
       </c>
-      <c r="G57" s="1" t="str">
+      <c r="F57" s="1" t="str">
         <v>1862.5|13062.5|85</v>
       </c>
-      <c r="H57" s="1">
+      <c r="G57" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="58">
+    <row customHeight="true" ht="23" r="58">
       <c r="A58" s="1">
         <v>30014</v>
       </c>
@@ -1916,23 +1733,20 @@
       <c r="C58" s="1" t="str">
         <v>8|6.25|1</v>
       </c>
-      <c r="D58" s="2" t="str">
-        <v>400|312.5|50</v>
+      <c r="D58" s="1" t="str">
+        <v>2855|14697.5|85</v>
       </c>
       <c r="E58" s="1" t="str">
-        <v>2855|14697.5|85</v>
+        <v>2055|14697.5|85</v>
       </c>
       <c r="F58" s="1" t="str">
-        <v>2055|14697.5|85</v>
-      </c>
-      <c r="G58" s="1" t="str">
         <v>2055|14072.5|85</v>
       </c>
-      <c r="H58" s="1">
+      <c r="G58" s="1">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="59">
+    <row customHeight="true" ht="23" r="59">
       <c r="A59" s="1">
         <v>30015</v>
       </c>
@@ -1942,23 +1756,20 @@
       <c r="C59" s="1" t="str">
         <v>14|2.25|1</v>
       </c>
-      <c r="D59" s="2" t="str">
-        <v>700|112.5|50</v>
+      <c r="D59" s="1" t="str">
+        <v>6590|12842.5|85</v>
       </c>
       <c r="E59" s="1" t="str">
-        <v>6590|12842.5|85</v>
+        <v>5190|12842.5|85</v>
       </c>
       <c r="F59" s="1" t="str">
-        <v>5190|12842.5|85</v>
-      </c>
-      <c r="G59" s="1" t="str">
         <v>5190|12617.5|85</v>
       </c>
-      <c r="H59" s="1">
+      <c r="G59" s="1">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="60">
+    <row customHeight="true" ht="23" r="60">
       <c r="A60" s="1">
         <v>30016</v>
       </c>
@@ -1968,23 +1779,20 @@
       <c r="C60" s="1" t="str">
         <v>3.25|11.5|1</v>
       </c>
-      <c r="D60" s="2" t="str">
-        <v>162.5|575|50</v>
+      <c r="D60" s="1" t="str">
+        <v>7882.5|14185|85</v>
       </c>
       <c r="E60" s="1" t="str">
-        <v>7882.5|14185|85</v>
+        <v>7557.5|14185|85</v>
       </c>
       <c r="F60" s="1" t="str">
-        <v>7557.5|14185|85</v>
-      </c>
-      <c r="G60" s="1" t="str">
         <v>7557.5|13035|85</v>
       </c>
-      <c r="H60" s="1">
+      <c r="G60" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="61">
+    <row customHeight="true" ht="23" r="61">
       <c r="A61" s="1">
         <v>30017</v>
       </c>
@@ -1994,23 +1802,20 @@
       <c r="C61" s="1" t="str">
         <v>2.25|6.75|1</v>
       </c>
-      <c r="D61" s="2" t="str">
-        <v>112.5|337.5|50</v>
+      <c r="D61" s="1" t="str">
+        <v>8567.5|16012.5|85</v>
       </c>
       <c r="E61" s="1" t="str">
-        <v>8567.5|16012.5|85</v>
+        <v>8342.5|16012.5|85</v>
       </c>
       <c r="F61" s="1" t="str">
-        <v>8342.5|16012.5|85</v>
-      </c>
-      <c r="G61" s="1" t="str">
         <v>8342.5|15337.5|85</v>
       </c>
-      <c r="H61" s="1">
+      <c r="G61" s="1">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="62">
+    <row customHeight="true" ht="23" r="62">
       <c r="A62" s="1">
         <v>30018</v>
       </c>
@@ -2020,1391 +1825,1251 @@
       <c r="C62" s="1" t="str">
         <v>13.5|2.25|1</v>
       </c>
-      <c r="D62" s="2" t="str">
-        <v>675|112.5|50</v>
+      <c r="D62" s="1" t="str">
+        <v>7565|16837.5|85</v>
       </c>
       <c r="E62" s="1" t="str">
-        <v>7565|16837.5|85</v>
+        <v>6215|16837.5|85</v>
       </c>
       <c r="F62" s="1" t="str">
-        <v>6215|16837.5|85</v>
-      </c>
-      <c r="G62" s="1" t="str">
         <v>6215|16612.5|85</v>
       </c>
-      <c r="H62" s="1">
+      <c r="G62" s="1">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="63">
+    <row customHeight="true" ht="23" r="63">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="str"/>
       <c r="C63" s="1" t="str"/>
-      <c r="D63" s="2" t="str"/>
+      <c r="D63" s="1" t="str"/>
       <c r="E63" s="1" t="str"/>
       <c r="F63" s="1" t="str"/>
       <c r="G63" s="1" t="str"/>
-      <c r="H63" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="64">
+    </row>
+    <row customHeight="true" ht="23" r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="str"/>
       <c r="C64" s="1" t="str"/>
-      <c r="D64" s="2" t="str"/>
+      <c r="D64" s="1" t="str"/>
       <c r="E64" s="1" t="str"/>
       <c r="F64" s="1" t="str"/>
       <c r="G64" s="1" t="str"/>
-      <c r="H64" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="65">
+    </row>
+    <row customHeight="true" ht="23" r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="str"/>
       <c r="C65" s="1" t="str"/>
-      <c r="D65" s="2" t="str"/>
+      <c r="D65" s="1" t="str"/>
       <c r="E65" s="1" t="str"/>
       <c r="F65" s="1" t="str"/>
       <c r="G65" s="1" t="str"/>
-      <c r="H65" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="66">
+    </row>
+    <row customHeight="true" ht="23" r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="str"/>
       <c r="C66" s="1" t="str"/>
-      <c r="D66" s="2" t="str"/>
+      <c r="D66" s="1" t="str"/>
       <c r="E66" s="1" t="str"/>
       <c r="F66" s="1" t="str"/>
       <c r="G66" s="1" t="str"/>
-      <c r="H66" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="67">
+    </row>
+    <row customHeight="true" ht="23" r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="str"/>
       <c r="C67" s="1" t="str"/>
-      <c r="D67" s="2" t="str"/>
+      <c r="D67" s="1" t="str"/>
       <c r="E67" s="1" t="str"/>
       <c r="F67" s="1" t="str"/>
       <c r="G67" s="1" t="str"/>
-      <c r="H67" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="68">
+    </row>
+    <row customHeight="true" ht="23" r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="str"/>
       <c r="C68" s="1" t="str"/>
-      <c r="D68" s="2" t="str"/>
+      <c r="D68" s="1" t="str"/>
       <c r="E68" s="1" t="str"/>
       <c r="F68" s="1" t="str"/>
       <c r="G68" s="1" t="str"/>
-      <c r="H68" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="69">
+    </row>
+    <row customHeight="true" ht="23" r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="str"/>
       <c r="C69" s="1" t="str"/>
-      <c r="D69" s="2" t="str"/>
+      <c r="D69" s="1" t="str"/>
       <c r="E69" s="1" t="str"/>
       <c r="F69" s="1" t="str"/>
       <c r="G69" s="1" t="str"/>
-      <c r="H69" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="70">
+    </row>
+    <row customHeight="true" ht="23" r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="str"/>
       <c r="C70" s="1" t="str"/>
-      <c r="D70" s="2" t="str"/>
+      <c r="D70" s="1" t="str"/>
       <c r="E70" s="1" t="str"/>
       <c r="F70" s="1" t="str"/>
       <c r="G70" s="1" t="str"/>
-      <c r="H70" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="71">
+    </row>
+    <row customHeight="true" ht="23" r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="str"/>
       <c r="C71" s="1" t="str"/>
-      <c r="D71" s="2" t="str"/>
+      <c r="D71" s="1" t="str"/>
       <c r="E71" s="1" t="str"/>
       <c r="F71" s="1" t="str"/>
       <c r="G71" s="1" t="str"/>
-      <c r="H71" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="72">
+    </row>
+    <row customHeight="true" ht="23" r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="str"/>
       <c r="C72" s="1" t="str"/>
-      <c r="D72" s="2" t="str"/>
+      <c r="D72" s="1" t="str"/>
       <c r="E72" s="1" t="str"/>
       <c r="F72" s="1" t="str"/>
       <c r="G72" s="1" t="str"/>
-      <c r="H72" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="73">
+    </row>
+    <row customHeight="true" ht="23" r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="str"/>
       <c r="C73" s="1" t="str"/>
-      <c r="D73" s="2" t="str"/>
+      <c r="D73" s="1" t="str"/>
       <c r="E73" s="1" t="str"/>
       <c r="F73" s="1" t="str"/>
       <c r="G73" s="1" t="str"/>
-      <c r="H73" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="74">
+    </row>
+    <row customHeight="true" ht="23" r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="str"/>
       <c r="C74" s="1" t="str"/>
-      <c r="D74" s="2" t="str"/>
+      <c r="D74" s="1" t="str"/>
       <c r="E74" s="1" t="str"/>
       <c r="F74" s="1" t="str"/>
       <c r="G74" s="1" t="str"/>
-      <c r="H74" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="75">
+    </row>
+    <row customHeight="true" ht="23" r="75">
       <c r="A75" s="1" t="str"/>
       <c r="B75" s="1" t="str"/>
       <c r="C75" s="1" t="str"/>
-      <c r="D75" s="2" t="str"/>
+      <c r="D75" s="1" t="str"/>
       <c r="E75" s="1" t="str"/>
       <c r="F75" s="1" t="str"/>
       <c r="G75" s="1" t="str"/>
-      <c r="H75" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="76">
+    </row>
+    <row customHeight="true" ht="23" r="76">
       <c r="A76" s="1" t="str"/>
       <c r="B76" s="1" t="str"/>
       <c r="C76" s="1" t="str"/>
-      <c r="D76" s="2" t="str"/>
+      <c r="D76" s="1" t="str"/>
       <c r="E76" s="1" t="str"/>
       <c r="F76" s="1" t="str"/>
       <c r="G76" s="1" t="str"/>
-      <c r="H76" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="77">
+    </row>
+    <row customHeight="true" ht="23" r="77">
       <c r="A77" s="1" t="str"/>
       <c r="B77" s="1" t="str"/>
       <c r="C77" s="1" t="str"/>
-      <c r="D77" s="2" t="str"/>
+      <c r="D77" s="1" t="str"/>
       <c r="E77" s="1" t="str"/>
       <c r="F77" s="1" t="str"/>
       <c r="G77" s="1" t="str"/>
-      <c r="H77" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="78">
+    </row>
+    <row customHeight="true" ht="23" r="78">
       <c r="A78" s="1" t="str"/>
       <c r="B78" s="1" t="str"/>
       <c r="C78" s="1" t="str"/>
-      <c r="D78" s="2" t="str"/>
+      <c r="D78" s="1" t="str"/>
       <c r="E78" s="1" t="str"/>
       <c r="F78" s="1" t="str"/>
       <c r="G78" s="1" t="str"/>
-      <c r="H78" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="79">
+    </row>
+    <row customHeight="true" ht="23" r="79">
       <c r="A79" s="1" t="str"/>
       <c r="B79" s="1" t="str"/>
       <c r="C79" s="1" t="str"/>
-      <c r="D79" s="2" t="str"/>
+      <c r="D79" s="1" t="str"/>
       <c r="E79" s="1" t="str"/>
       <c r="F79" s="1" t="str"/>
       <c r="G79" s="1" t="str"/>
-      <c r="H79" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="80">
+    </row>
+    <row customHeight="true" ht="23" r="80">
       <c r="A80" s="1" t="str"/>
       <c r="B80" s="1" t="str"/>
       <c r="C80" s="1" t="str"/>
-      <c r="D80" s="2" t="str"/>
+      <c r="D80" s="1" t="str"/>
       <c r="E80" s="1" t="str"/>
       <c r="F80" s="1" t="str"/>
       <c r="G80" s="1" t="str"/>
-      <c r="H80" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="81">
+    </row>
+    <row customHeight="true" ht="23" r="81">
       <c r="A81" s="1" t="str"/>
       <c r="B81" s="1" t="str"/>
       <c r="C81" s="1" t="str"/>
-      <c r="D81" s="2" t="str"/>
+      <c r="D81" s="1" t="str"/>
       <c r="E81" s="1" t="str"/>
       <c r="F81" s="1" t="str"/>
       <c r="G81" s="1" t="str"/>
-      <c r="H81" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="82">
+    </row>
+    <row customHeight="true" ht="23" r="82">
       <c r="A82" s="1" t="str"/>
       <c r="B82" s="1" t="str"/>
       <c r="C82" s="1" t="str"/>
-      <c r="D82" s="2" t="str"/>
+      <c r="D82" s="1" t="str"/>
       <c r="E82" s="1" t="str"/>
       <c r="F82" s="1" t="str"/>
       <c r="G82" s="1" t="str"/>
-      <c r="H82" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="83">
+    </row>
+    <row customHeight="true" ht="23" r="83">
       <c r="A83" s="1" t="str"/>
       <c r="B83" s="1" t="str"/>
       <c r="C83" s="1" t="str"/>
-      <c r="D83" s="2" t="str"/>
+      <c r="D83" s="1" t="str"/>
       <c r="E83" s="1" t="str"/>
       <c r="F83" s="1" t="str"/>
       <c r="G83" s="1" t="str"/>
-      <c r="H83" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="84">
+    </row>
+    <row customHeight="true" ht="23" r="84">
       <c r="A84" s="1" t="str"/>
       <c r="B84" s="1" t="str"/>
       <c r="C84" s="1" t="str"/>
-      <c r="D84" s="2" t="str"/>
+      <c r="D84" s="1" t="str"/>
       <c r="E84" s="1" t="str"/>
       <c r="F84" s="1" t="str"/>
       <c r="G84" s="1" t="str"/>
-      <c r="H84" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="85">
+    </row>
+    <row customHeight="true" ht="23" r="85">
       <c r="A85" s="1" t="str"/>
       <c r="B85" s="1" t="str"/>
       <c r="C85" s="1" t="str"/>
-      <c r="D85" s="2" t="str"/>
+      <c r="D85" s="1" t="str"/>
       <c r="E85" s="1" t="str"/>
       <c r="F85" s="1" t="str"/>
       <c r="G85" s="1" t="str"/>
-      <c r="H85" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="86">
+    </row>
+    <row customHeight="true" ht="23" r="86">
       <c r="A86" s="1" t="str"/>
       <c r="B86" s="1" t="str"/>
       <c r="C86" s="1" t="str"/>
-      <c r="D86" s="2" t="str"/>
+      <c r="D86" s="1" t="str"/>
       <c r="E86" s="1" t="str"/>
       <c r="F86" s="1" t="str"/>
       <c r="G86" s="1" t="str"/>
-      <c r="H86" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="87">
+    </row>
+    <row customHeight="true" ht="23" r="87">
       <c r="A87" s="1" t="str"/>
       <c r="B87" s="1" t="str"/>
       <c r="C87" s="1" t="str"/>
-      <c r="D87" s="2" t="str"/>
+      <c r="D87" s="1" t="str"/>
       <c r="E87" s="1" t="str"/>
       <c r="F87" s="1" t="str"/>
       <c r="G87" s="1" t="str"/>
-      <c r="H87" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="88">
+    </row>
+    <row customHeight="true" ht="23" r="88">
       <c r="A88" s="1" t="str"/>
       <c r="B88" s="1" t="str"/>
       <c r="C88" s="1" t="str"/>
-      <c r="D88" s="2" t="str"/>
+      <c r="D88" s="1" t="str"/>
       <c r="E88" s="1" t="str"/>
       <c r="F88" s="1" t="str"/>
       <c r="G88" s="1" t="str"/>
-      <c r="H88" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="89">
+    </row>
+    <row customHeight="true" ht="23" r="89">
       <c r="A89" s="1" t="str"/>
       <c r="B89" s="1" t="str"/>
       <c r="C89" s="1" t="str"/>
-      <c r="D89" s="2" t="str"/>
+      <c r="D89" s="1" t="str"/>
       <c r="E89" s="1" t="str"/>
       <c r="F89" s="1" t="str"/>
       <c r="G89" s="1" t="str"/>
-      <c r="H89" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="90">
+    </row>
+    <row customHeight="true" ht="23" r="90">
       <c r="A90" s="1" t="str"/>
       <c r="B90" s="1" t="str"/>
       <c r="C90" s="1" t="str"/>
-      <c r="D90" s="2" t="str"/>
+      <c r="D90" s="1" t="str"/>
       <c r="E90" s="1" t="str"/>
       <c r="F90" s="1" t="str"/>
       <c r="G90" s="1" t="str"/>
-      <c r="H90" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="91">
+    </row>
+    <row customHeight="true" ht="23" r="91">
       <c r="A91" s="1" t="str"/>
       <c r="B91" s="1" t="str"/>
       <c r="C91" s="1" t="str"/>
-      <c r="D91" s="2" t="str"/>
+      <c r="D91" s="1" t="str"/>
       <c r="E91" s="1" t="str"/>
       <c r="F91" s="1" t="str"/>
       <c r="G91" s="1" t="str"/>
-      <c r="H91" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="92">
+    </row>
+    <row customHeight="true" ht="23" r="92">
       <c r="A92" s="1" t="str"/>
       <c r="B92" s="1" t="str"/>
       <c r="C92" s="1" t="str"/>
-      <c r="D92" s="2" t="str"/>
+      <c r="D92" s="1" t="str"/>
       <c r="E92" s="1" t="str"/>
       <c r="F92" s="1" t="str"/>
       <c r="G92" s="1" t="str"/>
-      <c r="H92" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="93">
+    </row>
+    <row customHeight="true" ht="23" r="93">
       <c r="A93" s="1" t="str"/>
       <c r="B93" s="1" t="str"/>
       <c r="C93" s="1" t="str"/>
-      <c r="D93" s="2" t="str"/>
+      <c r="D93" s="1" t="str"/>
       <c r="E93" s="1" t="str"/>
       <c r="F93" s="1" t="str"/>
       <c r="G93" s="1" t="str"/>
-      <c r="H93" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="94">
+    </row>
+    <row customHeight="true" ht="23" r="94">
       <c r="A94" s="1" t="str"/>
       <c r="B94" s="1" t="str"/>
       <c r="C94" s="1" t="str"/>
-      <c r="D94" s="2" t="str"/>
+      <c r="D94" s="1" t="str"/>
       <c r="E94" s="1" t="str"/>
       <c r="F94" s="1" t="str"/>
       <c r="G94" s="1" t="str"/>
-      <c r="H94" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="95">
+    </row>
+    <row customHeight="true" ht="23" r="95">
       <c r="A95" s="1" t="str"/>
       <c r="B95" s="1" t="str"/>
       <c r="C95" s="1" t="str"/>
-      <c r="D95" s="2" t="str"/>
+      <c r="D95" s="1" t="str"/>
       <c r="E95" s="1" t="str"/>
       <c r="F95" s="1" t="str"/>
       <c r="G95" s="1" t="str"/>
-      <c r="H95" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="96">
+    </row>
+    <row customHeight="true" ht="23" r="96">
       <c r="A96" s="1" t="str"/>
       <c r="B96" s="1" t="str"/>
       <c r="C96" s="1" t="str"/>
-      <c r="D96" s="2" t="str"/>
+      <c r="D96" s="1" t="str"/>
       <c r="E96" s="1" t="str"/>
       <c r="F96" s="1" t="str"/>
       <c r="G96" s="1" t="str"/>
-      <c r="H96" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="97">
+    </row>
+    <row customHeight="true" ht="23" r="97">
       <c r="A97" s="1" t="str"/>
       <c r="B97" s="1" t="str"/>
       <c r="C97" s="1" t="str"/>
-      <c r="D97" s="2" t="str"/>
+      <c r="D97" s="1" t="str"/>
       <c r="E97" s="1" t="str"/>
       <c r="F97" s="1" t="str"/>
       <c r="G97" s="1" t="str"/>
-      <c r="H97" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="98">
+    </row>
+    <row customHeight="true" ht="23" r="98">
       <c r="A98" s="1" t="str"/>
       <c r="B98" s="1" t="str"/>
       <c r="C98" s="1" t="str"/>
-      <c r="D98" s="2" t="str"/>
+      <c r="D98" s="1" t="str"/>
       <c r="E98" s="1" t="str"/>
       <c r="F98" s="1" t="str"/>
       <c r="G98" s="1" t="str"/>
-      <c r="H98" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="99">
+    </row>
+    <row customHeight="true" ht="23" r="99">
       <c r="A99" s="1" t="str"/>
       <c r="B99" s="1" t="str"/>
       <c r="C99" s="1" t="str"/>
-      <c r="D99" s="2" t="str"/>
+      <c r="D99" s="1" t="str"/>
       <c r="E99" s="1" t="str"/>
       <c r="F99" s="1" t="str"/>
       <c r="G99" s="1" t="str"/>
-      <c r="H99" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="100">
+    </row>
+    <row customHeight="true" ht="23" r="100">
       <c r="A100" s="1" t="str"/>
       <c r="B100" s="1" t="str"/>
       <c r="C100" s="1" t="str"/>
-      <c r="D100" s="2" t="str"/>
+      <c r="D100" s="1" t="str"/>
       <c r="E100" s="1" t="str"/>
       <c r="F100" s="1" t="str"/>
       <c r="G100" s="1" t="str"/>
-      <c r="H100" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="101">
+    </row>
+    <row customHeight="true" ht="23" r="101">
       <c r="A101" s="1" t="str"/>
       <c r="B101" s="1" t="str"/>
       <c r="C101" s="1" t="str"/>
-      <c r="D101" s="2" t="str"/>
+      <c r="D101" s="1" t="str"/>
       <c r="E101" s="1" t="str"/>
       <c r="F101" s="1" t="str"/>
       <c r="G101" s="1" t="str"/>
-      <c r="H101" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="102">
+    </row>
+    <row customHeight="true" ht="23" r="102">
       <c r="A102" s="1" t="str"/>
       <c r="B102" s="1" t="str"/>
       <c r="C102" s="1" t="str"/>
-      <c r="D102" s="2" t="str"/>
+      <c r="D102" s="1" t="str"/>
       <c r="E102" s="1" t="str"/>
       <c r="F102" s="1" t="str"/>
       <c r="G102" s="1" t="str"/>
-      <c r="H102" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="103">
+    </row>
+    <row customHeight="true" ht="23" r="103">
       <c r="A103" s="1" t="str"/>
       <c r="B103" s="1" t="str"/>
       <c r="C103" s="1" t="str"/>
-      <c r="D103" s="2" t="str"/>
+      <c r="D103" s="1" t="str"/>
       <c r="E103" s="1" t="str"/>
       <c r="F103" s="1" t="str"/>
       <c r="G103" s="1" t="str"/>
-      <c r="H103" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="104">
+    </row>
+    <row customHeight="true" ht="23" r="104">
       <c r="A104" s="1" t="str"/>
       <c r="B104" s="1" t="str"/>
       <c r="C104" s="1" t="str"/>
-      <c r="D104" s="2" t="str"/>
+      <c r="D104" s="1" t="str"/>
       <c r="E104" s="1" t="str"/>
       <c r="F104" s="1" t="str"/>
       <c r="G104" s="1" t="str"/>
-      <c r="H104" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="105">
+    </row>
+    <row customHeight="true" ht="23" r="105">
       <c r="A105" s="1" t="str"/>
       <c r="B105" s="1" t="str"/>
       <c r="C105" s="1" t="str"/>
-      <c r="D105" s="2" t="str"/>
+      <c r="D105" s="1" t="str"/>
       <c r="E105" s="1" t="str"/>
       <c r="F105" s="1" t="str"/>
       <c r="G105" s="1" t="str"/>
-      <c r="H105" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="106">
+    </row>
+    <row customHeight="true" ht="23" r="106">
       <c r="A106" s="1" t="str"/>
       <c r="B106" s="1" t="str"/>
       <c r="C106" s="1" t="str"/>
-      <c r="D106" s="2" t="str"/>
+      <c r="D106" s="1" t="str"/>
       <c r="E106" s="1" t="str"/>
       <c r="F106" s="1" t="str"/>
       <c r="G106" s="1" t="str"/>
-      <c r="H106" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="107">
+    </row>
+    <row customHeight="true" ht="23" r="107">
       <c r="A107" s="1" t="str"/>
       <c r="B107" s="1" t="str"/>
       <c r="C107" s="1" t="str"/>
-      <c r="D107" s="2" t="str"/>
+      <c r="D107" s="1" t="str"/>
       <c r="E107" s="1" t="str"/>
       <c r="F107" s="1" t="str"/>
       <c r="G107" s="1" t="str"/>
-      <c r="H107" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="108">
+    </row>
+    <row customHeight="true" ht="23" r="108">
       <c r="A108" s="1" t="str"/>
       <c r="B108" s="1" t="str"/>
       <c r="C108" s="1" t="str"/>
-      <c r="D108" s="2" t="str"/>
+      <c r="D108" s="1" t="str"/>
       <c r="E108" s="1" t="str"/>
       <c r="F108" s="1" t="str"/>
       <c r="G108" s="1" t="str"/>
-      <c r="H108" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="109">
+    </row>
+    <row customHeight="true" ht="23" r="109">
       <c r="A109" s="1" t="str"/>
       <c r="B109" s="1" t="str"/>
       <c r="C109" s="1" t="str"/>
-      <c r="D109" s="2" t="str"/>
+      <c r="D109" s="1" t="str"/>
       <c r="E109" s="1" t="str"/>
       <c r="F109" s="1" t="str"/>
       <c r="G109" s="1" t="str"/>
-      <c r="H109" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="110">
+    </row>
+    <row customHeight="true" ht="23" r="110">
       <c r="A110" s="1" t="str"/>
       <c r="B110" s="1" t="str"/>
       <c r="C110" s="1" t="str"/>
-      <c r="D110" s="2" t="str"/>
+      <c r="D110" s="1" t="str"/>
       <c r="E110" s="1" t="str"/>
       <c r="F110" s="1" t="str"/>
       <c r="G110" s="1" t="str"/>
-      <c r="H110" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="111">
+    </row>
+    <row customHeight="true" ht="23" r="111">
       <c r="A111" s="1" t="str"/>
       <c r="B111" s="1" t="str"/>
       <c r="C111" s="1" t="str"/>
-      <c r="D111" s="2" t="str"/>
+      <c r="D111" s="1" t="str"/>
       <c r="E111" s="1" t="str"/>
       <c r="F111" s="1" t="str"/>
       <c r="G111" s="1" t="str"/>
-      <c r="H111" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="112">
+    </row>
+    <row customHeight="true" ht="23" r="112">
       <c r="A112" s="1" t="str"/>
       <c r="B112" s="1" t="str"/>
       <c r="C112" s="1" t="str"/>
-      <c r="D112" s="2" t="str"/>
+      <c r="D112" s="1" t="str"/>
       <c r="E112" s="1" t="str"/>
       <c r="F112" s="1" t="str"/>
       <c r="G112" s="1" t="str"/>
-      <c r="H112" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="113">
+    </row>
+    <row customHeight="true" ht="23" r="113">
       <c r="A113" s="1" t="str"/>
       <c r="B113" s="1" t="str"/>
       <c r="C113" s="1" t="str"/>
-      <c r="D113" s="2" t="str"/>
+      <c r="D113" s="1" t="str"/>
       <c r="E113" s="1" t="str"/>
       <c r="F113" s="1" t="str"/>
       <c r="G113" s="1" t="str"/>
-      <c r="H113" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="114">
+    </row>
+    <row customHeight="true" ht="23" r="114">
       <c r="A114" s="1" t="str"/>
       <c r="B114" s="1" t="str"/>
       <c r="C114" s="1" t="str"/>
-      <c r="D114" s="2" t="str"/>
+      <c r="D114" s="1" t="str"/>
       <c r="E114" s="1" t="str"/>
       <c r="F114" s="1" t="str"/>
       <c r="G114" s="1" t="str"/>
-      <c r="H114" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="115">
+    </row>
+    <row customHeight="true" ht="23" r="115">
       <c r="A115" s="1" t="str"/>
       <c r="B115" s="1" t="str"/>
       <c r="C115" s="1" t="str"/>
-      <c r="D115" s="2" t="str"/>
+      <c r="D115" s="1" t="str"/>
       <c r="E115" s="1" t="str"/>
       <c r="F115" s="1" t="str"/>
       <c r="G115" s="1" t="str"/>
-      <c r="H115" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="116">
+    </row>
+    <row customHeight="true" ht="23" r="116">
       <c r="A116" s="1" t="str"/>
       <c r="B116" s="1" t="str"/>
       <c r="C116" s="1" t="str"/>
-      <c r="D116" s="2" t="str"/>
+      <c r="D116" s="1" t="str"/>
       <c r="E116" s="1" t="str"/>
       <c r="F116" s="1" t="str"/>
       <c r="G116" s="1" t="str"/>
-      <c r="H116" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="117">
+    </row>
+    <row customHeight="true" ht="23" r="117">
       <c r="A117" s="1" t="str"/>
       <c r="B117" s="1" t="str"/>
       <c r="C117" s="1" t="str"/>
-      <c r="D117" s="2" t="str"/>
+      <c r="D117" s="1" t="str"/>
       <c r="E117" s="1" t="str"/>
       <c r="F117" s="1" t="str"/>
       <c r="G117" s="1" t="str"/>
-      <c r="H117" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="118">
+    </row>
+    <row customHeight="true" ht="23" r="118">
       <c r="A118" s="1" t="str"/>
       <c r="B118" s="1" t="str"/>
       <c r="C118" s="1" t="str"/>
-      <c r="D118" s="2" t="str"/>
+      <c r="D118" s="1" t="str"/>
       <c r="E118" s="1" t="str"/>
       <c r="F118" s="1" t="str"/>
       <c r="G118" s="1" t="str"/>
-      <c r="H118" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="119">
+    </row>
+    <row customHeight="true" ht="23" r="119">
       <c r="A119" s="1" t="str"/>
       <c r="B119" s="1" t="str"/>
       <c r="C119" s="1" t="str"/>
-      <c r="D119" s="2" t="str"/>
+      <c r="D119" s="1" t="str"/>
       <c r="E119" s="1" t="str"/>
       <c r="F119" s="1" t="str"/>
       <c r="G119" s="1" t="str"/>
-      <c r="H119" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="120">
+    </row>
+    <row customHeight="true" ht="23" r="120">
       <c r="A120" s="1" t="str"/>
       <c r="B120" s="1" t="str"/>
       <c r="C120" s="1" t="str"/>
-      <c r="D120" s="2" t="str"/>
+      <c r="D120" s="1" t="str"/>
       <c r="E120" s="1" t="str"/>
       <c r="F120" s="1" t="str"/>
       <c r="G120" s="1" t="str"/>
-      <c r="H120" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="121">
+    </row>
+    <row customHeight="true" ht="23" r="121">
       <c r="A121" s="1" t="str"/>
       <c r="B121" s="1" t="str"/>
       <c r="C121" s="1" t="str"/>
-      <c r="D121" s="2" t="str"/>
+      <c r="D121" s="1" t="str"/>
       <c r="E121" s="1" t="str"/>
       <c r="F121" s="1" t="str"/>
       <c r="G121" s="1" t="str"/>
-      <c r="H121" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="122">
+    </row>
+    <row customHeight="true" ht="23" r="122">
       <c r="A122" s="1" t="str"/>
       <c r="B122" s="1" t="str"/>
       <c r="C122" s="1" t="str"/>
-      <c r="D122" s="2" t="str"/>
+      <c r="D122" s="1" t="str"/>
       <c r="E122" s="1" t="str"/>
       <c r="F122" s="1" t="str"/>
       <c r="G122" s="1" t="str"/>
-      <c r="H122" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="123">
+    </row>
+    <row customHeight="true" ht="23" r="123">
       <c r="A123" s="1" t="str"/>
       <c r="B123" s="1" t="str"/>
       <c r="C123" s="1" t="str"/>
-      <c r="D123" s="2" t="str"/>
+      <c r="D123" s="1" t="str"/>
       <c r="E123" s="1" t="str"/>
       <c r="F123" s="1" t="str"/>
       <c r="G123" s="1" t="str"/>
-      <c r="H123" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="124">
+    </row>
+    <row customHeight="true" ht="23" r="124">
       <c r="A124" s="1" t="str"/>
       <c r="B124" s="1" t="str"/>
       <c r="C124" s="1" t="str"/>
-      <c r="D124" s="2" t="str"/>
+      <c r="D124" s="1" t="str"/>
       <c r="E124" s="1" t="str"/>
       <c r="F124" s="1" t="str"/>
       <c r="G124" s="1" t="str"/>
-      <c r="H124" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="125">
+    </row>
+    <row customHeight="true" ht="23" r="125">
       <c r="A125" s="1" t="str"/>
       <c r="B125" s="1" t="str"/>
       <c r="C125" s="1" t="str"/>
-      <c r="D125" s="2" t="str"/>
+      <c r="D125" s="1" t="str"/>
       <c r="E125" s="1" t="str"/>
       <c r="F125" s="1" t="str"/>
       <c r="G125" s="1" t="str"/>
-      <c r="H125" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="126">
+    </row>
+    <row customHeight="true" ht="23" r="126">
       <c r="A126" s="1" t="str"/>
       <c r="B126" s="1" t="str"/>
       <c r="C126" s="1" t="str"/>
-      <c r="D126" s="2" t="str"/>
+      <c r="D126" s="1" t="str"/>
       <c r="E126" s="1" t="str"/>
       <c r="F126" s="1" t="str"/>
       <c r="G126" s="1" t="str"/>
-      <c r="H126" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="127">
+    </row>
+    <row customHeight="true" ht="23" r="127">
       <c r="A127" s="1" t="str"/>
       <c r="B127" s="1" t="str"/>
       <c r="C127" s="1" t="str"/>
-      <c r="D127" s="2" t="str"/>
+      <c r="D127" s="1" t="str"/>
       <c r="E127" s="1" t="str"/>
       <c r="F127" s="1" t="str"/>
       <c r="G127" s="1" t="str"/>
-      <c r="H127" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="128">
+    </row>
+    <row customHeight="true" ht="23" r="128">
       <c r="A128" s="1" t="str"/>
       <c r="B128" s="1" t="str"/>
       <c r="C128" s="1" t="str"/>
-      <c r="D128" s="2" t="str"/>
+      <c r="D128" s="1" t="str"/>
       <c r="E128" s="1" t="str"/>
       <c r="F128" s="1" t="str"/>
       <c r="G128" s="1" t="str"/>
-      <c r="H128" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="129">
+    </row>
+    <row customHeight="true" ht="23" r="129">
       <c r="A129" s="1" t="str"/>
       <c r="B129" s="1" t="str"/>
       <c r="C129" s="1" t="str"/>
-      <c r="D129" s="2" t="str"/>
+      <c r="D129" s="1" t="str"/>
       <c r="E129" s="1" t="str"/>
       <c r="F129" s="1" t="str"/>
       <c r="G129" s="1" t="str"/>
-      <c r="H129" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="130">
+    </row>
+    <row customHeight="true" ht="23" r="130">
       <c r="A130" s="1" t="str"/>
       <c r="B130" s="1" t="str"/>
       <c r="C130" s="1" t="str"/>
-      <c r="D130" s="2" t="str"/>
+      <c r="D130" s="1" t="str"/>
       <c r="E130" s="1" t="str"/>
       <c r="F130" s="1" t="str"/>
       <c r="G130" s="1" t="str"/>
-      <c r="H130" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="131">
+    </row>
+    <row customHeight="true" ht="23" r="131">
       <c r="A131" s="1" t="str"/>
       <c r="B131" s="1" t="str"/>
       <c r="C131" s="1" t="str"/>
-      <c r="D131" s="2" t="str"/>
+      <c r="D131" s="1" t="str"/>
       <c r="E131" s="1" t="str"/>
       <c r="F131" s="1" t="str"/>
       <c r="G131" s="1" t="str"/>
-      <c r="H131" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="132">
+    </row>
+    <row customHeight="true" ht="23" r="132">
       <c r="A132" s="1" t="str"/>
       <c r="B132" s="1" t="str"/>
       <c r="C132" s="1" t="str"/>
-      <c r="D132" s="2" t="str"/>
+      <c r="D132" s="1" t="str"/>
       <c r="E132" s="1" t="str"/>
       <c r="F132" s="1" t="str"/>
       <c r="G132" s="1" t="str"/>
-      <c r="H132" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="133">
+    </row>
+    <row customHeight="true" ht="23" r="133">
       <c r="A133" s="1" t="str"/>
       <c r="B133" s="1" t="str"/>
       <c r="C133" s="1" t="str"/>
-      <c r="D133" s="2" t="str"/>
+      <c r="D133" s="1" t="str"/>
       <c r="E133" s="1" t="str"/>
       <c r="F133" s="1" t="str"/>
       <c r="G133" s="1" t="str"/>
-      <c r="H133" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="134">
+    </row>
+    <row customHeight="true" ht="23" r="134">
       <c r="A134" s="1" t="str"/>
       <c r="B134" s="1" t="str"/>
       <c r="C134" s="1" t="str"/>
-      <c r="D134" s="2" t="str"/>
+      <c r="D134" s="1" t="str"/>
       <c r="E134" s="1" t="str"/>
       <c r="F134" s="1" t="str"/>
       <c r="G134" s="1" t="str"/>
-      <c r="H134" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="135">
+    </row>
+    <row customHeight="true" ht="23" r="135">
       <c r="A135" s="1" t="str"/>
       <c r="B135" s="1" t="str"/>
       <c r="C135" s="1" t="str"/>
-      <c r="D135" s="2" t="str"/>
+      <c r="D135" s="1" t="str"/>
       <c r="E135" s="1" t="str"/>
       <c r="F135" s="1" t="str"/>
       <c r="G135" s="1" t="str"/>
-      <c r="H135" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="136">
+    </row>
+    <row customHeight="true" ht="23" r="136">
       <c r="A136" s="1" t="str"/>
       <c r="B136" s="1" t="str"/>
       <c r="C136" s="1" t="str"/>
-      <c r="D136" s="2" t="str"/>
+      <c r="D136" s="1" t="str"/>
       <c r="E136" s="1" t="str"/>
       <c r="F136" s="1" t="str"/>
       <c r="G136" s="1" t="str"/>
-      <c r="H136" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="137">
+    </row>
+    <row customHeight="true" ht="23" r="137">
       <c r="A137" s="1" t="str"/>
       <c r="B137" s="1" t="str"/>
       <c r="C137" s="1" t="str"/>
-      <c r="D137" s="2" t="str"/>
+      <c r="D137" s="1" t="str"/>
       <c r="E137" s="1" t="str"/>
       <c r="F137" s="1" t="str"/>
       <c r="G137" s="1" t="str"/>
-      <c r="H137" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="138">
+    </row>
+    <row customHeight="true" ht="23" r="138">
       <c r="A138" s="1" t="str"/>
       <c r="B138" s="1" t="str"/>
       <c r="C138" s="1" t="str"/>
-      <c r="D138" s="2" t="str"/>
+      <c r="D138" s="1" t="str"/>
       <c r="E138" s="1" t="str"/>
       <c r="F138" s="1" t="str"/>
       <c r="G138" s="1" t="str"/>
-      <c r="H138" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="139">
+    </row>
+    <row customHeight="true" ht="23" r="139">
       <c r="A139" s="1" t="str"/>
       <c r="B139" s="1" t="str"/>
       <c r="C139" s="1" t="str"/>
-      <c r="D139" s="2" t="str"/>
+      <c r="D139" s="1" t="str"/>
       <c r="E139" s="1" t="str"/>
       <c r="F139" s="1" t="str"/>
       <c r="G139" s="1" t="str"/>
-      <c r="H139" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="140">
+    </row>
+    <row customHeight="true" ht="23" r="140">
       <c r="A140" s="1" t="str"/>
       <c r="B140" s="1" t="str"/>
       <c r="C140" s="1" t="str"/>
-      <c r="D140" s="2" t="str"/>
+      <c r="D140" s="1" t="str"/>
       <c r="E140" s="1" t="str"/>
       <c r="F140" s="1" t="str"/>
       <c r="G140" s="1" t="str"/>
-      <c r="H140" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="141">
+    </row>
+    <row customHeight="true" ht="23" r="141">
       <c r="A141" s="1" t="str"/>
       <c r="B141" s="1" t="str"/>
       <c r="C141" s="1" t="str"/>
-      <c r="D141" s="2" t="str"/>
+      <c r="D141" s="1" t="str"/>
       <c r="E141" s="1" t="str"/>
       <c r="F141" s="1" t="str"/>
       <c r="G141" s="1" t="str"/>
-      <c r="H141" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="142">
+    </row>
+    <row customHeight="true" ht="23" r="142">
       <c r="A142" s="1" t="str"/>
       <c r="B142" s="1" t="str"/>
       <c r="C142" s="1" t="str"/>
-      <c r="D142" s="2" t="str"/>
+      <c r="D142" s="1" t="str"/>
       <c r="E142" s="1" t="str"/>
       <c r="F142" s="1" t="str"/>
       <c r="G142" s="1" t="str"/>
-      <c r="H142" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="143">
+    </row>
+    <row customHeight="true" ht="23" r="143">
       <c r="A143" s="1" t="str"/>
       <c r="B143" s="1" t="str"/>
       <c r="C143" s="1" t="str"/>
-      <c r="D143" s="2" t="str"/>
+      <c r="D143" s="1" t="str"/>
       <c r="E143" s="1" t="str"/>
       <c r="F143" s="1" t="str"/>
       <c r="G143" s="1" t="str"/>
-      <c r="H143" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="144">
+    </row>
+    <row customHeight="true" ht="23" r="144">
       <c r="A144" s="1" t="str"/>
       <c r="B144" s="1" t="str"/>
       <c r="C144" s="1" t="str"/>
-      <c r="D144" s="2" t="str"/>
+      <c r="D144" s="1" t="str"/>
       <c r="E144" s="1" t="str"/>
       <c r="F144" s="1" t="str"/>
       <c r="G144" s="1" t="str"/>
-      <c r="H144" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="145">
+    </row>
+    <row customHeight="true" ht="23" r="145">
       <c r="A145" s="1" t="str"/>
       <c r="B145" s="1" t="str"/>
       <c r="C145" s="1" t="str"/>
-      <c r="D145" s="2" t="str"/>
+      <c r="D145" s="1" t="str"/>
       <c r="E145" s="1" t="str"/>
       <c r="F145" s="1" t="str"/>
       <c r="G145" s="1" t="str"/>
-      <c r="H145" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="146">
+    </row>
+    <row customHeight="true" ht="23" r="146">
       <c r="A146" s="1" t="str"/>
       <c r="B146" s="1" t="str"/>
       <c r="C146" s="1" t="str"/>
-      <c r="D146" s="2" t="str"/>
+      <c r="D146" s="1" t="str"/>
       <c r="E146" s="1" t="str"/>
       <c r="F146" s="1" t="str"/>
       <c r="G146" s="1" t="str"/>
-      <c r="H146" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="147">
+    </row>
+    <row customHeight="true" ht="23" r="147">
       <c r="A147" s="1" t="str"/>
       <c r="B147" s="1" t="str"/>
       <c r="C147" s="1" t="str"/>
-      <c r="D147" s="2" t="str"/>
+      <c r="D147" s="1" t="str"/>
       <c r="E147" s="1" t="str"/>
       <c r="F147" s="1" t="str"/>
       <c r="G147" s="1" t="str"/>
-      <c r="H147" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="148">
+    </row>
+    <row customHeight="true" ht="23" r="148">
       <c r="A148" s="1" t="str"/>
       <c r="B148" s="1" t="str"/>
       <c r="C148" s="1" t="str"/>
-      <c r="D148" s="2" t="str"/>
+      <c r="D148" s="1" t="str"/>
       <c r="E148" s="1" t="str"/>
       <c r="F148" s="1" t="str"/>
       <c r="G148" s="1" t="str"/>
-      <c r="H148" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="149">
+    </row>
+    <row customHeight="true" ht="23" r="149">
       <c r="A149" s="1" t="str"/>
       <c r="B149" s="1" t="str"/>
       <c r="C149" s="1" t="str"/>
-      <c r="D149" s="2" t="str"/>
+      <c r="D149" s="1" t="str"/>
       <c r="E149" s="1" t="str"/>
       <c r="F149" s="1" t="str"/>
       <c r="G149" s="1" t="str"/>
-      <c r="H149" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="150">
+    </row>
+    <row customHeight="true" ht="23" r="150">
       <c r="A150" s="1" t="str"/>
       <c r="B150" s="1" t="str"/>
       <c r="C150" s="1" t="str"/>
-      <c r="D150" s="2" t="str"/>
+      <c r="D150" s="1" t="str"/>
       <c r="E150" s="1" t="str"/>
       <c r="F150" s="1" t="str"/>
       <c r="G150" s="1" t="str"/>
-      <c r="H150" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="151">
+    </row>
+    <row customHeight="true" ht="23" r="151">
       <c r="A151" s="1" t="str"/>
       <c r="B151" s="1" t="str"/>
       <c r="C151" s="1" t="str"/>
-      <c r="D151" s="2" t="str"/>
+      <c r="D151" s="1" t="str"/>
       <c r="E151" s="1" t="str"/>
       <c r="F151" s="1" t="str"/>
       <c r="G151" s="1" t="str"/>
-      <c r="H151" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="152">
+    </row>
+    <row customHeight="true" ht="23" r="152">
       <c r="A152" s="1" t="str"/>
       <c r="B152" s="1" t="str"/>
       <c r="C152" s="1" t="str"/>
-      <c r="D152" s="2" t="str"/>
+      <c r="D152" s="1" t="str"/>
       <c r="E152" s="1" t="str"/>
       <c r="F152" s="1" t="str"/>
       <c r="G152" s="1" t="str"/>
-      <c r="H152" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="153">
+    </row>
+    <row customHeight="true" ht="23" r="153">
       <c r="A153" s="1" t="str"/>
       <c r="B153" s="1" t="str"/>
       <c r="C153" s="1" t="str"/>
-      <c r="D153" s="2" t="str"/>
+      <c r="D153" s="1" t="str"/>
       <c r="E153" s="1" t="str"/>
       <c r="F153" s="1" t="str"/>
       <c r="G153" s="1" t="str"/>
-      <c r="H153" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="154">
+    </row>
+    <row customHeight="true" ht="23" r="154">
       <c r="A154" s="1" t="str"/>
       <c r="B154" s="1" t="str"/>
       <c r="C154" s="1" t="str"/>
-      <c r="D154" s="2" t="str"/>
+      <c r="D154" s="1" t="str"/>
       <c r="E154" s="1" t="str"/>
       <c r="F154" s="1" t="str"/>
       <c r="G154" s="1" t="str"/>
-      <c r="H154" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="155">
+    </row>
+    <row customHeight="true" ht="23" r="155">
       <c r="A155" s="1" t="str"/>
       <c r="B155" s="1" t="str"/>
       <c r="C155" s="1" t="str"/>
-      <c r="D155" s="2" t="str"/>
+      <c r="D155" s="1" t="str"/>
       <c r="E155" s="1" t="str"/>
       <c r="F155" s="1" t="str"/>
       <c r="G155" s="1" t="str"/>
-      <c r="H155" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="156">
+    </row>
+    <row customHeight="true" ht="23" r="156">
       <c r="A156" s="1" t="str"/>
       <c r="B156" s="1" t="str"/>
       <c r="C156" s="1" t="str"/>
-      <c r="D156" s="2" t="str"/>
+      <c r="D156" s="1" t="str"/>
       <c r="E156" s="1" t="str"/>
       <c r="F156" s="1" t="str"/>
       <c r="G156" s="1" t="str"/>
-      <c r="H156" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="157">
+    </row>
+    <row customHeight="true" ht="23" r="157">
       <c r="A157" s="1" t="str"/>
       <c r="B157" s="1" t="str"/>
       <c r="C157" s="1" t="str"/>
-      <c r="D157" s="2" t="str"/>
+      <c r="D157" s="1" t="str"/>
       <c r="E157" s="1" t="str"/>
       <c r="F157" s="1" t="str"/>
       <c r="G157" s="1" t="str"/>
-      <c r="H157" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="158">
+    </row>
+    <row customHeight="true" ht="23" r="158">
       <c r="A158" s="1" t="str"/>
       <c r="B158" s="1" t="str"/>
       <c r="C158" s="1" t="str"/>
-      <c r="D158" s="2" t="str"/>
+      <c r="D158" s="1" t="str"/>
       <c r="E158" s="1" t="str"/>
       <c r="F158" s="1" t="str"/>
       <c r="G158" s="1" t="str"/>
-      <c r="H158" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="159">
+    </row>
+    <row customHeight="true" ht="23" r="159">
       <c r="A159" s="1" t="str"/>
       <c r="B159" s="1" t="str"/>
       <c r="C159" s="1" t="str"/>
-      <c r="D159" s="2" t="str"/>
+      <c r="D159" s="1" t="str"/>
       <c r="E159" s="1" t="str"/>
       <c r="F159" s="1" t="str"/>
       <c r="G159" s="1" t="str"/>
-      <c r="H159" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="160">
+    </row>
+    <row customHeight="true" ht="23" r="160">
       <c r="A160" s="1" t="str"/>
       <c r="B160" s="1" t="str"/>
       <c r="C160" s="1" t="str"/>
-      <c r="D160" s="2" t="str"/>
+      <c r="D160" s="1" t="str"/>
       <c r="E160" s="1" t="str"/>
       <c r="F160" s="1" t="str"/>
       <c r="G160" s="1" t="str"/>
-      <c r="H160" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="161">
+    </row>
+    <row customHeight="true" ht="23" r="161">
       <c r="A161" s="1" t="str"/>
       <c r="B161" s="1" t="str"/>
       <c r="C161" s="1" t="str"/>
-      <c r="D161" s="2" t="str"/>
+      <c r="D161" s="1" t="str"/>
       <c r="E161" s="1" t="str"/>
       <c r="F161" s="1" t="str"/>
       <c r="G161" s="1" t="str"/>
-      <c r="H161" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="162">
+    </row>
+    <row customHeight="true" ht="23" r="162">
       <c r="A162" s="1" t="str"/>
       <c r="B162" s="1" t="str"/>
       <c r="C162" s="1" t="str"/>
-      <c r="D162" s="2" t="str"/>
+      <c r="D162" s="1" t="str"/>
       <c r="E162" s="1" t="str"/>
       <c r="F162" s="1" t="str"/>
       <c r="G162" s="1" t="str"/>
-      <c r="H162" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="163">
+    </row>
+    <row customHeight="true" ht="23" r="163">
       <c r="A163" s="1" t="str"/>
       <c r="B163" s="1" t="str"/>
       <c r="C163" s="1" t="str"/>
-      <c r="D163" s="2" t="str"/>
+      <c r="D163" s="1" t="str"/>
       <c r="E163" s="1" t="str"/>
       <c r="F163" s="1" t="str"/>
       <c r="G163" s="1" t="str"/>
-      <c r="H163" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="164">
+    </row>
+    <row customHeight="true" ht="23" r="164">
       <c r="A164" s="1" t="str"/>
       <c r="B164" s="1" t="str"/>
       <c r="C164" s="1" t="str"/>
-      <c r="D164" s="2" t="str"/>
+      <c r="D164" s="1" t="str"/>
       <c r="E164" s="1" t="str"/>
       <c r="F164" s="1" t="str"/>
       <c r="G164" s="1" t="str"/>
-      <c r="H164" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="165">
+    </row>
+    <row customHeight="true" ht="23" r="165">
       <c r="A165" s="1" t="str"/>
       <c r="B165" s="1" t="str"/>
       <c r="C165" s="1" t="str"/>
-      <c r="D165" s="2" t="str"/>
+      <c r="D165" s="1" t="str"/>
       <c r="E165" s="1" t="str"/>
       <c r="F165" s="1" t="str"/>
       <c r="G165" s="1" t="str"/>
-      <c r="H165" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="166">
+    </row>
+    <row customHeight="true" ht="23" r="166">
       <c r="A166" s="1" t="str"/>
       <c r="B166" s="1" t="str"/>
       <c r="C166" s="1" t="str"/>
-      <c r="D166" s="2" t="str"/>
+      <c r="D166" s="1" t="str"/>
       <c r="E166" s="1" t="str"/>
       <c r="F166" s="1" t="str"/>
       <c r="G166" s="1" t="str"/>
-      <c r="H166" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="167">
+    </row>
+    <row customHeight="true" ht="23" r="167">
       <c r="A167" s="1" t="str"/>
       <c r="B167" s="1" t="str"/>
       <c r="C167" s="1" t="str"/>
-      <c r="D167" s="2" t="str"/>
+      <c r="D167" s="1" t="str"/>
       <c r="E167" s="1" t="str"/>
       <c r="F167" s="1" t="str"/>
       <c r="G167" s="1" t="str"/>
-      <c r="H167" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="168">
+    </row>
+    <row customHeight="true" ht="23" r="168">
       <c r="A168" s="1" t="str"/>
       <c r="B168" s="1" t="str"/>
       <c r="C168" s="1" t="str"/>
-      <c r="D168" s="2" t="str"/>
+      <c r="D168" s="1" t="str"/>
       <c r="E168" s="1" t="str"/>
       <c r="F168" s="1" t="str"/>
       <c r="G168" s="1" t="str"/>
-      <c r="H168" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="169">
+    </row>
+    <row customHeight="true" ht="23" r="169">
       <c r="A169" s="1" t="str"/>
       <c r="B169" s="1" t="str"/>
       <c r="C169" s="1" t="str"/>
-      <c r="D169" s="2" t="str"/>
+      <c r="D169" s="1" t="str"/>
       <c r="E169" s="1" t="str"/>
       <c r="F169" s="1" t="str"/>
       <c r="G169" s="1" t="str"/>
-      <c r="H169" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="170">
+    </row>
+    <row customHeight="true" ht="23" r="170">
       <c r="A170" s="1" t="str"/>
       <c r="B170" s="1" t="str"/>
       <c r="C170" s="1" t="str"/>
-      <c r="D170" s="2" t="str"/>
+      <c r="D170" s="1" t="str"/>
       <c r="E170" s="1" t="str"/>
       <c r="F170" s="1" t="str"/>
       <c r="G170" s="1" t="str"/>
-      <c r="H170" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="171">
+    </row>
+    <row customHeight="true" ht="23" r="171">
       <c r="A171" s="1" t="str"/>
       <c r="B171" s="1" t="str"/>
       <c r="C171" s="1" t="str"/>
-      <c r="D171" s="2" t="str"/>
+      <c r="D171" s="1" t="str"/>
       <c r="E171" s="1" t="str"/>
       <c r="F171" s="1" t="str"/>
       <c r="G171" s="1" t="str"/>
-      <c r="H171" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="172">
+    </row>
+    <row customHeight="true" ht="23" r="172">
       <c r="A172" s="1" t="str"/>
       <c r="B172" s="1" t="str"/>
       <c r="C172" s="1" t="str"/>
-      <c r="D172" s="2" t="str"/>
+      <c r="D172" s="1" t="str"/>
       <c r="E172" s="1" t="str"/>
       <c r="F172" s="1" t="str"/>
       <c r="G172" s="1" t="str"/>
-      <c r="H172" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="173">
+    </row>
+    <row customHeight="true" ht="23" r="173">
       <c r="A173" s="1" t="str"/>
       <c r="B173" s="1" t="str"/>
       <c r="C173" s="1" t="str"/>
-      <c r="D173" s="2" t="str"/>
+      <c r="D173" s="1" t="str"/>
       <c r="E173" s="1" t="str"/>
       <c r="F173" s="1" t="str"/>
       <c r="G173" s="1" t="str"/>
-      <c r="H173" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="174">
+    </row>
+    <row customHeight="true" ht="23" r="174">
       <c r="A174" s="1" t="str"/>
       <c r="B174" s="1" t="str"/>
       <c r="C174" s="1" t="str"/>
-      <c r="D174" s="2" t="str"/>
+      <c r="D174" s="1" t="str"/>
       <c r="E174" s="1" t="str"/>
       <c r="F174" s="1" t="str"/>
       <c r="G174" s="1" t="str"/>
-      <c r="H174" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="175">
+    </row>
+    <row customHeight="true" ht="23" r="175">
       <c r="A175" s="1" t="str"/>
       <c r="B175" s="1" t="str"/>
       <c r="C175" s="1" t="str"/>
-      <c r="D175" s="2" t="str"/>
+      <c r="D175" s="1" t="str"/>
       <c r="E175" s="1" t="str"/>
       <c r="F175" s="1" t="str"/>
       <c r="G175" s="1" t="str"/>
-      <c r="H175" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="176">
+    </row>
+    <row customHeight="true" ht="23" r="176">
       <c r="A176" s="1" t="str"/>
       <c r="B176" s="1" t="str"/>
       <c r="C176" s="1" t="str"/>
-      <c r="D176" s="2" t="str"/>
+      <c r="D176" s="1" t="str"/>
       <c r="E176" s="1" t="str"/>
       <c r="F176" s="1" t="str"/>
       <c r="G176" s="1" t="str"/>
-      <c r="H176" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="177">
+    </row>
+    <row customHeight="true" ht="23" r="177">
       <c r="A177" s="1" t="str"/>
       <c r="B177" s="1" t="str"/>
       <c r="C177" s="1" t="str"/>
-      <c r="D177" s="2" t="str"/>
+      <c r="D177" s="1" t="str"/>
       <c r="E177" s="1" t="str"/>
       <c r="F177" s="1" t="str"/>
       <c r="G177" s="1" t="str"/>
-      <c r="H177" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="178">
+    </row>
+    <row customHeight="true" ht="23" r="178">
       <c r="A178" s="1" t="str"/>
       <c r="B178" s="1" t="str"/>
       <c r="C178" s="1" t="str"/>
-      <c r="D178" s="2" t="str"/>
+      <c r="D178" s="1" t="str"/>
       <c r="E178" s="1" t="str"/>
       <c r="F178" s="1" t="str"/>
       <c r="G178" s="1" t="str"/>
-      <c r="H178" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="179">
+    </row>
+    <row customHeight="true" ht="23" r="179">
       <c r="A179" s="1" t="str"/>
       <c r="B179" s="1" t="str"/>
       <c r="C179" s="1" t="str"/>
-      <c r="D179" s="2" t="str"/>
+      <c r="D179" s="1" t="str"/>
       <c r="E179" s="1" t="str"/>
       <c r="F179" s="1" t="str"/>
       <c r="G179" s="1" t="str"/>
-      <c r="H179" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="180">
+    </row>
+    <row customHeight="true" ht="23" r="180">
       <c r="A180" s="1" t="str"/>
       <c r="B180" s="1" t="str"/>
       <c r="C180" s="1" t="str"/>
-      <c r="D180" s="2" t="str"/>
+      <c r="D180" s="1" t="str"/>
       <c r="E180" s="1" t="str"/>
       <c r="F180" s="1" t="str"/>
       <c r="G180" s="1" t="str"/>
-      <c r="H180" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="181">
+    </row>
+    <row customHeight="true" ht="23" r="181">
       <c r="A181" s="1" t="str"/>
       <c r="B181" s="1" t="str"/>
       <c r="C181" s="1" t="str"/>
-      <c r="D181" s="2" t="str"/>
+      <c r="D181" s="1" t="str"/>
       <c r="E181" s="1" t="str"/>
       <c r="F181" s="1" t="str"/>
       <c r="G181" s="1" t="str"/>
-      <c r="H181" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="182">
+    </row>
+    <row customHeight="true" ht="23" r="182">
       <c r="A182" s="1" t="str"/>
       <c r="B182" s="1" t="str"/>
       <c r="C182" s="1" t="str"/>
-      <c r="D182" s="2" t="str"/>
+      <c r="D182" s="1" t="str"/>
       <c r="E182" s="1" t="str"/>
       <c r="F182" s="1" t="str"/>
       <c r="G182" s="1" t="str"/>
-      <c r="H182" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="183">
+    </row>
+    <row customHeight="true" ht="23" r="183">
       <c r="A183" s="1" t="str"/>
       <c r="B183" s="1" t="str"/>
       <c r="C183" s="1" t="str"/>
-      <c r="D183" s="2" t="str"/>
+      <c r="D183" s="1" t="str"/>
       <c r="E183" s="1" t="str"/>
       <c r="F183" s="1" t="str"/>
       <c r="G183" s="1" t="str"/>
-      <c r="H183" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="184">
+    </row>
+    <row customHeight="true" ht="23" r="184">
       <c r="A184" s="1" t="str"/>
       <c r="B184" s="1" t="str"/>
       <c r="C184" s="1" t="str"/>
-      <c r="D184" s="2" t="str"/>
+      <c r="D184" s="1" t="str"/>
       <c r="E184" s="1" t="str"/>
       <c r="F184" s="1" t="str"/>
       <c r="G184" s="1" t="str"/>
-      <c r="H184" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="185">
+    </row>
+    <row customHeight="true" ht="23" r="185">
       <c r="A185" s="1" t="str"/>
       <c r="B185" s="1" t="str"/>
       <c r="C185" s="1" t="str"/>
-      <c r="D185" s="2" t="str"/>
+      <c r="D185" s="1" t="str"/>
       <c r="E185" s="1" t="str"/>
       <c r="F185" s="1" t="str"/>
       <c r="G185" s="1" t="str"/>
-      <c r="H185" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="186">
+    </row>
+    <row customHeight="true" ht="23" r="186">
       <c r="A186" s="1" t="str"/>
       <c r="B186" s="1" t="str"/>
       <c r="C186" s="1" t="str"/>
-      <c r="D186" s="2" t="str"/>
+      <c r="D186" s="1" t="str"/>
       <c r="E186" s="1" t="str"/>
       <c r="F186" s="1" t="str"/>
       <c r="G186" s="1" t="str"/>
-      <c r="H186" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="187">
+    </row>
+    <row customHeight="true" ht="23" r="187">
       <c r="A187" s="1" t="str"/>
       <c r="B187" s="1" t="str"/>
       <c r="C187" s="1" t="str"/>
-      <c r="D187" s="2" t="str"/>
+      <c r="D187" s="1" t="str"/>
       <c r="E187" s="1" t="str"/>
       <c r="F187" s="1" t="str"/>
       <c r="G187" s="1" t="str"/>
-      <c r="H187" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="188">
+    </row>
+    <row customHeight="true" ht="23" r="188">
       <c r="A188" s="1" t="str"/>
       <c r="B188" s="1" t="str"/>
       <c r="C188" s="1" t="str"/>
-      <c r="D188" s="2" t="str"/>
+      <c r="D188" s="1" t="str"/>
       <c r="E188" s="1" t="str"/>
       <c r="F188" s="1" t="str"/>
       <c r="G188" s="1" t="str"/>
-      <c r="H188" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="189">
+    </row>
+    <row customHeight="true" ht="23" r="189">
       <c r="A189" s="1" t="str"/>
       <c r="B189" s="1" t="str"/>
       <c r="C189" s="1" t="str"/>
-      <c r="D189" s="2" t="str"/>
+      <c r="D189" s="1" t="str"/>
       <c r="E189" s="1" t="str"/>
       <c r="F189" s="1" t="str"/>
       <c r="G189" s="1" t="str"/>
-      <c r="H189" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="190">
+    </row>
+    <row customHeight="true" ht="23" r="190">
       <c r="A190" s="1" t="str"/>
       <c r="B190" s="1" t="str"/>
       <c r="C190" s="1" t="str"/>
-      <c r="D190" s="2" t="str"/>
+      <c r="D190" s="1" t="str"/>
       <c r="E190" s="1" t="str"/>
       <c r="F190" s="1" t="str"/>
       <c r="G190" s="1" t="str"/>
-      <c r="H190" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="191">
+    </row>
+    <row customHeight="true" ht="23" r="191">
       <c r="A191" s="1" t="str"/>
       <c r="B191" s="1" t="str"/>
       <c r="C191" s="1" t="str"/>
-      <c r="D191" s="2" t="str"/>
+      <c r="D191" s="1" t="str"/>
       <c r="E191" s="1" t="str"/>
       <c r="F191" s="1" t="str"/>
       <c r="G191" s="1" t="str"/>
-      <c r="H191" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="192">
+    </row>
+    <row customHeight="true" ht="23" r="192">
       <c r="A192" s="1" t="str"/>
       <c r="B192" s="1" t="str"/>
       <c r="C192" s="1" t="str"/>
-      <c r="D192" s="2" t="str"/>
+      <c r="D192" s="1" t="str"/>
       <c r="E192" s="1" t="str"/>
       <c r="F192" s="1" t="str"/>
       <c r="G192" s="1" t="str"/>
-      <c r="H192" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="193">
+    </row>
+    <row customHeight="true" ht="23" r="193">
       <c r="A193" s="1" t="str"/>
       <c r="B193" s="1" t="str"/>
       <c r="C193" s="1" t="str"/>
-      <c r="D193" s="2" t="str"/>
+      <c r="D193" s="1" t="str"/>
       <c r="E193" s="1" t="str"/>
       <c r="F193" s="1" t="str"/>
       <c r="G193" s="1" t="str"/>
-      <c r="H193" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="194">
+    </row>
+    <row customHeight="true" ht="23" r="194">
       <c r="A194" s="1" t="str"/>
       <c r="B194" s="1" t="str"/>
       <c r="C194" s="1" t="str"/>
-      <c r="D194" s="2" t="str"/>
+      <c r="D194" s="1" t="str"/>
       <c r="E194" s="1" t="str"/>
       <c r="F194" s="1" t="str"/>
       <c r="G194" s="1" t="str"/>
-      <c r="H194" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="195">
+    </row>
+    <row customHeight="true" ht="23" r="195">
       <c r="A195" s="1" t="str"/>
       <c r="B195" s="1" t="str"/>
       <c r="C195" s="1" t="str"/>
-      <c r="D195" s="2" t="str"/>
+      <c r="D195" s="1" t="str"/>
       <c r="E195" s="1" t="str"/>
       <c r="F195" s="1" t="str"/>
       <c r="G195" s="1" t="str"/>
-      <c r="H195" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="196">
+    </row>
+    <row customHeight="true" ht="23" r="196">
       <c r="A196" s="1" t="str"/>
       <c r="B196" s="1" t="str"/>
       <c r="C196" s="1" t="str"/>
-      <c r="D196" s="2" t="str"/>
+      <c r="D196" s="1" t="str"/>
       <c r="E196" s="1" t="str"/>
       <c r="F196" s="1" t="str"/>
       <c r="G196" s="1" t="str"/>
-      <c r="H196" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="197">
+    </row>
+    <row customHeight="true" ht="23" r="197">
       <c r="A197" s="1" t="str"/>
       <c r="B197" s="1" t="str"/>
       <c r="C197" s="1" t="str"/>
-      <c r="D197" s="2" t="str"/>
+      <c r="D197" s="1" t="str"/>
       <c r="E197" s="1" t="str"/>
       <c r="F197" s="1" t="str"/>
       <c r="G197" s="1" t="str"/>
-      <c r="H197" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="198">
+    </row>
+    <row customHeight="true" ht="23" r="198">
       <c r="A198" s="1" t="str"/>
       <c r="B198" s="1" t="str"/>
       <c r="C198" s="1" t="str"/>
-      <c r="D198" s="2" t="str"/>
+      <c r="D198" s="1" t="str"/>
       <c r="E198" s="1" t="str"/>
       <c r="F198" s="1" t="str"/>
       <c r="G198" s="1" t="str"/>
-      <c r="H198" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="199">
+    </row>
+    <row customHeight="true" ht="23" r="199">
       <c r="A199" s="1" t="str"/>
       <c r="B199" s="1" t="str"/>
       <c r="C199" s="1" t="str"/>
-      <c r="D199" s="2" t="str"/>
+      <c r="D199" s="1" t="str"/>
       <c r="E199" s="1" t="str"/>
       <c r="F199" s="1" t="str"/>
       <c r="G199" s="1" t="str"/>
-      <c r="H199" s="1" t="str"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/wolf/Excel/CoinsGenerate_金币生成表.xlsx
+++ b/wolf/Excel/CoinsGenerate_金币生成表.xlsx
@@ -1421,7 +1421,7 @@
       <c r="E44" s="1" t="str"/>
       <c r="F44" s="1" t="str"/>
       <c r="G44" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="45">
@@ -1429,22 +1429,22 @@
         <v>30001</v>
       </c>
       <c r="B45" s="1" t="str">
-        <v>619|14413|85</v>
+        <v>11897|14733|11633</v>
       </c>
       <c r="C45" s="1" t="str">
-        <v>4|9.3|1</v>
+        <v>10|10|1</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>819|14878|85</v>
+        <v>11373|15277|11633</v>
       </c>
       <c r="E45" s="1" t="str">
-        <v>419|14878|85</v>
+        <v>12363|15182|11633</v>
       </c>
       <c r="F45" s="1" t="str">
-        <v>419|13948|85</v>
+        <v>11449|14291|11633</v>
       </c>
       <c r="G45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="46">
@@ -1452,22 +1452,22 @@
         <v>30002</v>
       </c>
       <c r="B46" s="1" t="str">
-        <v>1350|14850|85</v>
+        <v>14091|12160|11633</v>
       </c>
       <c r="C46" s="1" t="str">
-        <v>7|5|1</v>
+        <v>40|16|1</v>
       </c>
       <c r="D46" s="1" t="str">
-        <v>1700|15100|85</v>
+        <v>12146|12810|11633</v>
       </c>
       <c r="E46" s="1" t="str">
-        <v>1000|15100|85</v>
+        <v>12425|11469|11633</v>
       </c>
       <c r="F46" s="1" t="str">
-        <v>1000|14600|85</v>
+        <v>15966|12860|11633</v>
       </c>
       <c r="G46" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="47">
@@ -1475,19 +1475,19 @@
         <v>30003</v>
       </c>
       <c r="B47" s="1" t="str">
-        <v>1200|13595|85</v>
+        <v>12011|13670|11633</v>
       </c>
       <c r="C47" s="1" t="str">
-        <v>4|6|1</v>
+        <v>8|8|1</v>
       </c>
       <c r="D47" s="1" t="str">
-        <v>1400|13895|85</v>
+        <v>11605|14040|11633</v>
       </c>
       <c r="E47" s="1" t="str">
-        <v>1000|13895|85</v>
+        <v>11617|13295|11657</v>
       </c>
       <c r="F47" s="1" t="str">
-        <v>1000|13295|85</v>
+        <v>12352|13276|11633</v>
       </c>
       <c r="G47" s="1">
         <v>3</v>
@@ -1498,22 +1498,22 @@
         <v>30004</v>
       </c>
       <c r="B48" s="1" t="str">
-        <v>1550|12570|85</v>
+        <v>13500|14081|11633</v>
       </c>
       <c r="C48" s="1" t="str">
-        <v>9|2.7|1</v>
+        <v>5.5|20|1</v>
       </c>
       <c r="D48" s="1" t="str">
-        <v>2000|12705|85</v>
+        <v>13263|15107|11633</v>
       </c>
       <c r="E48" s="1" t="str">
-        <v>1100|12705|85</v>
+        <v>13774|13073|11633</v>
       </c>
       <c r="F48" s="1" t="str">
-        <v>1100|12435|85</v>
+        <v>13774|13073|11633</v>
       </c>
       <c r="G48" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="49">
@@ -1521,22 +1521,22 @@
         <v>30005</v>
       </c>
       <c r="B49" s="1" t="str">
-        <v>3715|13555|85</v>
+        <v>12480|10849|9161</v>
       </c>
       <c r="C49" s="1" t="str">
-        <v>9|18.7|1</v>
+        <v>15|22|1</v>
       </c>
       <c r="D49" s="1" t="str">
-        <v>4165|14490|85</v>
+        <v>11750|11967|9156</v>
       </c>
       <c r="E49" s="1" t="str">
-        <v>3265|14490|85</v>
+        <v>13135|9832|9156</v>
       </c>
       <c r="F49" s="1" t="str">
-        <v>3265|12620|85</v>
+        <v>13207|11939|9156</v>
       </c>
       <c r="G49" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="50">
@@ -1544,22 +1544,22 @@
         <v>30006</v>
       </c>
       <c r="B50" s="1" t="str">
-        <v>3960|11825|85</v>
+        <v>10172|14150|9161</v>
       </c>
       <c r="C50" s="1" t="str">
-        <v>1.75|9.25|1</v>
+        <v>6|45|1</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>4047.5|12287.5|85</v>
+        <v>10442|16400|9156</v>
       </c>
       <c r="E50" s="1" t="str">
-        <v>3872.5|12287.5|85</v>
+        <v>10422|11896|9157</v>
       </c>
       <c r="F50" s="1" t="str">
-        <v>3872.5|11362.5|85</v>
+        <v>9907|16353|9156</v>
       </c>
       <c r="G50" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="51">
@@ -1567,22 +1567,22 @@
         <v>30007</v>
       </c>
       <c r="B51" s="1" t="str">
-        <v>4745|11825|85</v>
+        <v>11300|14168|9161</v>
       </c>
       <c r="C51" s="1" t="str">
-        <v>1.75|9.25|1</v>
+        <v>12|12|1</v>
       </c>
       <c r="D51" s="1" t="str">
-        <v>4832.5|12287.5|85</v>
+        <v>11869|13595|9157</v>
       </c>
       <c r="E51" s="1" t="str">
-        <v>4657.5|12287.5|85</v>
+        <v>10735|13575|9156</v>
       </c>
       <c r="F51" s="1" t="str">
-        <v>4657.5|11362.5|85</v>
+        <v>11862|14757|9156</v>
       </c>
       <c r="G51" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="52">
@@ -1590,19 +1590,19 @@
         <v>30008</v>
       </c>
       <c r="B52" s="1" t="str">
-        <v>5125|14630|85</v>
+        <v>11068|11230|9156</v>
       </c>
       <c r="C52" s="1" t="str">
-        <v>14|3.5|1</v>
+        <v>10|9|1</v>
       </c>
       <c r="D52" s="1" t="str">
-        <v>5825|14805|85</v>
+        <v>10581|11656|9157</v>
       </c>
       <c r="E52" s="1" t="str">
-        <v>4425|14805|85</v>
+        <v>11509|11686|9156</v>
       </c>
       <c r="F52" s="1" t="str">
-        <v>4425|14455|85</v>
+        <v>11549|10752|9157</v>
       </c>
       <c r="G52" s="1">
         <v>4</v>
@@ -1613,22 +1613,22 @@
         <v>30009</v>
       </c>
       <c r="B53" s="1" t="str">
-        <v>4215|15110|85</v>
+        <v>13184|12619|9156</v>
       </c>
       <c r="C53" s="1" t="str">
-        <v>14|3.5|1</v>
+        <v>23|5|1</v>
       </c>
       <c r="D53" s="1" t="str">
-        <v>4915|15285|85</v>
+        <v>14343|12838|9157</v>
       </c>
       <c r="E53" s="1" t="str">
-        <v>3515|15285|85</v>
+        <v>14334|12363|9156</v>
       </c>
       <c r="F53" s="1" t="str">
-        <v>3515|14935|85</v>
+        <v>12023|12877|9157</v>
       </c>
       <c r="G53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="54">
@@ -1636,19 +1636,19 @@
         <v>30010</v>
       </c>
       <c r="B54" s="1" t="str">
-        <v>5190|16030|85</v>
+        <v>14277|9454|9161</v>
       </c>
       <c r="C54" s="1" t="str">
-        <v>8.75|3.5|1</v>
+        <v>30|5|1</v>
       </c>
       <c r="D54" s="1" t="str">
-        <v>5627.5|16205|85</v>
+        <v>15762|9220|9156</v>
       </c>
       <c r="E54" s="1" t="str">
-        <v>4752.5|16205|85</v>
+        <v>15792|9691|9156</v>
       </c>
       <c r="F54" s="1" t="str">
-        <v>4752.5|15855|85</v>
+        <v>12792|9240|9156</v>
       </c>
       <c r="G54" s="1">
         <v>4</v>
@@ -1659,19 +1659,19 @@
         <v>30011</v>
       </c>
       <c r="B55" s="1" t="str">
-        <v>2000|11725|85</v>
+        <v>16695|10658|9156</v>
       </c>
       <c r="C55" s="1" t="str">
-        <v>4.75|4.75|1</v>
+        <v>6|22|1</v>
       </c>
       <c r="D55" s="1" t="str">
-        <v>2237.5|11962.5|85</v>
+        <v>16215|9622|9157</v>
       </c>
       <c r="E55" s="1" t="str">
-        <v>1762.5|11962.5|85</v>
+        <v>17608|11336|9157</v>
       </c>
       <c r="F55" s="1" t="str">
-        <v>1762.5|11487.5|85</v>
+        <v>15784|9961|9157</v>
       </c>
       <c r="G55" s="1">
         <v>3</v>
@@ -1682,19 +1682,19 @@
         <v>30012</v>
       </c>
       <c r="B56" s="1" t="str">
-        <v>850|12005|85</v>
+        <v>17654|14637|9156</v>
       </c>
       <c r="C56" s="1" t="str">
-        <v>2.5|3|1</v>
+        <v>20|45|1</v>
       </c>
       <c r="D56" s="1" t="str">
-        <v>975|12155|85</v>
+        <v>16687|16843|9157</v>
       </c>
       <c r="E56" s="1" t="str">
-        <v>725|12155|85</v>
+        <v>18649|12365|9157</v>
       </c>
       <c r="F56" s="1" t="str">
-        <v>725|11855|85</v>
+        <v>18603|16836|9157</v>
       </c>
       <c r="G56" s="1">
         <v>3</v>
@@ -1705,19 +1705,19 @@
         <v>30013</v>
       </c>
       <c r="B57" s="1" t="str">
-        <v>2350|13375|85</v>
+        <v>15566|18328|9157</v>
       </c>
       <c r="C57" s="1" t="str">
-        <v>9.75|6.25|1</v>
+        <v>15|12|1</v>
       </c>
       <c r="D57" s="1" t="str">
-        <v>2837.5|13687.5|85</v>
+        <v>16281|17732|9156</v>
       </c>
       <c r="E57" s="2" t="str">
-        <v>1862.5|13687.5|85</v>
+        <v>16255|18865|9156</v>
       </c>
       <c r="F57" s="1" t="str">
-        <v>1862.5|13062.5|85</v>
+        <v>14857|18885|9156</v>
       </c>
       <c r="G57" s="1">
         <v>4</v>
@@ -1734,13 +1734,13 @@
         <v>8|6.25|1</v>
       </c>
       <c r="D58" s="1" t="str">
-        <v>2855|14697.5|85</v>
+        <v>14548|19191|9156</v>
       </c>
       <c r="E58" s="1" t="str">
-        <v>2055|14697.5|85</v>
+        <v>14549|18243|9175</v>
       </c>
       <c r="F58" s="1" t="str">
-        <v>2055|14072.5|85</v>
+        <v>12376|18219|9175</v>
       </c>
       <c r="G58" s="1">
         <v>4</v>
@@ -1757,13 +1757,13 @@
         <v>14|2.25|1</v>
       </c>
       <c r="D59" s="1" t="str">
-        <v>6590|12842.5|85</v>
+        <v>10607|17270|9161</v>
       </c>
       <c r="E59" s="1" t="str">
-        <v>5190|12842.5|85</v>
+        <v>11806|15836|9157</v>
       </c>
       <c r="F59" s="1" t="str">
-        <v>5190|12617.5|85</v>
+        <v>11729|17251|9156</v>
       </c>
       <c r="G59" s="1">
         <v>6</v>
@@ -1780,13 +1780,13 @@
         <v>3.25|11.5|1</v>
       </c>
       <c r="D60" s="1" t="str">
-        <v>7882.5|14185|85</v>
+        <v>10607|17270|9161</v>
       </c>
       <c r="E60" s="1" t="str">
-        <v>7557.5|14185|85</v>
+        <v>11729|17251|9156</v>
       </c>
       <c r="F60" s="1" t="str">
-        <v>7557.5|13035|85</v>
+        <v>11927|18598|9156</v>
       </c>
       <c r="G60" s="1">
         <v>5</v>
@@ -1803,13 +1803,13 @@
         <v>2.25|6.75|1</v>
       </c>
       <c r="D61" s="1" t="str">
-        <v>8567.5|16012.5|85</v>
+        <v>13083|15382|9050</v>
       </c>
       <c r="E61" s="1" t="str">
-        <v>8342.5|16012.5|85</v>
+        <v>12992|16969|9050</v>
       </c>
       <c r="F61" s="1" t="str">
-        <v>8342.5|15337.5|85</v>
+        <v>12328|16892|9050</v>
       </c>
       <c r="G61" s="1">
         <v>3</v>
@@ -1826,25 +1826,33 @@
         <v>13.5|2.25|1</v>
       </c>
       <c r="D62" s="1" t="str">
-        <v>7565|16837.5|85</v>
+        <v>13117|13766|9164</v>
       </c>
       <c r="E62" s="1" t="str">
-        <v>6215|16837.5|85</v>
+        <v>13125|14508|9164</v>
       </c>
       <c r="F62" s="1" t="str">
-        <v>6215|16612.5|85</v>
+        <v>12652|14469|9164</v>
       </c>
       <c r="G62" s="1">
         <v>5</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="63">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>30019</v>
+      </c>
       <c r="B63" s="1" t="str"/>
       <c r="C63" s="1" t="str"/>
-      <c r="D63" s="1" t="str"/>
-      <c r="E63" s="1" t="str"/>
-      <c r="F63" s="1" t="str"/>
+      <c r="D63" s="1" t="str">
+        <v>15771|17016|9188</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <v>15766|15569|9188</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <v>16258|15553|9188</v>
+      </c>
       <c r="G63" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="64">

--- a/wolf/Excel/CoinsGenerate_金币生成表.xlsx
+++ b/wolf/Excel/CoinsGenerate_金币生成表.xlsx
@@ -50,7 +50,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -558,13 +558,13 @@
         <v>2.5|25|0.5</v>
       </c>
       <c r="D6" t="str">
-        <v>-535|4300|800</v>
+        <v>3271|421|0</v>
       </c>
       <c r="E6" t="str">
-        <v>-885|4300|800</v>
+        <v>3297|-717|0</v>
       </c>
       <c r="F6" t="str">
-        <v>-885|1800|800</v>
+        <v>2933|419|0</v>
       </c>
       <c r="G6" s="1">
         <v>6</v>
@@ -581,13 +581,13 @@
         <v>2|26|0.5</v>
       </c>
       <c r="D7" t="str">
-        <v>-380|4480|735</v>
+        <v>1877|-635|0</v>
       </c>
       <c r="E7" t="str">
-        <v>-580|4480|735</v>
+        <v>2697|-1048|0</v>
       </c>
       <c r="F7" t="str">
-        <v>-580|1880|735</v>
+        <v>1895|-1079|0</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -604,13 +604,13 @@
         <v>16|4|0.5</v>
       </c>
       <c r="D8" t="str">
-        <v>780|4920|735</v>
+        <v>2944|-1910|0</v>
       </c>
       <c r="E8" t="str">
-        <v>-820|4920|735</v>
+        <v>3250|-1028|0</v>
       </c>
       <c r="F8" t="str">
-        <v>-820|4520|735</v>
+        <v>3258|-2183|0</v>
       </c>
       <c r="G8" s="1">
         <v>6</v>
@@ -627,13 +627,13 @@
         <v>3.5|3.5|0.5</v>
       </c>
       <c r="D9" t="str">
-        <v>130|3710|735</v>
+        <v>2468|603|0</v>
       </c>
       <c r="E9" t="str">
-        <v>-220|3710|735</v>
+        <v>1920|142|0</v>
       </c>
       <c r="F9" t="str">
-        <v>-220|3360|735</v>
+        <v>2025|1841|0</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -650,13 +650,13 @@
         <v>8|6|0.5</v>
       </c>
       <c r="D10" t="str">
-        <v>75|1710|735</v>
+        <v>1888|907|0</v>
       </c>
       <c r="E10" t="str">
-        <v>-725|1710|735</v>
+        <v>568|1459|0</v>
       </c>
       <c r="F10" t="str">
-        <v>-725|1110|735</v>
+        <v>1880|1472|0</v>
       </c>
       <c r="G10" s="1">
         <v>6</v>
@@ -673,13 +673,13 @@
         <v>3|10|0.5</v>
       </c>
       <c r="D11" t="str">
-        <v>840|2415|735</v>
+        <v>-620|1635|0</v>
       </c>
       <c r="E11" t="str">
-        <v>540|2415|735</v>
+        <v>-1829|1619|0</v>
       </c>
       <c r="F11" t="str">
-        <v>540|1415|735</v>
+        <v>-1784|933|0</v>
       </c>
       <c r="G11" s="1">
         <v>6</v>
@@ -696,13 +696,13 @@
         <v>6|6|0.5</v>
       </c>
       <c r="D12" t="str">
-        <v>835|3095|735</v>
+        <v>-1639|470|0</v>
       </c>
       <c r="E12" t="str">
-        <v>235|3095|735</v>
+        <v>-1329|1020|0</v>
       </c>
       <c r="F12" t="str">
-        <v>235|2495|735</v>
+        <v>-1349|-849|0</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -719,13 +719,13 @@
         <v>5.5|5|0.5</v>
       </c>
       <c r="D13" t="str">
-        <v>740|600|735</v>
+        <v>-1639|-850|0</v>
       </c>
       <c r="E13" t="str">
-        <v>190|600|735</v>
+        <v>-1158|-1502|0</v>
       </c>
       <c r="F13" t="str">
-        <v>190|100|735</v>
+        <v>-1628|-1738|0</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
@@ -742,13 +742,13 @@
         <v>17.5|2.4|0.5</v>
       </c>
       <c r="D14" t="str">
-        <v>875|1020|735</v>
+        <v>-887|-967|0</v>
       </c>
       <c r="E14" t="str">
-        <v>-875|1020|735</v>
+        <v>1503|-942|0</v>
       </c>
       <c r="F14" t="str">
-        <v>-875|780|735</v>
+        <v>501|-1180|0</v>
       </c>
       <c r="G14" s="1">
         <v>5</v>
@@ -765,13 +765,13 @@
         <v>2.6|1|0.5</v>
       </c>
       <c r="D15" t="str">
-        <v>2080|4565|735</v>
+        <v>1392|14|0</v>
       </c>
       <c r="E15" t="str">
-        <v>1920|4565|735</v>
+        <v>728|-688|0</v>
       </c>
       <c r="F15" t="str">
-        <v>1920|4465|735</v>
+        <v>756|700|0</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -788,13 +788,13 @@
         <v>6|6|0.5</v>
       </c>
       <c r="D16" t="str">
-        <v>20|665|850</v>
+        <v>-853|-100|0</v>
       </c>
       <c r="E16" t="str">
-        <v>-580|665|850</v>
+        <v>-844|-538|0</v>
       </c>
       <c r="F16" t="str">
-        <v>-580|65|850</v>
+        <v>245|-555|0</v>
       </c>
       <c r="G16" s="1">
         <v>4</v>
@@ -811,13 +811,13 @@
         <v>2.5|5|0.5</v>
       </c>
       <c r="D17" t="str">
-        <v>-560|600|735</v>
+        <v>236|103|0</v>
       </c>
       <c r="E17" t="str">
-        <v>-810|600|735</v>
+        <v>222|556|0</v>
       </c>
       <c r="F17" t="str">
-        <v>-810|100|735</v>
+        <v>-772|551|0</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -834,13 +834,13 @@
         <v>5.5|3|0.5</v>
       </c>
       <c r="D18" t="str">
-        <v>1475|2325|735</v>
+        <v>-4802|-1007|0</v>
       </c>
       <c r="E18" t="str">
-        <v>925|2325|735</v>
+        <v>-4790|648|0</v>
       </c>
       <c r="F18" t="str">
-        <v>925|2025|735</v>
+        <v>-4224|-80|0</v>
       </c>
       <c r="G18" s="1">
         <v>4</v>
@@ -856,14 +856,14 @@
       <c r="C19" s="1" t="str">
         <v>3|5|0.5</v>
       </c>
-      <c r="D19" t="str">
-        <v>1445|1650|745</v>
-      </c>
-      <c r="E19" t="str">
-        <v>1145|1650|745</v>
+      <c r="D19" s="2" t="str">
+        <v>-2808|-2015|0</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <v>-3304|-2088|0</v>
       </c>
       <c r="F19" t="str">
-        <v>1145|1150|745</v>
+        <v>-3398|-588|0</v>
       </c>
       <c r="G19" s="1">
         <v>4</v>
@@ -880,13 +880,13 @@
         <v>2|2.5|0.5</v>
       </c>
       <c r="D20" t="str">
-        <v>2030|5035|735</v>
+        <v>-3402|1858|0</v>
       </c>
       <c r="E20" t="str">
-        <v>1830|5035|735</v>
+        <v>-3003|1818|0</v>
       </c>
       <c r="F20" t="str">
-        <v>1830|4785|735</v>
+        <v>-2837|1069|0</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -903,13 +903,13 @@
         <v>2.5|3.5|0.5</v>
       </c>
       <c r="D21" t="str">
-        <v>2075|5435|735</v>
+        <v>-3367|460|0</v>
       </c>
       <c r="E21" t="str">
-        <v>1825|5435|735</v>
+        <v>-2073|963|0</v>
       </c>
       <c r="F21" t="str">
-        <v>1825|5085|735</v>
+        <v>-3440|968|0</v>
       </c>
       <c r="G21" s="1">
         <v>4</v>
@@ -926,13 +926,13 @@
         <v>7|6.5|0.5</v>
       </c>
       <c r="D22" t="str">
-        <v>1730|5315|735</v>
+        <v>-4589|-1402|0</v>
       </c>
       <c r="E22" t="str">
-        <v>1030|5315|735</v>
+        <v>-3638|-2160|0</v>
       </c>
       <c r="F22" t="str">
-        <v>1030|4665|735</v>
+        <v>-3569|-1261|0</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
@@ -948,7 +948,7 @@
       <c r="E23" s="1" t="str"/>
       <c r="F23" s="1" t="str"/>
       <c r="G23" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="24">
@@ -961,14 +961,14 @@
       <c r="C24" s="1" t="str">
         <v>2.5|2|0.5</v>
       </c>
-      <c r="D24" s="1" t="str">
-        <v>-18395|19424|800</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <v>-18387|19635|800</v>
-      </c>
-      <c r="F24" s="1" t="str">
-        <v>-18632|19628|800</v>
+      <c r="D24" t="str">
+        <v>3271|421|0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>3297|-717|0</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2933|419|0</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
@@ -984,14 +984,14 @@
       <c r="C25" s="1" t="str">
         <v>1.5|4|0.5</v>
       </c>
-      <c r="D25" s="1" t="str">
-        <v>-18902|19755|800</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <v>-18766|19754|800</v>
-      </c>
-      <c r="F25" s="1" t="str">
-        <v>-18762|20152|801</v>
+      <c r="D25" t="str">
+        <v>1877|-635|0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>2697|-1048|0</v>
+      </c>
+      <c r="F25" t="str">
+        <v>1895|-1079|0</v>
       </c>
       <c r="G25" s="1">
         <v>4</v>
@@ -1007,14 +1007,14 @@
       <c r="C26" s="1" t="str">
         <v>3.5|4.5|0.5</v>
       </c>
-      <c r="D26" s="1" t="str">
-        <v>-18963|19651|493</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <v>-18957|20094|493</v>
-      </c>
-      <c r="F26" s="1" t="str">
-        <v>-18647|19662|493</v>
+      <c r="D26" t="str">
+        <v>2944|-1910|0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>3250|-1028|0</v>
+      </c>
+      <c r="F26" t="str">
+        <v>3258|-2183|0</v>
       </c>
       <c r="G26" s="1">
         <v>4</v>
@@ -1030,14 +1030,14 @@
       <c r="C27" s="1" t="str">
         <v>2.5|2.5|0.5</v>
       </c>
-      <c r="D27" s="1" t="str">
-        <v>-18427|19356|493</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <v>-18422|19590|493</v>
-      </c>
-      <c r="F27" s="1" t="str">
-        <v>-18670|19363|493</v>
+      <c r="D27" t="str">
+        <v>2468|603|0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>1920|142|0</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2025|1841|0</v>
       </c>
       <c r="G27" s="1">
         <v>4</v>
@@ -1053,14 +1053,14 @@
       <c r="C28" s="1" t="str">
         <v>2|2|0.5</v>
       </c>
-      <c r="D28" s="1" t="str">
-        <v>-18727|20254|153</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <v>-18743|20067|153</v>
-      </c>
-      <c r="F28" s="1" t="str">
-        <v>-18527|20043|153</v>
+      <c r="D28" t="str">
+        <v>1888|907|0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>568|1459|0</v>
+      </c>
+      <c r="F28" t="str">
+        <v>1880|1472|0</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -1076,14 +1076,14 @@
       <c r="C29" s="1" t="str">
         <v>8|2.5|0.5</v>
       </c>
-      <c r="D29" s="1" t="str">
-        <v>-19424|20669|152</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <v>-19421|20926|153</v>
-      </c>
-      <c r="F29" s="1" t="str">
-        <v>-18611|20928|147</v>
+      <c r="D29" t="str">
+        <v>-620|1635|0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>-1829|1619|0</v>
+      </c>
+      <c r="F29" t="str">
+        <v>-1784|933|0</v>
       </c>
       <c r="G29" s="1">
         <v>8</v>
@@ -1099,14 +1099,14 @@
       <c r="C30" s="1" t="str">
         <v>4|5.5|0.5</v>
       </c>
-      <c r="D30" s="1" t="str">
-        <v>-19162|18614|154</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <v>-18766|19152|147</v>
-      </c>
-      <c r="F30" s="1" t="str">
-        <v>-19152|19149|173</v>
+      <c r="D30" t="str">
+        <v>-1639|470|0</v>
+      </c>
+      <c r="E30" t="str">
+        <v>-1329|1020|0</v>
+      </c>
+      <c r="F30" t="str">
+        <v>-1349|-849|0</v>
       </c>
       <c r="G30" s="1">
         <v>5</v>
@@ -1122,14 +1122,14 @@
       <c r="C31" s="1" t="str">
         <v>3.5|5.5|0.5</v>
       </c>
-      <c r="D31" s="1" t="str">
-        <v>-19437|20023|153</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <v>-19093|20004|154</v>
-      </c>
-      <c r="F31" s="1" t="str">
-        <v>-19070|20568|153</v>
+      <c r="D31" t="str">
+        <v>-1639|-850|0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>-1158|-1502|0</v>
+      </c>
+      <c r="F31" t="str">
+        <v>-1628|-1738|0</v>
       </c>
       <c r="G31" s="1">
         <v>5</v>
@@ -1145,14 +1145,14 @@
       <c r="C32" s="1" t="str">
         <v>3|3|0.5</v>
       </c>
-      <c r="D32" s="1" t="str">
-        <v>-19540|19287|152</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <v>-19243|19575|152</v>
-      </c>
-      <c r="F32" s="1" t="str">
-        <v>-19536|19578|152</v>
+      <c r="D32" t="str">
+        <v>-887|-967|0</v>
+      </c>
+      <c r="E32" t="str">
+        <v>1503|-942|0</v>
+      </c>
+      <c r="F32" t="str">
+        <v>501|-1180|0</v>
       </c>
       <c r="G32" s="1">
         <v>4</v>
@@ -1168,14 +1168,14 @@
       <c r="C33" s="1" t="str">
         <v>8|5|0.5</v>
       </c>
-      <c r="D33" s="1" t="str">
-        <v>-20315|18910|805</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <v>-20298|18546|805</v>
-      </c>
-      <c r="F33" s="1" t="str">
-        <v>-19621|18881|805</v>
+      <c r="D33" t="str">
+        <v>1392|14|0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>728|-688|0</v>
+      </c>
+      <c r="F33" t="str">
+        <v>756|700|0</v>
       </c>
       <c r="G33" s="1">
         <v>10</v>
@@ -1191,14 +1191,14 @@
       <c r="C34" s="1" t="str">
         <v>2|2|0.5</v>
       </c>
-      <c r="D34" s="1" t="str">
-        <v>-19776|18730|155</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <v>-19764|18538|155</v>
-      </c>
-      <c r="F34" s="1" t="str">
-        <v>-19959|18539|155</v>
+      <c r="D34" t="str">
+        <v>-853|-100|0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>-844|-538|0</v>
+      </c>
+      <c r="F34" t="str">
+        <v>245|-555|0</v>
       </c>
       <c r="G34" s="1">
         <v>3</v>
@@ -1214,14 +1214,14 @@
       <c r="C35" s="1" t="str">
         <v>9|3|0.5</v>
       </c>
-      <c r="D35" s="1" t="str">
-        <v>-20745|19557|152</v>
+      <c r="D35" t="str">
+        <v>236|103|0</v>
       </c>
       <c r="E35" t="str">
-        <v>-19863|19273|155</v>
-      </c>
-      <c r="F35" s="1" t="str">
-        <v>-19879|19567|155</v>
+        <v>222|556|0</v>
+      </c>
+      <c r="F35" t="str">
+        <v>-772|551|0</v>
       </c>
       <c r="G35" s="1">
         <v>8</v>
@@ -1237,14 +1237,14 @@
       <c r="C36" s="1" t="str">
         <v>2|6.5|0.5</v>
       </c>
-      <c r="D36" s="1" t="str">
-        <v>-20426|19195|159</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <v>-20617|19195|152</v>
-      </c>
-      <c r="F36" s="1" t="str">
-        <v>-20421|18561|155</v>
+      <c r="D36" t="str">
+        <v>-4802|-1007|0</v>
+      </c>
+      <c r="E36" t="str">
+        <v>-4790|648|0</v>
+      </c>
+      <c r="F36" t="str">
+        <v>-4224|-80|0</v>
       </c>
       <c r="G36" s="1">
         <v>5</v>
@@ -1260,14 +1260,14 @@
       <c r="C37" s="1" t="str">
         <v>15|4|0.5</v>
       </c>
-      <c r="D37" s="1" t="str">
-        <v>-20319|19782|167</v>
+      <c r="D37" s="2" t="str">
+        <v>-2808|-2015|0</v>
       </c>
       <c r="E37" s="2" t="str">
-        <v>-20331|20128|155</v>
-      </c>
-      <c r="F37" s="1" t="str">
-        <v>-21775|20051|155</v>
+        <v>-3304|-2088|0</v>
+      </c>
+      <c r="F37" t="str">
+        <v>-3398|-588|0</v>
       </c>
       <c r="G37" s="1">
         <v>10</v>
@@ -1283,14 +1283,14 @@
       <c r="C38" s="1" t="str">
         <v>7|7|0.5</v>
       </c>
-      <c r="D38" s="1" t="str">
-        <v>-20196|20262|155</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <v>-19595|20254|155</v>
-      </c>
-      <c r="F38" s="1" t="str">
-        <v>-20196|19661|166</v>
+      <c r="D38" t="str">
+        <v>-3402|1858|0</v>
+      </c>
+      <c r="E38" t="str">
+        <v>-3003|1818|0</v>
+      </c>
+      <c r="F38" t="str">
+        <v>-2837|1069|0</v>
       </c>
       <c r="G38" s="1">
         <v>5</v>
@@ -1306,14 +1306,14 @@
       <c r="C39" s="1" t="str">
         <v>7|4|0.5</v>
       </c>
-      <c r="D39" s="1" t="str">
-        <v>-20202|21035|801</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <v>-20198|21428|801</v>
-      </c>
-      <c r="F39" s="1" t="str">
-        <v>-19540|21423|801</v>
+      <c r="D39" t="str">
+        <v>-3367|460|0</v>
+      </c>
+      <c r="E39" t="str">
+        <v>-2073|963|0</v>
+      </c>
+      <c r="F39" t="str">
+        <v>-3440|968|0</v>
       </c>
       <c r="G39" s="1">
         <v>8</v>
@@ -1329,14 +1329,14 @@
       <c r="C40" s="1" t="str">
         <v>2.5|3.5|0.5</v>
       </c>
-      <c r="D40" s="1" t="str">
-        <v>-19729|21213|493</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <v>-19723|20983|493</v>
-      </c>
-      <c r="F40" s="1" t="str">
-        <v>-20081|21000|492</v>
+      <c r="D40" t="str">
+        <v>-4589|-1402|0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>-3638|-2160|0</v>
+      </c>
+      <c r="F40" t="str">
+        <v>-3569|-1261|0</v>
       </c>
       <c r="G40" s="1">
         <v>3</v>
@@ -1344,219 +1344,219 @@
     </row>
     <row customHeight="true" ht="23" r="41">
       <c r="A41" s="1">
-        <v>20018</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <v>-19624|21060|153</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <v>2|6|0.5</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <v>-19693|21334|153</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <v>-19693|20771|154</v>
-      </c>
-      <c r="F41" s="1" t="str">
-        <v>-19528|20757|152</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="B41" s="1" t="str"/>
+      <c r="C41" s="1" t="str"/>
+      <c r="D41" s="1" t="str"/>
+      <c r="E41" s="1" t="str"/>
+      <c r="F41" s="1" t="str"/>
       <c r="G41" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="42">
       <c r="A42" s="1">
-        <v>20019</v>
+        <v>30001</v>
       </c>
       <c r="B42" s="1" t="str">
-        <v>-20134|20539|154</v>
+        <v>11897|14733|11633</v>
       </c>
       <c r="C42" s="1" t="str">
-        <v>12|3|0.5</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <v>-20705|20660|152</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <v>-19529|20677|152</v>
-      </c>
-      <c r="F42" s="1" t="str">
-        <v>-20738|20402|152</v>
+        <v>10|10|1</v>
+      </c>
+      <c r="D42" t="str">
+        <v>3271|421|0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>3297|-717|0</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2933|419|0</v>
       </c>
       <c r="G42" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="43">
       <c r="A43" s="1">
-        <v>20020</v>
+        <v>30002</v>
       </c>
       <c r="B43" s="1" t="str">
-        <v>-20605|21150|152</v>
+        <v>14091|12160|11633</v>
       </c>
       <c r="C43" s="1" t="str">
-        <v>5|6|0.5</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <v>-20362|20868|153</v>
-      </c>
-      <c r="E43" s="1" t="str">
-        <v>-20828|21400|152</v>
-      </c>
-      <c r="F43" s="1" t="str">
-        <v>-20346|21415|158</v>
+        <v>40|16|1</v>
+      </c>
+      <c r="D43" t="str">
+        <v>1877|-635|0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>2697|-1048|0</v>
+      </c>
+      <c r="F43" t="str">
+        <v>1895|-1079|0</v>
       </c>
       <c r="G43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="44">
       <c r="A44" s="1">
-        <v>30000</v>
-      </c>
-      <c r="B44" s="1" t="str"/>
-      <c r="C44" s="1" t="str"/>
-      <c r="D44" s="1" t="str"/>
-      <c r="E44" s="1" t="str"/>
-      <c r="F44" s="1" t="str"/>
+        <v>30003</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <v>12011|13670|11633</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <v>8|8|1</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2944|-1910|0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>3250|-1028|0</v>
+      </c>
+      <c r="F44" t="str">
+        <v>3258|-2183|0</v>
+      </c>
       <c r="G44" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="45">
       <c r="A45" s="1">
-        <v>30001</v>
+        <v>30004</v>
       </c>
       <c r="B45" s="1" t="str">
-        <v>11897|14733|11633</v>
+        <v>13500|14081|11633</v>
       </c>
       <c r="C45" s="1" t="str">
-        <v>10|10|1</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <v>11373|15277|11633</v>
-      </c>
-      <c r="E45" s="1" t="str">
-        <v>12363|15182|11633</v>
-      </c>
-      <c r="F45" s="1" t="str">
-        <v>11449|14291|11633</v>
+        <v>5.5|20|1</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2468|603|0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>1920|142|0</v>
+      </c>
+      <c r="F45" t="str">
+        <v>2025|1841|0</v>
       </c>
       <c r="G45" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="46">
       <c r="A46" s="1">
-        <v>30002</v>
+        <v>30005</v>
       </c>
       <c r="B46" s="1" t="str">
-        <v>14091|12160|11633</v>
+        <v>12480|10849|9161</v>
       </c>
       <c r="C46" s="1" t="str">
-        <v>40|16|1</v>
-      </c>
-      <c r="D46" s="1" t="str">
-        <v>12146|12810|11633</v>
-      </c>
-      <c r="E46" s="1" t="str">
-        <v>12425|11469|11633</v>
-      </c>
-      <c r="F46" s="1" t="str">
-        <v>15966|12860|11633</v>
+        <v>15|22|1</v>
+      </c>
+      <c r="D46" t="str">
+        <v>1888|907|0</v>
+      </c>
+      <c r="E46" t="str">
+        <v>568|1459|0</v>
+      </c>
+      <c r="F46" t="str">
+        <v>1880|1472|0</v>
       </c>
       <c r="G46" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="47">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="47">
       <c r="A47" s="1">
-        <v>30003</v>
+        <v>30006</v>
       </c>
       <c r="B47" s="1" t="str">
-        <v>12011|13670|11633</v>
+        <v>10172|14150|9161</v>
       </c>
       <c r="C47" s="1" t="str">
-        <v>8|8|1</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <v>11605|14040|11633</v>
-      </c>
-      <c r="E47" s="1" t="str">
-        <v>11617|13295|11657</v>
-      </c>
-      <c r="F47" s="1" t="str">
-        <v>12352|13276|11633</v>
+        <v>6|45|1</v>
+      </c>
+      <c r="D47" t="str">
+        <v>-620|1635|0</v>
+      </c>
+      <c r="E47" t="str">
+        <v>-1829|1619|0</v>
+      </c>
+      <c r="F47" t="str">
+        <v>-1784|933|0</v>
       </c>
       <c r="G47" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="48">
       <c r="A48" s="1">
-        <v>30004</v>
+        <v>30007</v>
       </c>
       <c r="B48" s="1" t="str">
-        <v>13500|14081|11633</v>
+        <v>11300|14168|9161</v>
       </c>
       <c r="C48" s="1" t="str">
-        <v>5.5|20|1</v>
-      </c>
-      <c r="D48" s="1" t="str">
-        <v>13263|15107|11633</v>
-      </c>
-      <c r="E48" s="1" t="str">
-        <v>13774|13073|11633</v>
-      </c>
-      <c r="F48" s="1" t="str">
-        <v>13774|13073|11633</v>
+        <v>12|12|1</v>
+      </c>
+      <c r="D48" t="str">
+        <v>-1639|470|0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>-1329|1020|0</v>
+      </c>
+      <c r="F48" t="str">
+        <v>-1349|-849|0</v>
       </c>
       <c r="G48" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="49">
       <c r="A49" s="1">
-        <v>30005</v>
+        <v>30008</v>
       </c>
       <c r="B49" s="1" t="str">
-        <v>12480|10849|9161</v>
+        <v>11068|11230|9156</v>
       </c>
       <c r="C49" s="1" t="str">
-        <v>15|22|1</v>
-      </c>
-      <c r="D49" s="1" t="str">
-        <v>11750|11967|9156</v>
-      </c>
-      <c r="E49" s="1" t="str">
-        <v>13135|9832|9156</v>
-      </c>
-      <c r="F49" s="1" t="str">
-        <v>13207|11939|9156</v>
+        <v>10|9|1</v>
+      </c>
+      <c r="D49" t="str">
+        <v>-1639|-850|0</v>
+      </c>
+      <c r="E49" t="str">
+        <v>-1158|-1502|0</v>
+      </c>
+      <c r="F49" t="str">
+        <v>-1628|-1738|0</v>
       </c>
       <c r="G49" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="50">
       <c r="A50" s="1">
-        <v>30006</v>
+        <v>30009</v>
       </c>
       <c r="B50" s="1" t="str">
-        <v>10172|14150|9161</v>
+        <v>13184|12619|9156</v>
       </c>
       <c r="C50" s="1" t="str">
-        <v>6|45|1</v>
-      </c>
-      <c r="D50" s="1" t="str">
-        <v>10442|16400|9156</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <v>10422|11896|9157</v>
-      </c>
-      <c r="F50" s="1" t="str">
-        <v>9907|16353|9156</v>
+        <v>23|5|1</v>
+      </c>
+      <c r="D50" t="str">
+        <v>-887|-967|0</v>
+      </c>
+      <c r="E50" t="str">
+        <v>1503|-942|0</v>
+      </c>
+      <c r="F50" t="str">
+        <v>501|-1180|0</v>
       </c>
       <c r="G50" s="1">
         <v>5</v>
@@ -1564,91 +1564,91 @@
     </row>
     <row customHeight="true" ht="23" r="51">
       <c r="A51" s="1">
-        <v>30007</v>
+        <v>30010</v>
       </c>
       <c r="B51" s="1" t="str">
-        <v>11300|14168|9161</v>
+        <v>14277|9454|9161</v>
       </c>
       <c r="C51" s="1" t="str">
-        <v>12|12|1</v>
-      </c>
-      <c r="D51" s="1" t="str">
-        <v>11869|13595|9157</v>
-      </c>
-      <c r="E51" s="1" t="str">
-        <v>10735|13575|9156</v>
-      </c>
-      <c r="F51" s="1" t="str">
-        <v>11862|14757|9156</v>
+        <v>30|5|1</v>
+      </c>
+      <c r="D51" t="str">
+        <v>1392|14|0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>728|-688|0</v>
+      </c>
+      <c r="F51" t="str">
+        <v>756|700|0</v>
       </c>
       <c r="G51" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="52">
       <c r="A52" s="1">
-        <v>30008</v>
+        <v>30011</v>
       </c>
       <c r="B52" s="1" t="str">
-        <v>11068|11230|9156</v>
+        <v>16695|10658|9156</v>
       </c>
       <c r="C52" s="1" t="str">
-        <v>10|9|1</v>
-      </c>
-      <c r="D52" s="1" t="str">
-        <v>10581|11656|9157</v>
-      </c>
-      <c r="E52" s="1" t="str">
-        <v>11509|11686|9156</v>
-      </c>
-      <c r="F52" s="1" t="str">
-        <v>11549|10752|9157</v>
+        <v>6|22|1</v>
+      </c>
+      <c r="D52" t="str">
+        <v>-853|-100|0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>-844|-538|0</v>
+      </c>
+      <c r="F52" t="str">
+        <v>245|-555|0</v>
       </c>
       <c r="G52" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="53">
       <c r="A53" s="1">
-        <v>30009</v>
+        <v>30012</v>
       </c>
       <c r="B53" s="1" t="str">
-        <v>13184|12619|9156</v>
+        <v>17654|14637|9156</v>
       </c>
       <c r="C53" s="1" t="str">
-        <v>23|5|1</v>
-      </c>
-      <c r="D53" s="1" t="str">
-        <v>14343|12838|9157</v>
-      </c>
-      <c r="E53" s="1" t="str">
-        <v>14334|12363|9156</v>
-      </c>
-      <c r="F53" s="1" t="str">
-        <v>12023|12877|9157</v>
+        <v>20|45|1</v>
+      </c>
+      <c r="D53" t="str">
+        <v>236|103|0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>222|556|0</v>
+      </c>
+      <c r="F53" t="str">
+        <v>-772|551|0</v>
       </c>
       <c r="G53" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="54">
       <c r="A54" s="1">
-        <v>30010</v>
+        <v>30013</v>
       </c>
       <c r="B54" s="1" t="str">
-        <v>14277|9454|9161</v>
+        <v>15566|18328|9157</v>
       </c>
       <c r="C54" s="1" t="str">
-        <v>30|5|1</v>
-      </c>
-      <c r="D54" s="1" t="str">
-        <v>15762|9220|9156</v>
-      </c>
-      <c r="E54" s="1" t="str">
-        <v>15792|9691|9156</v>
-      </c>
-      <c r="F54" s="1" t="str">
-        <v>12792|9240|9156</v>
+        <v>15|12|1</v>
+      </c>
+      <c r="D54" t="str">
+        <v>-4802|-1007|0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>-4790|648|0</v>
+      </c>
+      <c r="F54" t="str">
+        <v>-4224|-80|0</v>
       </c>
       <c r="G54" s="1">
         <v>4</v>
@@ -1656,203 +1656,139 @@
     </row>
     <row customHeight="true" ht="23" r="55">
       <c r="A55" s="1">
-        <v>30011</v>
+        <v>30014</v>
       </c>
       <c r="B55" s="1" t="str">
-        <v>16695|10658|9156</v>
+        <v>2455|14385|85</v>
       </c>
       <c r="C55" s="1" t="str">
-        <v>6|22|1</v>
-      </c>
-      <c r="D55" s="1" t="str">
-        <v>16215|9622|9157</v>
-      </c>
-      <c r="E55" s="1" t="str">
-        <v>17608|11336|9157</v>
-      </c>
-      <c r="F55" s="1" t="str">
-        <v>15784|9961|9157</v>
+        <v>8|6.25|1</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <v>-2808|-2015|0</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <v>-3304|-2088|0</v>
+      </c>
+      <c r="F55" t="str">
+        <v>-3398|-588|0</v>
       </c>
       <c r="G55" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="56">
       <c r="A56" s="1">
-        <v>30012</v>
+        <v>30015</v>
       </c>
       <c r="B56" s="1" t="str">
-        <v>17654|14637|9156</v>
+        <v>5890|12730|85</v>
       </c>
       <c r="C56" s="1" t="str">
-        <v>20|45|1</v>
-      </c>
-      <c r="D56" s="1" t="str">
-        <v>16687|16843|9157</v>
-      </c>
-      <c r="E56" s="1" t="str">
-        <v>18649|12365|9157</v>
-      </c>
-      <c r="F56" s="1" t="str">
-        <v>18603|16836|9157</v>
+        <v>14|2.25|1</v>
+      </c>
+      <c r="D56" t="str">
+        <v>-3402|1858|0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>-3003|1818|0</v>
+      </c>
+      <c r="F56" t="str">
+        <v>-2837|1069|0</v>
       </c>
       <c r="G56" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="57">
       <c r="A57" s="1">
-        <v>30013</v>
+        <v>30016</v>
       </c>
       <c r="B57" s="1" t="str">
-        <v>15566|18328|9157</v>
+        <v>7720|13610|85</v>
       </c>
       <c r="C57" s="1" t="str">
-        <v>15|12|1</v>
-      </c>
-      <c r="D57" s="1" t="str">
-        <v>16281|17732|9156</v>
-      </c>
-      <c r="E57" s="2" t="str">
-        <v>16255|18865|9156</v>
-      </c>
-      <c r="F57" s="1" t="str">
-        <v>14857|18885|9156</v>
+        <v>3.25|11.5|1</v>
+      </c>
+      <c r="D57" t="str">
+        <v>-3367|460|0</v>
+      </c>
+      <c r="E57" t="str">
+        <v>-2073|963|0</v>
+      </c>
+      <c r="F57" t="str">
+        <v>-3440|968|0</v>
       </c>
       <c r="G57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="58">
       <c r="A58" s="1">
-        <v>30014</v>
+        <v>30017</v>
       </c>
       <c r="B58" s="1" t="str">
-        <v>2455|14385|85</v>
+        <v>8455|15675|85</v>
       </c>
       <c r="C58" s="1" t="str">
-        <v>8|6.25|1</v>
-      </c>
-      <c r="D58" s="1" t="str">
-        <v>14548|19191|9156</v>
-      </c>
-      <c r="E58" s="1" t="str">
-        <v>14549|18243|9175</v>
-      </c>
-      <c r="F58" s="1" t="str">
-        <v>12376|18219|9175</v>
+        <v>2.25|6.75|1</v>
+      </c>
+      <c r="D58" t="str">
+        <v>-4589|-1402|0</v>
+      </c>
+      <c r="E58" t="str">
+        <v>-3638|-2160|0</v>
+      </c>
+      <c r="F58" t="str">
+        <v>-3569|-1261|0</v>
       </c>
       <c r="G58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="59">
-      <c r="A59" s="1">
-        <v>30015</v>
-      </c>
-      <c r="B59" s="1" t="str">
-        <v>5890|12730|85</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <v>14|2.25|1</v>
-      </c>
-      <c r="D59" s="1" t="str">
-        <v>10607|17270|9161</v>
-      </c>
-      <c r="E59" s="1" t="str">
-        <v>11806|15836|9157</v>
-      </c>
-      <c r="F59" s="1" t="str">
-        <v>11729|17251|9156</v>
-      </c>
-      <c r="G59" s="1">
-        <v>6</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="str"/>
+      <c r="C59" s="1" t="str"/>
+      <c r="D59" s="1" t="str"/>
+      <c r="E59" s="1" t="str"/>
+      <c r="F59" s="1" t="str"/>
+      <c r="G59" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="60">
-      <c r="A60" s="1">
-        <v>30016</v>
-      </c>
-      <c r="B60" s="1" t="str">
-        <v>7720|13610|85</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <v>3.25|11.5|1</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <v>10607|17270|9161</v>
-      </c>
-      <c r="E60" s="1" t="str">
-        <v>11729|17251|9156</v>
-      </c>
-      <c r="F60" s="1" t="str">
-        <v>11927|18598|9156</v>
-      </c>
-      <c r="G60" s="1">
-        <v>5</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="str"/>
+      <c r="C60" s="1" t="str"/>
+      <c r="D60" s="1" t="str"/>
+      <c r="E60" s="1" t="str"/>
+      <c r="F60" s="1" t="str"/>
+      <c r="G60" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="61">
-      <c r="A61" s="1">
-        <v>30017</v>
-      </c>
-      <c r="B61" s="1" t="str">
-        <v>8455|15675|85</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <v>2.25|6.75|1</v>
-      </c>
-      <c r="D61" s="1" t="str">
-        <v>13083|15382|9050</v>
-      </c>
-      <c r="E61" s="1" t="str">
-        <v>12992|16969|9050</v>
-      </c>
-      <c r="F61" s="1" t="str">
-        <v>12328|16892|9050</v>
-      </c>
-      <c r="G61" s="1">
-        <v>3</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="str"/>
+      <c r="C61" s="1" t="str"/>
+      <c r="D61" s="1" t="str"/>
+      <c r="E61" s="1" t="str"/>
+      <c r="F61" s="1" t="str"/>
+      <c r="G61" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="62">
-      <c r="A62" s="1">
-        <v>30018</v>
-      </c>
-      <c r="B62" s="1" t="str">
-        <v>6890|16725|85</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <v>13.5|2.25|1</v>
-      </c>
-      <c r="D62" s="1" t="str">
-        <v>13117|13766|9164</v>
-      </c>
-      <c r="E62" s="1" t="str">
-        <v>13125|14508|9164</v>
-      </c>
-      <c r="F62" s="1" t="str">
-        <v>12652|14469|9164</v>
-      </c>
-      <c r="G62" s="1">
-        <v>5</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="str"/>
+      <c r="C62" s="1" t="str"/>
+      <c r="D62" s="1" t="str"/>
+      <c r="E62" s="1" t="str"/>
+      <c r="F62" s="1" t="str"/>
+      <c r="G62" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="63">
-      <c r="A63" s="1">
-        <v>30019</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="str"/>
       <c r="C63" s="1" t="str"/>
-      <c r="D63" s="1" t="str">
-        <v>15771|17016|9188</v>
-      </c>
-      <c r="E63" s="1" t="str">
-        <v>15766|15569|9188</v>
-      </c>
-      <c r="F63" s="1" t="str">
-        <v>16258|15553|9188</v>
-      </c>
+      <c r="D63" s="1" t="str"/>
+      <c r="E63" s="1" t="str"/>
+      <c r="F63" s="1" t="str"/>
       <c r="G63" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="64">
@@ -1910,7 +1846,7 @@
       <c r="G69" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="70">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="str"/>
       <c r="B70" s="1" t="str"/>
       <c r="C70" s="1" t="str"/>
       <c r="D70" s="1" t="str"/>
@@ -1919,7 +1855,7 @@
       <c r="G70" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="71">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="str"/>
       <c r="B71" s="1" t="str"/>
       <c r="C71" s="1" t="str"/>
       <c r="D71" s="1" t="str"/>
@@ -1928,7 +1864,7 @@
       <c r="G71" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="72">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="str"/>
       <c r="B72" s="1" t="str"/>
       <c r="C72" s="1" t="str"/>
       <c r="D72" s="1" t="str"/>
@@ -1937,7 +1873,7 @@
       <c r="G72" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="73">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="str"/>
       <c r="B73" s="1" t="str"/>
       <c r="C73" s="1" t="str"/>
       <c r="D73" s="1" t="str"/>
@@ -1946,7 +1882,7 @@
       <c r="G73" s="1" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="74">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="str"/>
       <c r="B74" s="1" t="str"/>
       <c r="C74" s="1" t="str"/>
       <c r="D74" s="1" t="str"/>
@@ -3034,51 +2970,6 @@
       <c r="F194" s="1" t="str"/>
       <c r="G194" s="1" t="str"/>
     </row>
-    <row customHeight="true" ht="23" r="195">
-      <c r="A195" s="1" t="str"/>
-      <c r="B195" s="1" t="str"/>
-      <c r="C195" s="1" t="str"/>
-      <c r="D195" s="1" t="str"/>
-      <c r="E195" s="1" t="str"/>
-      <c r="F195" s="1" t="str"/>
-      <c r="G195" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="23" r="196">
-      <c r="A196" s="1" t="str"/>
-      <c r="B196" s="1" t="str"/>
-      <c r="C196" s="1" t="str"/>
-      <c r="D196" s="1" t="str"/>
-      <c r="E196" s="1" t="str"/>
-      <c r="F196" s="1" t="str"/>
-      <c r="G196" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="23" r="197">
-      <c r="A197" s="1" t="str"/>
-      <c r="B197" s="1" t="str"/>
-      <c r="C197" s="1" t="str"/>
-      <c r="D197" s="1" t="str"/>
-      <c r="E197" s="1" t="str"/>
-      <c r="F197" s="1" t="str"/>
-      <c r="G197" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="23" r="198">
-      <c r="A198" s="1" t="str"/>
-      <c r="B198" s="1" t="str"/>
-      <c r="C198" s="1" t="str"/>
-      <c r="D198" s="1" t="str"/>
-      <c r="E198" s="1" t="str"/>
-      <c r="F198" s="1" t="str"/>
-      <c r="G198" s="1" t="str"/>
-    </row>
-    <row customHeight="true" ht="23" r="199">
-      <c r="A199" s="1" t="str"/>
-      <c r="B199" s="1" t="str"/>
-      <c r="C199" s="1" t="str"/>
-      <c r="D199" s="1" t="str"/>
-      <c r="E199" s="1" t="str"/>
-      <c r="F199" s="1" t="str"/>
-      <c r="G199" s="1" t="str"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wolf/Excel/CoinsGenerate_金币生成表.xlsx
+++ b/wolf/Excel/CoinsGenerate_金币生成表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1588,7 +1588,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/wolf/Excel/CoinsGenerate_金币生成表.xlsx
+++ b/wolf/Excel/CoinsGenerate_金币生成表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="234">
   <si>
     <t>Int</t>
   </si>
@@ -86,10 +86,10 @@
     <t/>
   </si>
   <si>
-    <t>-760|3050|800</t>
-  </si>
-  <si>
-    <t>2.5|25|0.5</t>
+    <t>-7230|-1800|241</t>
+  </si>
+  <si>
+    <t>2|20|1</t>
   </si>
   <si>
     <t>-535|4300|800</t>
@@ -101,10 +101,10 @@
     <t>-885|1800|800</t>
   </si>
   <si>
-    <t>-480|3180|735</t>
-  </si>
-  <si>
-    <t>2|26|0.5</t>
+    <t>-7230|700|241</t>
+  </si>
+  <si>
+    <t>2|22|1</t>
   </si>
   <si>
     <t>-380|4480|735</t>
@@ -116,10 +116,10 @@
     <t>-580|1880|735</t>
   </si>
   <si>
-    <t>-20|4720|735</t>
-  </si>
-  <si>
-    <t>16|4|0.5</t>
+    <t>-6730|-2490|241</t>
+  </si>
+  <si>
+    <t>7|6|1</t>
   </si>
   <si>
     <t>780|4920|735</t>
@@ -131,10 +131,10 @@
     <t>-820|4520|735</t>
   </si>
   <si>
-    <t>-45|3535|735</t>
-  </si>
-  <si>
-    <t>3.5|3.5|0.5</t>
+    <t>-5800|-2570|241</t>
+  </si>
+  <si>
+    <t>5|5|1</t>
   </si>
   <si>
     <t>130|3710|735</t>
@@ -146,10 +146,10 @@
     <t>-220|3360|735</t>
   </si>
   <si>
-    <t>-325|1410|735</t>
-  </si>
-  <si>
-    <t>8|6|0.5</t>
+    <t>-4000|-2600|241</t>
+  </si>
+  <si>
+    <t>14|4|1</t>
   </si>
   <si>
     <t>75|1710|735</t>
@@ -161,10 +161,10 @@
     <t>-725|1110|735</t>
   </si>
   <si>
-    <t>690|1915|735</t>
-  </si>
-  <si>
-    <t>3|10|0.5</t>
+    <t>-5124|-2342|241</t>
+  </si>
+  <si>
+    <t>8|2.5|1</t>
   </si>
   <si>
     <t>840|2415|735</t>
@@ -176,10 +176,10 @@
     <t>540|1415|735</t>
   </si>
   <si>
-    <t>535|2795|735</t>
-  </si>
-  <si>
-    <t>6|6|0.5</t>
+    <t>-1060|-280|241</t>
+  </si>
+  <si>
+    <t>6|22|1</t>
   </si>
   <si>
     <t>835|3095|735</t>
@@ -191,10 +191,10 @@
     <t>235|2495|735</t>
   </si>
   <si>
-    <t>465|350|735</t>
-  </si>
-  <si>
-    <t>5.5|5|0.5</t>
+    <t>-2374|-2358|241</t>
+  </si>
+  <si>
+    <t>6|3|1</t>
   </si>
   <si>
     <t>740|600|735</t>
@@ -206,10 +206,10 @@
     <t>190|100|735</t>
   </si>
   <si>
-    <t>0|900|735</t>
-  </si>
-  <si>
-    <t>17.5|2.4|0.5</t>
+    <t>-1394|-1783|241</t>
+  </si>
+  <si>
+    <t>4|4|1</t>
   </si>
   <si>
     <t>875|1020|735</t>
@@ -221,10 +221,7 @@
     <t>-875|780|735</t>
   </si>
   <si>
-    <t>1950|4515|735</t>
-  </si>
-  <si>
-    <t>2.6|1|0.5</t>
+    <t>-1647|-624|241</t>
   </si>
   <si>
     <t>2080|4565|735</t>
@@ -236,7 +233,10 @@
     <t>1920|4465|735</t>
   </si>
   <si>
-    <t>-280|365|850</t>
+    <t>-1652|966|241</t>
+  </si>
+  <si>
+    <t>5|4|1</t>
   </si>
   <si>
     <t>20|665|850</t>
@@ -248,10 +248,10 @@
     <t>-580|65|850</t>
   </si>
   <si>
-    <t>-685|350|735</t>
-  </si>
-  <si>
-    <t>2.5|5|0.5</t>
+    <t>-2899|1824|241</t>
+  </si>
+  <si>
+    <t>12|3.5|1</t>
   </si>
   <si>
     <t>-560|600|735</t>
@@ -263,10 +263,10 @@
     <t>-810|100|735</t>
   </si>
   <si>
-    <t>1200|2175|735</t>
-  </si>
-  <si>
-    <t>5.5|3|0.5</t>
+    <t>-2112|-60|241</t>
+  </si>
+  <si>
+    <t>2|40|1</t>
   </si>
   <si>
     <t>1475|2325|735</t>
@@ -278,10 +278,10 @@
     <t>925|2025|735</t>
   </si>
   <si>
-    <t>1295|1400|745</t>
-  </si>
-  <si>
-    <t>3|5|0.5</t>
+    <t>-4465|2023|241</t>
+  </si>
+  <si>
+    <t>12|3|1</t>
   </si>
   <si>
     <t>1445|1650|745</t>
@@ -293,10 +293,7 @@
     <t>1145|1150|745</t>
   </si>
   <si>
-    <t>1930|4910|735</t>
-  </si>
-  <si>
-    <t>2|2.5|0.5</t>
+    <t>-6678|1872|241</t>
   </si>
   <si>
     <t>2030|5035|735</t>
@@ -308,10 +305,10 @@
     <t>1830|4785|735</t>
   </si>
   <si>
-    <t>1950|5260|735</t>
-  </si>
-  <si>
-    <t>2.5|3.5|0.5</t>
+    <t>-3319|-313|241</t>
+  </si>
+  <si>
+    <t>6|12|1</t>
   </si>
   <si>
     <t>2075|5435|735</t>
@@ -323,10 +320,10 @@
     <t>1825|5085|735</t>
   </si>
   <si>
-    <t>1380|4990|735</t>
-  </si>
-  <si>
-    <t>7|6.5|0.5</t>
+    <t>-3555|733|241</t>
+  </si>
+  <si>
+    <t>2|7|1</t>
   </si>
   <si>
     <t>1730|5315|735</t>
@@ -338,10 +335,46 @@
     <t>1030|4665|735</t>
   </si>
   <si>
-    <t>-18510|19524|800</t>
-  </si>
-  <si>
-    <t>2.5|2|0.5</t>
+    <t>-4732|1014|241</t>
+  </si>
+  <si>
+    <t>4|3|1</t>
+  </si>
+  <si>
+    <t>-5688|1011|241</t>
+  </si>
+  <si>
+    <t>7|2|1</t>
+  </si>
+  <si>
+    <t>-3857|-1605|241</t>
+  </si>
+  <si>
+    <t>8|3|1</t>
+  </si>
+  <si>
+    <t>-5039|-1651|241</t>
+  </si>
+  <si>
+    <t>10|2|1</t>
+  </si>
+  <si>
+    <t>-6341|617|241</t>
+  </si>
+  <si>
+    <t>3|3|1</t>
+  </si>
+  <si>
+    <t>-6506|-141|241</t>
+  </si>
+  <si>
+    <t>5|3|1</t>
+  </si>
+  <si>
+    <t>-6175|-1585|241</t>
+  </si>
+  <si>
+    <t>-6499|-986|241</t>
   </si>
   <si>
     <t>-18395|19424|800</t>
@@ -353,12 +386,6 @@
     <t>-18632|19628|800</t>
   </si>
   <si>
-    <t>-18840|19956|800</t>
-  </si>
-  <si>
-    <t>1.5|4|0.5</t>
-  </si>
-  <si>
     <t>-18902|19755|800</t>
   </si>
   <si>
@@ -368,12 +395,6 @@
     <t>-18762|20152|801</t>
   </si>
   <si>
-    <t>-18783|19874|493</t>
-  </si>
-  <si>
-    <t>3.5|4.5|0.5</t>
-  </si>
-  <si>
     <t>-18963|19651|493</t>
   </si>
   <si>
@@ -383,12 +404,6 @@
     <t>-18647|19662|493</t>
   </si>
   <si>
-    <t>-18549|19475|493</t>
-  </si>
-  <si>
-    <t>2.5|2.5|0.5</t>
-  </si>
-  <si>
     <t>-18427|19356|493</t>
   </si>
   <si>
@@ -398,12 +413,6 @@
     <t>-18670|19363|493</t>
   </si>
   <si>
-    <t>-18632|20173|153</t>
-  </si>
-  <si>
-    <t>2|2|0.5</t>
-  </si>
-  <si>
     <t>-18727|20254|153</t>
   </si>
   <si>
@@ -413,12 +422,6 @@
     <t>-18527|20043|153</t>
   </si>
   <si>
-    <t>-19038|20787|158</t>
-  </si>
-  <si>
-    <t>8|2.5|0.5</t>
-  </si>
-  <si>
     <t>-19424|20669|152</t>
   </si>
   <si>
@@ -428,12 +431,6 @@
     <t>-18611|20928|147</t>
   </si>
   <si>
-    <t>-18970|18890|147</t>
-  </si>
-  <si>
-    <t>4|5.5|0.5</t>
-  </si>
-  <si>
     <t>-19162|18614|154</t>
   </si>
   <si>
@@ -443,12 +440,6 @@
     <t>-19152|19149|173</t>
   </si>
   <si>
-    <t>-19265|20296|155</t>
-  </si>
-  <si>
-    <t>3.5|5.5|0.5</t>
-  </si>
-  <si>
     <t>-19437|20023|153</t>
   </si>
   <si>
@@ -458,12 +449,6 @@
     <t>-19070|20568|153</t>
   </si>
   <si>
-    <t>-19392|19441|152</t>
-  </si>
-  <si>
-    <t>3|3|0.5</t>
-  </si>
-  <si>
     <t>-19540|19287|152</t>
   </si>
   <si>
@@ -473,12 +458,6 @@
     <t>-19536|19578|152</t>
   </si>
   <si>
-    <t>-19970|18695|805</t>
-  </si>
-  <si>
-    <t>8|5|0.5</t>
-  </si>
-  <si>
     <t>-20315|18910|805</t>
   </si>
   <si>
@@ -488,9 +467,6 @@
     <t>-19621|18881|805</t>
   </si>
   <si>
-    <t>-19876|18633|155</t>
-  </si>
-  <si>
     <t>-19776|18730|155</t>
   </si>
   <si>
@@ -500,12 +476,6 @@
     <t>-19959|18539|155</t>
   </si>
   <si>
-    <t>-20303|19418|155</t>
-  </si>
-  <si>
-    <t>9|3|0.5</t>
-  </si>
-  <si>
     <t>-20745|19557|152</t>
   </si>
   <si>
@@ -515,12 +485,6 @@
     <t>-19879|19567|155</t>
   </si>
   <si>
-    <t>-20524|18889|149</t>
-  </si>
-  <si>
-    <t>2|6.5|0.5</t>
-  </si>
-  <si>
     <t>-20426|19195|159</t>
   </si>
   <si>
@@ -530,12 +494,6 @@
     <t>-20421|18561|155</t>
   </si>
   <si>
-    <t>-21062|19942|155</t>
-  </si>
-  <si>
-    <t>15|4|0.5</t>
-  </si>
-  <si>
     <t>-20319|19782|167</t>
   </si>
   <si>
@@ -545,12 +503,6 @@
     <t>-21775|20051|155</t>
   </si>
   <si>
-    <t>-19895|19961|155</t>
-  </si>
-  <si>
-    <t>7|7|0.5</t>
-  </si>
-  <si>
     <t>-20196|20262|155</t>
   </si>
   <si>
@@ -560,12 +512,6 @@
     <t>-20196|19661|166</t>
   </si>
   <si>
-    <t>-19877|21233|801</t>
-  </si>
-  <si>
-    <t>7|4|0.5</t>
-  </si>
-  <si>
     <t>-20202|21035|801</t>
   </si>
   <si>
@@ -575,9 +521,6 @@
     <t>-19540|21423|801</t>
   </si>
   <si>
-    <t>-19898|21101|492</t>
-  </si>
-  <si>
     <t>-19729|21213|493</t>
   </si>
   <si>
@@ -587,12 +530,6 @@
     <t>-20081|21000|492</t>
   </si>
   <si>
-    <t>-19624|21060|153</t>
-  </si>
-  <si>
-    <t>2|6|0.5</t>
-  </si>
-  <si>
     <t>-19693|21334|153</t>
   </si>
   <si>
@@ -602,12 +539,6 @@
     <t>-19528|20757|152</t>
   </si>
   <si>
-    <t>-20134|20539|154</t>
-  </si>
-  <si>
-    <t>12|3|0.5</t>
-  </si>
-  <si>
     <t>-20705|20660|152</t>
   </si>
   <si>
@@ -617,12 +548,6 @@
     <t>-20738|20402|152</t>
   </si>
   <si>
-    <t>-20605|21150|152</t>
-  </si>
-  <si>
-    <t>5|6|0.5</t>
-  </si>
-  <si>
     <t>-20362|20868|153</t>
   </si>
   <si>
@@ -632,12 +557,6 @@
     <t>-20346|21415|158</t>
   </si>
   <si>
-    <t>-11300|10900|40</t>
-  </si>
-  <si>
-    <t>7|6|0.5</t>
-  </si>
-  <si>
     <t>-10950|11200|40</t>
   </si>
   <si>
@@ -647,12 +566,6 @@
     <t>-11650|10600|40</t>
   </si>
   <si>
-    <t>-10600|10850|40</t>
-  </si>
-  <si>
-    <t>6|5|0.5</t>
-  </si>
-  <si>
     <t>-10300|11100|40</t>
   </si>
   <si>
@@ -662,12 +575,6 @@
     <t>-10900|10600|40</t>
   </si>
   <si>
-    <t>-10685|11635|-35</t>
-  </si>
-  <si>
-    <t>4|5|0.5</t>
-  </si>
-  <si>
     <t>-10485|11885|-35</t>
   </si>
   <si>
@@ -677,12 +584,6 @@
     <t>-10885|11385|-35</t>
   </si>
   <si>
-    <t>-10400|12600|-35</t>
-  </si>
-  <si>
-    <t>6|14|0.5</t>
-  </si>
-  <si>
     <t>-10100|13300|-35</t>
   </si>
   <si>
@@ -692,12 +593,6 @@
     <t>-10700|11900|-35</t>
   </si>
   <si>
-    <t>-11300|12250|40</t>
-  </si>
-  <si>
-    <t>5.5|6.5|0.5</t>
-  </si>
-  <si>
     <t>-11025|12575|40</t>
   </si>
   <si>
@@ -707,12 +602,6 @@
     <t>-11575|11925|40</t>
   </si>
   <si>
-    <t>-11350|11550|40</t>
-  </si>
-  <si>
-    <t>5|6.5|0.5</t>
-  </si>
-  <si>
     <t>-11100|11875|40</t>
   </si>
   <si>
@@ -722,12 +611,6 @@
     <t>-11600|11225|40</t>
   </si>
   <si>
-    <t>-11400|13680|40</t>
-  </si>
-  <si>
-    <t>4|13|0.5</t>
-  </si>
-  <si>
     <t>-11200|14330|40</t>
   </si>
   <si>
@@ -737,12 +620,6 @@
     <t>-11600|13030|40</t>
   </si>
   <si>
-    <t>-10750|14200|40</t>
-  </si>
-  <si>
-    <t>9|4|0.5</t>
-  </si>
-  <si>
     <t>-10300|14400|40</t>
   </si>
   <si>
@@ -752,12 +629,6 @@
     <t>-11200|14000|40</t>
   </si>
   <si>
-    <t>-12250|13550|40</t>
-  </si>
-  <si>
-    <t>5.5|8.5|0.5</t>
-  </si>
-  <si>
     <t>-11975|13975|40</t>
   </si>
   <si>
@@ -767,9 +638,6 @@
     <t>-12525|13125|40</t>
   </si>
   <si>
-    <t>-12250|14580|40</t>
-  </si>
-  <si>
     <t>-11950|14880|40</t>
   </si>
   <si>
@@ -779,21 +647,12 @@
     <t>-12550|14280|40</t>
   </si>
   <si>
-    <t>-13170|14590|40</t>
-  </si>
-  <si>
-    <t>7|3.5|0.5</t>
-  </si>
-  <si>
     <t>-12820|14765|40</t>
   </si>
   <si>
     <t>-13520|14415|40</t>
   </si>
   <si>
-    <t>-13465|14165|55</t>
-  </si>
-  <si>
     <t>-13115|14365|55</t>
   </si>
   <si>
@@ -803,12 +662,6 @@
     <t>-13815|13965|55</t>
   </si>
   <si>
-    <t>-14025|13455|40</t>
-  </si>
-  <si>
-    <t>2.5|11|0.5</t>
-  </si>
-  <si>
     <t>-13900|14005|40</t>
   </si>
   <si>
@@ -818,12 +671,6 @@
     <t>-14150|12905|40</t>
   </si>
   <si>
-    <t>-14440|12705|55</t>
-  </si>
-  <si>
-    <t>1|27|0.5</t>
-  </si>
-  <si>
     <t>-14390|14055|55</t>
   </si>
   <si>
@@ -833,12 +680,6 @@
     <t>-14490|11355|55</t>
   </si>
   <si>
-    <t>-13545|11305|55</t>
-  </si>
-  <si>
-    <t>4|6.5|0.5</t>
-  </si>
-  <si>
     <t>-13345|11630|55</t>
   </si>
   <si>
@@ -848,12 +689,6 @@
     <t>-13745|10980|55</t>
   </si>
   <si>
-    <t>-14125|10800|40</t>
-  </si>
-  <si>
-    <t>7.5|6.5|0.5</t>
-  </si>
-  <si>
     <t>-13750|11125|40</t>
   </si>
   <si>
@@ -863,12 +698,6 @@
     <t>-14500|10475|40</t>
   </si>
   <si>
-    <t>-13025|10725|40</t>
-  </si>
-  <si>
-    <t>7|3|0.5</t>
-  </si>
-  <si>
     <t>-12675|10875|40</t>
   </si>
   <si>
@@ -878,12 +707,6 @@
     <t>-13375|10575|40</t>
   </si>
   <si>
-    <t>-12120|11455|55</t>
-  </si>
-  <si>
-    <t>7|2.5|0.5</t>
-  </si>
-  <si>
     <t>-11770|11580|55</t>
   </si>
   <si>
@@ -893,12 +716,6 @@
     <t>-12470|11330|55</t>
   </si>
   <si>
-    <t>-12940|12510|65</t>
-  </si>
-  <si>
-    <t>2|14|0.5</t>
-  </si>
-  <si>
     <t>-12840|13210|65</t>
   </si>
   <si>
@@ -906,12 +723,6 @@
   </si>
   <si>
     <t>-13040|11810|65</t>
-  </si>
-  <si>
-    <t>-13365|13115|65</t>
-  </si>
-  <si>
-    <t>6|2.5|0.5</t>
   </si>
   <si>
     <t>-13065|13240|65</t>
@@ -1912,12 +1723,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2044,14 +1855,14 @@
         <v>17</v>
       </c>
       <c r="G5" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:7">
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
@@ -2074,10 +1885,10 @@
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
@@ -2100,7 +1911,7 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
@@ -2123,7 +1934,7 @@
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
@@ -2146,7 +1957,7 @@
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
@@ -2169,7 +1980,7 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
       <c r="D11" t="s">
@@ -2192,7 +2003,7 @@
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
@@ -2215,7 +2026,7 @@
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
       <c r="D13" t="s">
@@ -2238,7 +2049,7 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
       <c r="D14" t="s">
@@ -2261,17 +2072,17 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -2282,10 +2093,10 @@
         <v>10011</v>
       </c>
       <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>69</v>
@@ -2307,7 +2118,7 @@
       <c r="B17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="D17" t="s">
@@ -2330,7 +2141,7 @@
       <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>78</v>
       </c>
       <c r="D18" t="s">
@@ -2353,7 +2164,7 @@
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
@@ -2376,17 +2187,17 @@
       <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
         <v>88</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>89</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>91</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -2397,19 +2208,19 @@
         <v>10016</v>
       </c>
       <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" t="s">
         <v>93</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>94</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>96</v>
       </c>
       <c r="G21" s="1">
         <v>4</v>
@@ -2420,19 +2231,19 @@
         <v>10017</v>
       </c>
       <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
         <v>98</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>99</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>101</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
@@ -2440,229 +2251,165 @@
     </row>
     <row r="23" ht="23" customHeight="1" spans="1:7">
       <c r="A23" s="1">
-        <v>20000</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="1">
-        <v>20</v>
-      </c>
+        <v>10018</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:7">
       <c r="A24" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>10019</v>
+      </c>
+      <c r="B24" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="1">
-        <v>4</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:7">
       <c r="A25" s="1">
-        <v>20002</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="1">
-        <v>4</v>
-      </c>
+        <v>10020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" ht="23" customHeight="1" spans="1:7">
       <c r="A26" s="1">
-        <v>20003</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
+        <v>10021</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:7">
       <c r="A27" s="1">
-        <v>20004</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="1">
-        <v>4</v>
-      </c>
+        <v>10022</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:7">
       <c r="A28" s="1">
-        <v>20005</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="1">
-        <v>3</v>
-      </c>
+        <v>10023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" ht="23" customHeight="1" spans="1:7">
       <c r="A29" s="1">
-        <v>20006</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="1">
-        <v>8</v>
-      </c>
+        <v>10024</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" ht="23" customHeight="1" spans="1:7">
       <c r="A30" s="1">
-        <v>20007</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="1">
-        <v>5</v>
-      </c>
+        <v>10025</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" ht="23" customHeight="1" spans="1:7">
       <c r="A31" s="1">
-        <v>20008</v>
+        <v>20000</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="23" customHeight="1" spans="1:7">
       <c r="A32" s="1">
-        <v>20009</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>143</v>
+        <v>20001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="G32" s="1">
         <v>4</v>
@@ -2670,137 +2417,137 @@
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:7">
       <c r="A33" s="1">
-        <v>20010</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>148</v>
+        <v>20002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="G33" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" ht="23" customHeight="1" spans="1:7">
       <c r="A34" s="1">
-        <v>20011</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="1" t="s">
+        <v>20003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="G34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" ht="23" customHeight="1" spans="1:7">
       <c r="A35" s="1">
-        <v>20012</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>20004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" t="s">
-        <v>159</v>
+        <v>124</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="G35" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" ht="23" customHeight="1" spans="1:7">
       <c r="A36" s="1">
-        <v>20013</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>162</v>
+        <v>20005</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="G36" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" ht="23" customHeight="1" spans="1:7">
       <c r="A37" s="1">
-        <v>20014</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>167</v>
+        <v>20006</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="G37" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:7">
       <c r="A38" s="1">
-        <v>20015</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>172</v>
+        <v>20007</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="G38" s="1">
         <v>5</v>
@@ -2808,910 +2555,890 @@
     </row>
     <row r="39" ht="23" customHeight="1" spans="1:7">
       <c r="A39" s="1">
-        <v>20016</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>177</v>
+        <v>20008</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="G39" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" ht="23" customHeight="1" spans="1:7">
       <c r="A40" s="1">
-        <v>20017</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>93</v>
+        <v>20009</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="G40" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="23" customHeight="1" spans="1:7">
       <c r="A41" s="1">
-        <v>20018</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>186</v>
+        <v>20010</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="G41" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="23" customHeight="1" spans="1:7">
       <c r="A42" s="1">
-        <v>20019</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>191</v>
+        <v>20011</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="G42" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="23" customHeight="1" spans="1:7">
       <c r="A43" s="1">
-        <v>20020</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>196</v>
+        <v>20012</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>198</v>
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>149</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="G43" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="1" spans="1:7">
       <c r="A44" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" ht="23" customHeight="1" spans="1:7">
+      <c r="A45" s="1">
+        <v>20014</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" ht="23" customHeight="1" spans="1:7">
+      <c r="A46" s="1">
+        <v>20015</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" ht="23" customHeight="1" spans="1:7">
+      <c r="A47" s="1">
+        <v>20016</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" ht="23" customHeight="1" spans="1:7">
+      <c r="A48" s="1">
+        <v>20017</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" ht="23" customHeight="1" spans="1:7">
+      <c r="A49" s="1">
+        <v>20018</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" ht="23" customHeight="1" spans="1:7">
+      <c r="A50" s="1">
+        <v>20019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" ht="23" customHeight="1" spans="1:7">
+      <c r="A51" s="1">
+        <v>20020</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" ht="23" customHeight="1" spans="1:7">
+      <c r="A52" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" ht="23" customHeight="1" spans="1:7">
+      <c r="A53" s="1">
+        <v>20022</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" ht="23" customHeight="1" spans="1:7">
+      <c r="A54" s="1">
+        <v>20023</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" ht="23" customHeight="1" spans="1:7">
+      <c r="A55" s="1">
+        <v>20024</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" ht="23" customHeight="1" spans="1:7">
+      <c r="A56" s="1">
+        <v>20025</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" ht="23" customHeight="1" spans="1:7">
+      <c r="A57" s="1">
         <v>30000</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" ht="23" customHeight="1" spans="1:8">
-      <c r="A45" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" ht="23" customHeight="1" spans="1:8">
-      <c r="A46" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G46" s="3">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" ht="19" customHeight="1" spans="1:8">
-      <c r="A47" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" ht="23" customHeight="1" spans="1:8">
-      <c r="A48" s="1">
-        <v>30004</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" ht="23" customHeight="1" spans="1:8">
-      <c r="A49" s="1">
-        <v>30005</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" ht="23" customHeight="1" spans="1:8">
-      <c r="A50" s="1">
-        <v>30006</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G50" s="3">
-        <v>3</v>
-      </c>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" ht="23" customHeight="1" spans="1:8">
-      <c r="A51" s="1">
-        <v>30007</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G51" s="3">
-        <v>5</v>
-      </c>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" ht="23" customHeight="1" spans="1:8">
-      <c r="A52" s="1">
-        <v>30008</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" ht="23" customHeight="1" spans="1:8">
-      <c r="A53" s="1">
-        <v>30009</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G53" s="3">
-        <v>4</v>
-      </c>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" ht="23" customHeight="1" spans="1:8">
-      <c r="A54" s="1">
-        <v>30010</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" ht="23" customHeight="1" spans="1:8">
-      <c r="A55" s="1">
-        <v>30011</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G55" s="3">
-        <v>3</v>
-      </c>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" ht="23" customHeight="1" spans="1:8">
-      <c r="A56" s="1">
-        <v>30012</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G56" s="3">
-        <v>3</v>
-      </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" ht="23" customHeight="1" spans="1:8">
-      <c r="A57" s="1">
-        <v>30013</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3"/>
+      <c r="B57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="58" ht="23" customHeight="1" spans="1:8">
       <c r="A58" s="1">
-        <v>30014</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>263</v>
+        <v>30001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="G58" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" s="3"/>
     </row>
     <row r="59" ht="23" customHeight="1" spans="1:8">
       <c r="A59" s="1">
-        <v>30015</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>268</v>
+        <v>30002</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="G59" s="3">
         <v>4</v>
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" ht="23" customHeight="1" spans="1:8">
+    <row r="60" ht="19" customHeight="1" spans="1:8">
       <c r="A60" s="1">
-        <v>30016</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>273</v>
+        <v>30003</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="G60" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H60" s="3"/>
     </row>
     <row r="61" ht="23" customHeight="1" spans="1:8">
       <c r="A61" s="1">
-        <v>30017</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>278</v>
+        <v>30004</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c r="G61" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H61" s="3"/>
     </row>
     <row r="62" ht="23" customHeight="1" spans="1:8">
       <c r="A62" s="1">
-        <v>30018</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>283</v>
+        <v>30005</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="G62" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62" s="3"/>
     </row>
     <row r="63" ht="23" customHeight="1" spans="1:8">
       <c r="A63" s="1">
-        <v>30019</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>288</v>
+        <v>30006</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="G63" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" s="3"/>
     </row>
     <row r="64" ht="23" customHeight="1" spans="1:8">
       <c r="A64" s="1">
+        <v>30007</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="3">
+        <v>5</v>
+      </c>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" ht="23" customHeight="1" spans="1:8">
+      <c r="A65" s="1">
+        <v>30008</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" ht="23" customHeight="1" spans="1:8">
+      <c r="A66" s="1">
+        <v>30009</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" ht="23" customHeight="1" spans="1:8">
+      <c r="A67" s="1">
+        <v>30010</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G67" s="3">
+        <v>3</v>
+      </c>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" ht="23" customHeight="1" spans="1:8">
+      <c r="A68" s="1">
+        <v>30011</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G68" s="3">
+        <v>3</v>
+      </c>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" ht="23" customHeight="1" spans="1:8">
+      <c r="A69" s="1">
+        <v>30012</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G69" s="3">
+        <v>3</v>
+      </c>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" ht="23" customHeight="1" spans="1:8">
+      <c r="A70" s="1">
+        <v>30013</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3</v>
+      </c>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" ht="23" customHeight="1" spans="1:8">
+      <c r="A71" s="1">
+        <v>30014</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G71" s="3">
+        <v>3</v>
+      </c>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" ht="23" customHeight="1" spans="1:8">
+      <c r="A72" s="1">
+        <v>30015</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" ht="23" customHeight="1" spans="1:8">
+      <c r="A73" s="1">
+        <v>30016</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" s="3">
+        <v>5</v>
+      </c>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" ht="23" customHeight="1" spans="1:8">
+      <c r="A74" s="1">
+        <v>30017</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G74" s="3">
+        <v>3</v>
+      </c>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" ht="23" customHeight="1" spans="1:8">
+      <c r="A75" s="1">
+        <v>30018</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3</v>
+      </c>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" ht="23" customHeight="1" spans="1:8">
+      <c r="A76" s="1">
+        <v>30019</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" ht="23" customHeight="1" spans="1:8">
+      <c r="A77" s="1">
         <v>30020</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G64" s="3">
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G77" s="3">
         <v>3</v>
       </c>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" ht="23" customHeight="1" spans="1:7">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" ht="23" customHeight="1" spans="1:7">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" ht="23" customHeight="1" spans="1:7">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" ht="23" customHeight="1" spans="1:7">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" ht="23" customHeight="1" spans="1:7">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" ht="23" customHeight="1" spans="1:7">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" ht="23" customHeight="1" spans="1:7">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" ht="23" customHeight="1" spans="1:7">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" ht="23" customHeight="1" spans="1:7">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" ht="23" customHeight="1" spans="1:7">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" ht="23" customHeight="1" spans="1:7">
-      <c r="A75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" ht="23" customHeight="1" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" ht="23" customHeight="1" spans="1:7">
-      <c r="A77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="H77" s="3"/>
     </row>
     <row r="78" ht="23" customHeight="1" spans="1:7">
-      <c r="A78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>17</v>
+      <c r="A78" s="1">
+        <v>30021</v>
+      </c>
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" t="s">
+        <v>108</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>17</v>
@@ -3727,14 +3454,14 @@
       </c>
     </row>
     <row r="79" ht="23" customHeight="1" spans="1:7">
-      <c r="A79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>17</v>
+      <c r="A79" s="1">
+        <v>30022</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>17</v>
@@ -3750,14 +3477,14 @@
       </c>
     </row>
     <row r="80" ht="23" customHeight="1" spans="1:7">
-      <c r="A80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>17</v>
+      <c r="A80" s="1">
+        <v>30023</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" t="s">
+        <v>112</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>17</v>
@@ -3773,14 +3500,14 @@
       </c>
     </row>
     <row r="81" ht="23" customHeight="1" spans="1:7">
-      <c r="A81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>17</v>
+      <c r="A81" s="1">
+        <v>30024</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" t="s">
+        <v>102</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>17</v>
@@ -3796,14 +3523,14 @@
       </c>
     </row>
     <row r="82" ht="23" customHeight="1" spans="1:7">
-      <c r="A82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>17</v>
+      <c r="A82" s="1">
+        <v>30025</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>17</v>
@@ -3819,9 +3546,7 @@
       </c>
     </row>
     <row r="83" ht="23" customHeight="1" spans="1:7">
-      <c r="A83" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>17</v>
       </c>
@@ -3842,9 +3567,7 @@
       </c>
     </row>
     <row r="84" ht="23" customHeight="1" spans="1:7">
-      <c r="A84" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>17</v>
       </c>
@@ -3865,9 +3588,7 @@
       </c>
     </row>
     <row r="85" ht="23" customHeight="1" spans="1:7">
-      <c r="A85" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>17</v>
       </c>
@@ -3888,9 +3609,7 @@
       </c>
     </row>
     <row r="86" ht="23" customHeight="1" spans="1:7">
-      <c r="A86" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>17</v>
       </c>
@@ -3911,9 +3630,7 @@
       </c>
     </row>
     <row r="87" ht="23" customHeight="1" spans="1:7">
-      <c r="A87" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>17</v>
       </c>
@@ -6506,6 +6223,305 @@
         <v>17</v>
       </c>
       <c r="G199" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" ht="23" customHeight="1" spans="1:7">
+      <c r="A200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" ht="23" customHeight="1" spans="1:7">
+      <c r="A201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" ht="23" customHeight="1" spans="1:7">
+      <c r="A202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" ht="23" customHeight="1" spans="1:7">
+      <c r="A203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" ht="23" customHeight="1" spans="1:7">
+      <c r="A204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" ht="23" customHeight="1" spans="1:7">
+      <c r="A205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" ht="23" customHeight="1" spans="1:7">
+      <c r="A206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" ht="23" customHeight="1" spans="1:7">
+      <c r="A207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" ht="23" customHeight="1" spans="1:7">
+      <c r="A208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" ht="23" customHeight="1" spans="1:7">
+      <c r="A209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" ht="23" customHeight="1" spans="1:7">
+      <c r="A210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" ht="23" customHeight="1" spans="1:7">
+      <c r="A211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" ht="23" customHeight="1" spans="1:7">
+      <c r="A212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/wolf/Excel/CoinsGenerate_金币生成表.xlsx
+++ b/wolf/Excel/CoinsGenerate_金币生成表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="80">
   <si>
     <t>Int</t>
   </si>
@@ -92,13 +92,13 @@
     <t>2|20|1</t>
   </si>
   <si>
-    <t>-7220|-2625|241</t>
-  </si>
-  <si>
-    <t>-841|-1288|241</t>
-  </si>
-  <si>
-    <t>-7116|1747|241</t>
+    <t>-820|-1289|241</t>
+  </si>
+  <si>
+    <t>-1457|-1614|241</t>
+  </si>
+  <si>
+    <t>-1209|-340|241</t>
   </si>
   <si>
     <t>-7230|700|241</t>
@@ -107,7 +107,10 @@
     <t>2|22|1</t>
   </si>
   <si>
-    <t>-1101|1050|241</t>
+    <t>-743|536|241</t>
+  </si>
+  <si>
+    <t>-1646|1303|241</t>
   </si>
   <si>
     <t>-6730|-2490|241</t>
@@ -116,22 +119,157 @@
     <t>7|6|1</t>
   </si>
   <si>
+    <t>-2052|714|241</t>
+  </si>
+  <si>
+    <t>-2043|-1926|241</t>
+  </si>
+  <si>
+    <t>-2211|702|241</t>
+  </si>
+  <si>
     <t>-5800|-2570|241</t>
   </si>
   <si>
     <t>5|5|1</t>
   </si>
   <si>
+    <t>-2106|1837|241</t>
+  </si>
+  <si>
+    <t>-3196|2028|241</t>
+  </si>
+  <si>
     <t>-4000|-2600|241</t>
   </si>
   <si>
     <t>14|4|1</t>
   </si>
   <si>
+    <t>-3963|2158|241</t>
+  </si>
+  <si>
+    <t>-4957|2140|241</t>
+  </si>
+  <si>
+    <t>-4484|1650|241</t>
+  </si>
+  <si>
     <t>-5124|-2342|241</t>
   </si>
   <si>
     <t>8|2.5|1</t>
+  </si>
+  <si>
+    <t>-6254|2134|241</t>
+  </si>
+  <si>
+    <t>-5496|1642|241</t>
+  </si>
+  <si>
+    <t>-6939|1634|241</t>
+  </si>
+  <si>
+    <t>-7328|1648|241</t>
+  </si>
+  <si>
+    <t>-7145|539|241</t>
+  </si>
+  <si>
+    <t>-7308|-388|241</t>
+  </si>
+  <si>
+    <t>-7316|-817|241</t>
+  </si>
+  <si>
+    <t>-7282|-2708|241</t>
+  </si>
+  <si>
+    <t>-7158|-1750|241</t>
+  </si>
+  <si>
+    <t>-6820|-2225|241</t>
+  </si>
+  <si>
+    <t>-6469|-2665|241</t>
+  </si>
+  <si>
+    <t>-5946|-2748|241</t>
+  </si>
+  <si>
+    <t>-4913|-2224|241</t>
+  </si>
+  <si>
+    <t>-3819|-2743|241</t>
+  </si>
+  <si>
+    <t>-3057|-907|241</t>
+  </si>
+  <si>
+    <t>-3062|213|241</t>
+  </si>
+  <si>
+    <t>-3651|235|241</t>
+  </si>
+  <si>
+    <t>-4208|-1693|241</t>
+  </si>
+  <si>
+    <t>-3552|-950|241</t>
+  </si>
+  <si>
+    <t>-3501|-1700|241</t>
+  </si>
+  <si>
+    <t>-5160|-1707|241</t>
+  </si>
+  <si>
+    <t>-5582|-1479|241</t>
+  </si>
+  <si>
+    <t>-4503|-1472|241</t>
+  </si>
+  <si>
+    <t>-6583|-1662|241</t>
+  </si>
+  <si>
+    <t>-6331|-1687|241</t>
+  </si>
+  <si>
+    <t>-6623|-774|241</t>
+  </si>
+  <si>
+    <t>-6402|-402|241</t>
+  </si>
+  <si>
+    <t>-6549|1094|241</t>
+  </si>
+  <si>
+    <t>-6621|-399|241</t>
+  </si>
+  <si>
+    <t>-5296|1132|241</t>
+  </si>
+  <si>
+    <t>-5620|910|241</t>
+  </si>
+  <si>
+    <t>-3500|1095|241</t>
+  </si>
+  <si>
+    <t>-3498|832|241</t>
+  </si>
+  <si>
+    <t>-4894|1116|241</t>
+  </si>
+  <si>
+    <t>-6043|-1138|241</t>
+  </si>
+  <si>
+    <t>-4283|-1220|241</t>
+  </si>
+  <si>
+    <t>-4965|664|241</t>
   </si>
 </sst>
 </file>
@@ -1111,12 +1249,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1243,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:7">
@@ -1266,7 +1404,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="23" customHeight="1" spans="1:7">
@@ -1280,16 +1418,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="1" spans="1:7">
@@ -1297,22 +1435,22 @@
         <v>10003</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="23" customHeight="1" spans="1:7">
@@ -1320,22 +1458,22 @@
         <v>10004</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
       <c r="G9" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:7">
@@ -1343,22 +1481,22 @@
         <v>10005</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:7">
@@ -1366,966 +1504,880 @@
         <v>10006</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="1" spans="1:7">
       <c r="A12" s="1">
-        <v>20000</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>10007</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:7">
       <c r="A13" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
+        <v>10008</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G13" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:7">
       <c r="A14" s="1">
-        <v>20002</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
+        <v>10009</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G14" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:7">
       <c r="A15" s="1">
-        <v>20003</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
+        <v>10010</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G15" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:7">
       <c r="A16" s="1">
-        <v>20004</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
+        <v>10011</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G16" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" ht="23" customHeight="1" spans="1:7">
       <c r="A17" s="1">
-        <v>20005</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
+        <v>10012</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G17" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:7">
       <c r="A18" s="1">
-        <v>20006</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
+        <v>10013</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G18" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:7">
       <c r="A19" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="1:7">
+      <c r="A20" s="1">
+        <v>10015</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:7">
+      <c r="A21" s="1">
+        <v>10016</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" ht="23" customHeight="1" spans="1:7">
+      <c r="A22" s="1">
+        <v>10017</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="23" customHeight="1" spans="1:7">
+      <c r="A23" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:7">
+      <c r="A24" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="1" spans="1:7">
+      <c r="A25" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" ht="23" customHeight="1" spans="1:7">
+      <c r="A26" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" ht="23" customHeight="1" spans="1:7">
+      <c r="A27" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" ht="23" customHeight="1" spans="1:7">
+      <c r="A28" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:7">
+      <c r="A29" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="1" spans="1:7">
+      <c r="A30" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="1:7">
+      <c r="A31" s="1">
+        <v>20007</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" ht="23" customHeight="1" spans="1:7">
+      <c r="A32" s="1">
+        <v>20008</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="1:7">
+      <c r="A33" s="1">
+        <v>20009</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="1:7">
+      <c r="A34" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="1" spans="1:7">
+      <c r="A35" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="1" spans="1:7">
+      <c r="A36" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" ht="23" customHeight="1" spans="1:7">
+      <c r="A37" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" ht="23" customHeight="1" spans="1:7">
+      <c r="A38" s="1">
+        <v>20014</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" ht="23" customHeight="1" spans="1:7">
+      <c r="A39" s="1">
+        <v>20015</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" ht="23" customHeight="1" spans="1:7">
+      <c r="A40" s="1">
+        <v>20016</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" ht="23" customHeight="1" spans="1:7">
+      <c r="A41" s="1">
+        <v>20017</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" ht="23" customHeight="1" spans="1:7">
+      <c r="A42" s="1">
+        <v>20018</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" ht="23" customHeight="1" spans="1:7">
+      <c r="A43" s="1">
         <v>30000</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" ht="23" customHeight="1" spans="1:8">
-      <c r="A20" s="1">
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="23" customHeight="1" spans="1:8">
+      <c r="A44" s="1">
         <v>30001</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B44" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C44" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D44" t="s">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E44" t="s">
         <v>21</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F44" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G44" s="1">
+        <v>5</v>
+      </c>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" ht="23" customHeight="1" spans="1:8">
+      <c r="A45" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" ht="19" customHeight="1" spans="1:8">
+      <c r="A46" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" ht="23" customHeight="1" spans="1:8">
+      <c r="A47" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" ht="23" customHeight="1" spans="1:8">
+      <c r="A48" s="1">
+        <v>30005</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" ht="23" customHeight="1" spans="1:8">
+      <c r="A49" s="1">
+        <v>30006</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" ht="23" customHeight="1" spans="1:7">
+      <c r="A50" s="1">
+        <v>30007</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" ht="23" customHeight="1" spans="1:7">
+      <c r="A51" s="1">
+        <v>30008</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" ht="23" customHeight="1" spans="1:8">
-      <c r="A21" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" ht="23" customHeight="1" spans="1:7">
+      <c r="A52" s="1">
+        <v>30009</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" ht="19" customHeight="1" spans="1:8">
-      <c r="A22" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1">
-        <v>50</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" ht="23" customHeight="1" spans="1:8">
-      <c r="A23" s="1">
-        <v>30004</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="1">
-        <v>50</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" ht="23" customHeight="1" spans="1:8">
-      <c r="A24" s="1">
-        <v>30005</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="1">
-        <v>50</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" ht="23" customHeight="1" spans="1:8">
-      <c r="A25" s="1">
-        <v>30006</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1">
-        <v>50</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" ht="23" customHeight="1" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" ht="23" customHeight="1" spans="1:7">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" ht="23" customHeight="1" spans="1:7">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" ht="23" customHeight="1" spans="1:7">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" ht="23" customHeight="1" spans="1:7">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" ht="23" customHeight="1" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" ht="23" customHeight="1" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" ht="23" customHeight="1" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" ht="23" customHeight="1" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" ht="23" customHeight="1" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" ht="23" customHeight="1" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" ht="23" customHeight="1" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" ht="23" customHeight="1" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" ht="23" customHeight="1" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" ht="23" customHeight="1" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" ht="23" customHeight="1" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" ht="23" customHeight="1" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" ht="23" customHeight="1" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" ht="23" customHeight="1" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" ht="23" customHeight="1" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" ht="23" customHeight="1" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" ht="23" customHeight="1" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" ht="23" customHeight="1" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" ht="23" customHeight="1" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" ht="23" customHeight="1" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" ht="23" customHeight="1" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" ht="23" customHeight="1" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>17</v>
+      <c r="G52" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="53" ht="23" customHeight="1" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>17</v>
+      <c r="A53" s="1">
+        <v>30010</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>17</v>
@@ -2334,21 +2386,21 @@
         <v>17</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="G53" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="54" ht="23" customHeight="1" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>17</v>
+      <c r="A54" s="1">
+        <v>30011</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>17</v>
@@ -2357,21 +2409,21 @@
         <v>17</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
+      </c>
+      <c r="G54" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="23" customHeight="1" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>17</v>
+      <c r="A55" s="1">
+        <v>30012</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>17</v>
@@ -2380,21 +2432,21 @@
         <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="23" customHeight="1" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>17</v>
+      <c r="A56" s="1">
+        <v>30013</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>17</v>
@@ -2403,21 +2455,21 @@
         <v>17</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="57" ht="23" customHeight="1" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>17</v>
+      <c r="A57" s="1">
+        <v>30014</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>17</v>
@@ -2426,21 +2478,21 @@
         <v>17</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>17</v>
+        <v>68</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="58" ht="23" customHeight="1" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>17</v>
+      <c r="A58" s="1">
+        <v>30015</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>17</v>
@@ -2449,21 +2501,21 @@
         <v>17</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="G58" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="59" ht="23" customHeight="1" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>17</v>
+      <c r="A59" s="1">
+        <v>30016</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>17</v>
@@ -2472,21 +2524,21 @@
         <v>17</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="G59" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="60" ht="23" customHeight="1" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>17</v>
+      <c r="A60" s="1">
+        <v>30017</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>17</v>
@@ -2495,21 +2547,21 @@
         <v>17</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="61" ht="23" customHeight="1" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>17</v>
+      <c r="A61" s="1">
+        <v>30018</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
@@ -2518,16 +2570,16 @@
         <v>17</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
+      </c>
+      <c r="G61" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="62" ht="23" customHeight="1" spans="1:7">
@@ -4689,6 +4741,558 @@
         <v>17</v>
       </c>
       <c r="G155" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" ht="23" customHeight="1" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" ht="23" customHeight="1" spans="1:7">
+      <c r="A157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" ht="23" customHeight="1" spans="1:7">
+      <c r="A158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" ht="23" customHeight="1" spans="1:7">
+      <c r="A159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" ht="23" customHeight="1" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" ht="23" customHeight="1" spans="1:7">
+      <c r="A161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" ht="23" customHeight="1" spans="1:7">
+      <c r="A162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" ht="23" customHeight="1" spans="1:7">
+      <c r="A163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" ht="23" customHeight="1" spans="1:7">
+      <c r="A164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" ht="23" customHeight="1" spans="1:7">
+      <c r="A165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" ht="23" customHeight="1" spans="1:7">
+      <c r="A166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" ht="23" customHeight="1" spans="1:7">
+      <c r="A167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" ht="23" customHeight="1" spans="1:7">
+      <c r="A168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" ht="23" customHeight="1" spans="1:7">
+      <c r="A169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" ht="23" customHeight="1" spans="1:7">
+      <c r="A170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" ht="23" customHeight="1" spans="1:7">
+      <c r="A171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" ht="23" customHeight="1" spans="1:7">
+      <c r="A172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" ht="23" customHeight="1" spans="1:7">
+      <c r="A173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" ht="23" customHeight="1" spans="1:7">
+      <c r="A174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" ht="23" customHeight="1" spans="1:7">
+      <c r="A175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" ht="23" customHeight="1" spans="1:7">
+      <c r="A176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" ht="23" customHeight="1" spans="1:7">
+      <c r="A177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" ht="23" customHeight="1" spans="1:7">
+      <c r="A178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" ht="23" customHeight="1" spans="1:7">
+      <c r="A179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/wolf/Excel/CoinsGenerate_金币生成表.xlsx
+++ b/wolf/Excel/CoinsGenerate_金币生成表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="108">
   <si>
     <t>Int</t>
   </si>
@@ -270,6 +270,90 @@
   </si>
   <si>
     <t>-4965|664|241</t>
+  </si>
+  <si>
+    <t>80786.3125|80862.3828125|344.1099853515625</t>
+  </si>
+  <si>
+    <t>79465.3125|80633.75|343.7200012207031</t>
+  </si>
+  <si>
+    <t>79953.140625|79934.109375|341.75</t>
+  </si>
+  <si>
+    <t>78716.609375|79977.7734375|343.3900146484375</t>
+  </si>
+  <si>
+    <t>79378.8828125|79369.4765625|344.82000732421875</t>
+  </si>
+  <si>
+    <t>80994.2109375|78888.9375|344.3299865722656</t>
+  </si>
+  <si>
+    <t>79806.90625|78034.796875|287.69000244140625</t>
+  </si>
+  <si>
+    <t>81791.7265625|78063.1796875|287.54998779296875</t>
+  </si>
+  <si>
+    <t>82529.84375|79402.921875|287.5</t>
+  </si>
+  <si>
+    <t>77831.6015625|77991.15625|287.6199951171875</t>
+  </si>
+  <si>
+    <t>77319.578125|78841.5234375|287.55999755859375</t>
+  </si>
+  <si>
+    <t>77258.3828125|79845.296875|287.54998779296875</t>
+  </si>
+  <si>
+    <t>77680.640625|80798.3203125|287.55999755859375</t>
+  </si>
+  <si>
+    <t>78313.1328125|81693.953125|287.6499938964844</t>
+  </si>
+  <si>
+    <t>82853.140625|-79556.703125|269.8999938964844</t>
+  </si>
+  <si>
+    <t>82495.2578125|-80730.15625|269.95001220703125</t>
+  </si>
+  <si>
+    <t>81920.6328125|-80030.1328125|269.95001220703125</t>
+  </si>
+  <si>
+    <t>81906.3671875|-79265.75|269.95001220703125</t>
+  </si>
+  <si>
+    <t>80931.46875|-79531.1171875|270.9599914550781</t>
+  </si>
+  <si>
+    <t>80747.578125|-80490.0703125|270.92999267578125</t>
+  </si>
+  <si>
+    <t>79976.8203125|-80085.46875|269.95001220703125</t>
+  </si>
+  <si>
+    <t>79129.9609375|-79535.328125|270.9599914550781</t>
+  </si>
+  <si>
+    <t>78953.828125|-80473.84375|270.92999267578125</t>
+  </si>
+  <si>
+    <t>78103.8125|-80486.4296875|270.92999267578125</t>
+  </si>
+  <si>
+    <t>78062.796875|-79558.8828125|270.9599914550781</t>
+  </si>
+  <si>
+    <t>77599.0390625|-79195.4921875|270</t>
+  </si>
+  <si>
+    <t>77079.2890625|-80458.2421875|269.8699951171875</t>
+  </si>
+  <si>
+    <t>80795.96875|-80539.546875|270.92999267578125</t>
   </si>
 </sst>
 </file>
@@ -1249,12 +1333,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1770,7 +1854,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:7">
@@ -1784,13 +1868,13 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G25" s="1">
         <v>5</v>
@@ -1807,13 +1891,13 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="G26" s="1">
         <v>5</v>
@@ -1830,13 +1914,13 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1">
         <v>5</v>
@@ -1853,13 +1937,13 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="G28" s="1">
         <v>5</v>
@@ -1876,13 +1960,13 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G29" s="1">
         <v>5</v>
@@ -1899,13 +1983,13 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G30" s="1">
         <v>5</v>
@@ -1918,13 +2002,13 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G31" s="1">
         <v>5</v>
@@ -1937,13 +2021,13 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G32" s="1">
         <v>5</v>
@@ -1956,13 +2040,13 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G33" s="1">
         <v>5</v>
@@ -1975,13 +2059,13 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G34" s="1">
         <v>5</v>
@@ -1989,159 +2073,197 @@
     </row>
     <row r="35" ht="23" customHeight="1" spans="1:7">
       <c r="A35" s="1">
-        <v>20011</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+        <v>30000</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G35" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" ht="23" customHeight="1" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="1" spans="1:8">
       <c r="A36" s="1">
-        <v>20012</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>62</v>
+        <v>30001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
       </c>
       <c r="G36" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" ht="23" customHeight="1" spans="1:7">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" ht="23" customHeight="1" spans="1:8">
       <c r="A37" s="1">
-        <v>20013</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>65</v>
+        <v>30002</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
       </c>
       <c r="G37" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" ht="23" customHeight="1" spans="1:7">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" ht="19" customHeight="1" spans="1:8">
       <c r="A38" s="1">
-        <v>20014</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>68</v>
+        <v>30003</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
       </c>
       <c r="G38" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" ht="23" customHeight="1" spans="1:7">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" ht="23" customHeight="1" spans="1:8">
       <c r="A39" s="1">
-        <v>20015</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>71</v>
+        <v>30004</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
       </c>
       <c r="G39" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" ht="23" customHeight="1" spans="1:7">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" ht="23" customHeight="1" spans="1:8">
       <c r="A40" s="1">
-        <v>20016</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>70</v>
+        <v>30005</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
       </c>
       <c r="G40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" ht="23" customHeight="1" spans="1:7">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" ht="23" customHeight="1" spans="1:8">
       <c r="A41" s="1">
-        <v>20017</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>76</v>
+        <v>30006</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" t="s">
+        <v>104</v>
       </c>
       <c r="G41" s="1">
         <v>5</v>
       </c>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" ht="23" customHeight="1" spans="1:7">
       <c r="A42" s="1">
-        <v>20018</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+        <v>30007</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G42" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="23" customHeight="1" spans="1:7">
       <c r="A43" s="1">
-        <v>30000</v>
+        <v>30008</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>17</v>
@@ -2150,257 +2272,153 @@
         <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="G43" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" ht="23" customHeight="1" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" ht="23" customHeight="1" spans="1:7">
       <c r="A44" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" t="s">
-        <v>22</v>
+        <v>30009</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G44" s="1">
         <v>5</v>
       </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" ht="23" customHeight="1" spans="1:8">
+    </row>
+    <row r="45" ht="23" customHeight="1" spans="1:7">
       <c r="A45" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
+        <v>30010</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G45" s="1">
         <v>5</v>
       </c>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" ht="19" customHeight="1" spans="1:8">
+    </row>
+    <row r="46" ht="23" customHeight="1" spans="1:7">
       <c r="A46" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s">
-        <v>31</v>
+        <v>30011</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G46" s="1">
         <v>5</v>
       </c>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" ht="23" customHeight="1" spans="1:8">
-      <c r="A47" s="1">
-        <v>30004</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="1">
-        <v>5</v>
-      </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" ht="23" customHeight="1" spans="1:8">
-      <c r="A48" s="1">
-        <v>30005</v>
-      </c>
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="1">
-        <v>5</v>
-      </c>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" ht="23" customHeight="1" spans="1:8">
-      <c r="A49" s="1">
-        <v>30006</v>
-      </c>
-      <c r="B49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="1">
-        <v>5</v>
-      </c>
-      <c r="H49" s="2"/>
+    </row>
+    <row r="47" ht="23" customHeight="1" spans="1:7">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" ht="23" customHeight="1" spans="1:7">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" ht="23" customHeight="1" spans="1:7">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" ht="23" customHeight="1" spans="1:7">
-      <c r="A50" s="1">
-        <v>30007</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="1">
-        <v>5</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" ht="23" customHeight="1" spans="1:7">
-      <c r="A51" s="1">
-        <v>30008</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" s="1">
-        <v>5</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" ht="23" customHeight="1" spans="1:7">
-      <c r="A52" s="1">
-        <v>30009</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="1">
-        <v>5</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" ht="23" customHeight="1" spans="1:7">
-      <c r="A53" s="1">
-        <v>30010</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" s="1">
-        <v>5</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" ht="23" customHeight="1" spans="1:7">
-      <c r="A54" s="1">
-        <v>30011</v>
+      <c r="A54" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>17</v>
@@ -2409,21 +2427,21 @@
         <v>17</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G54" s="1">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="23" customHeight="1" spans="1:7">
-      <c r="A55" s="1">
-        <v>30012</v>
+      <c r="A55" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>17</v>
@@ -2432,21 +2450,21 @@
         <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" s="1">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="23" customHeight="1" spans="1:7">
-      <c r="A56" s="1">
-        <v>30013</v>
+      <c r="A56" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>17</v>
@@ -2455,21 +2473,21 @@
         <v>17</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" s="1">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="23" customHeight="1" spans="1:7">
-      <c r="A57" s="1">
-        <v>30014</v>
+      <c r="A57" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>17</v>
@@ -2478,21 +2496,21 @@
         <v>17</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="1">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="23" customHeight="1" spans="1:7">
-      <c r="A58" s="1">
-        <v>30015</v>
+      <c r="A58" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>17</v>
@@ -2501,21 +2519,21 @@
         <v>17</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" s="1">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="23" customHeight="1" spans="1:7">
-      <c r="A59" s="1">
-        <v>30016</v>
+      <c r="A59" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>17</v>
@@ -2524,21 +2542,21 @@
         <v>17</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" s="1">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="23" customHeight="1" spans="1:7">
-      <c r="A60" s="1">
-        <v>30017</v>
+      <c r="A60" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>17</v>
@@ -2547,21 +2565,21 @@
         <v>17</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="1">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="23" customHeight="1" spans="1:7">
-      <c r="A61" s="1">
-        <v>30018</v>
+      <c r="A61" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
@@ -2570,16 +2588,16 @@
         <v>17</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="1">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="23" customHeight="1" spans="1:7">
@@ -5109,190 +5127,6 @@
         <v>17</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="172" ht="23" customHeight="1" spans="1:7">
-      <c r="A172" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="173" ht="23" customHeight="1" spans="1:7">
-      <c r="A173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="174" ht="23" customHeight="1" spans="1:7">
-      <c r="A174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="175" ht="23" customHeight="1" spans="1:7">
-      <c r="A175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" ht="23" customHeight="1" spans="1:7">
-      <c r="A176" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="177" ht="23" customHeight="1" spans="1:7">
-      <c r="A177" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="178" ht="23" customHeight="1" spans="1:7">
-      <c r="A178" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="179" ht="23" customHeight="1" spans="1:7">
-      <c r="A179" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" s="1" t="s">
         <v>17</v>
       </c>
     </row>
